--- a/Docs/HK.01034.xlsx
+++ b/Docs/HK.01034.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Python\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Python\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2580,7 +2580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2664,11 +2664,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2705,12 +2767,90 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2730,7 +2870,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3009,13 +3149,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M11:T26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="15" customWidth="1"/>
     <col min="14" max="14" width="13.125" customWidth="1"/>
     <col min="15" max="15" width="13.375" customWidth="1"/>
     <col min="16" max="16" width="11.125" customWidth="1"/>
@@ -3042,7 +3183,7 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3071,7 +3212,7 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="15">
         <v>6.6179594610865613E+18</v>
       </c>
       <c r="J2" t="s">
@@ -3104,7 +3245,7 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="15">
         <v>6.6179594610865613E+18</v>
       </c>
       <c r="J3" t="s">
@@ -3137,7 +3278,7 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="15">
         <v>6.6179594868563651E+18</v>
       </c>
       <c r="J4" t="s">
@@ -3170,7 +3311,7 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="15">
         <v>6.6179594997412669E+18</v>
       </c>
       <c r="J5" t="s">
@@ -3181,10 +3322,10 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D6">
@@ -3203,7 +3344,7 @@
       <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="15">
         <v>6.6179595469859072E+18</v>
       </c>
       <c r="J6" t="s">
@@ -3214,10 +3355,10 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D7">
@@ -3236,7 +3377,7 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="15">
         <v>6.6179595469859072E+18</v>
       </c>
       <c r="J7" t="s">
@@ -3247,10 +3388,10 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D8">
@@ -3269,7 +3410,7 @@
       <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="15">
         <v>6.6179595469859072E+18</v>
       </c>
       <c r="J8" t="s">
@@ -3302,7 +3443,7 @@
       <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="15">
         <v>6.6179595598708091E+18</v>
       </c>
       <c r="J9" t="s">
@@ -3335,7 +3476,7 @@
       <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="15">
         <v>6.6179595641657764E+18</v>
       </c>
       <c r="J10" t="s">
@@ -3368,7 +3509,7 @@
       <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="15">
         <v>6.6179595641657764E+18</v>
       </c>
       <c r="J11" t="s">
@@ -3407,7 +3548,7 @@
       <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="15">
         <v>6.6179595641657764E+18</v>
       </c>
       <c r="J12" t="s">
@@ -3446,7 +3587,7 @@
       <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="15">
         <v>6.617959572755711E+18</v>
       </c>
       <c r="J13" t="s">
@@ -3485,7 +3626,7 @@
       <c r="H14" t="s">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="15">
         <v>6.6179595770506783E+18</v>
       </c>
       <c r="J14" t="s">
@@ -3524,7 +3665,7 @@
       <c r="H15" t="s">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="15">
         <v>6.6179595770506783E+18</v>
       </c>
       <c r="J15" t="s">
@@ -3563,7 +3704,7 @@
       <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="15">
         <v>6.6179595770506783E+18</v>
       </c>
       <c r="J16" t="s">
@@ -3602,7 +3743,7 @@
       <c r="H17" t="s">
         <v>10</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="15">
         <v>6.6179595813456456E+18</v>
       </c>
       <c r="J17" t="s">
@@ -3641,7 +3782,7 @@
       <c r="H18" t="s">
         <v>18</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="15">
         <v>6.6179595813456456E+18</v>
       </c>
       <c r="J18" t="s">
@@ -3680,7 +3821,7 @@
       <c r="H19" t="s">
         <v>10</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="15">
         <v>6.6179595813456456E+18</v>
       </c>
       <c r="J19" t="s">
@@ -3719,7 +3860,7 @@
       <c r="H20" t="s">
         <v>12</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="15">
         <v>6.6179595856406129E+18</v>
       </c>
       <c r="J20" t="s">
@@ -3758,7 +3899,7 @@
       <c r="H21" t="s">
         <v>12</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="15">
         <v>6.6179595899355802E+18</v>
       </c>
       <c r="J21" t="s">
@@ -3797,7 +3938,7 @@
       <c r="H22" t="s">
         <v>10</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="15">
         <v>6.6179596414751877E+18</v>
       </c>
       <c r="J22" t="s">
@@ -3830,7 +3971,7 @@
       <c r="H23" t="s">
         <v>10</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="15">
         <v>6.6179596629500242E+18</v>
       </c>
       <c r="J23" t="s">
@@ -3863,7 +4004,7 @@
       <c r="H24" t="s">
         <v>10</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="15">
         <v>6.6179596844248607E+18</v>
       </c>
       <c r="J24" t="s">
@@ -3896,7 +4037,7 @@
       <c r="H25" t="s">
         <v>10</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="15">
         <v>6.617959688719828E+18</v>
       </c>
       <c r="J25" t="s">
@@ -3929,7 +4070,7 @@
       <c r="H26" t="s">
         <v>10</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="15">
         <v>6.6179596930147953E+18</v>
       </c>
       <c r="J26" t="s">
@@ -3962,7 +4103,7 @@
       <c r="H27" t="s">
         <v>10</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="15">
         <v>6.6179596973097626E+18</v>
       </c>
       <c r="J27" t="s">
@@ -3995,7 +4136,7 @@
       <c r="H28" t="s">
         <v>10</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="15">
         <v>6.6179596973097626E+18</v>
       </c>
       <c r="J28" t="s">
@@ -4028,7 +4169,7 @@
       <c r="H29" t="s">
         <v>10</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="15">
         <v>6.6179596973097626E+18</v>
       </c>
       <c r="J29" t="s">
@@ -4061,7 +4202,7 @@
       <c r="H30" t="s">
         <v>10</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="15">
         <v>6.6179597016047299E+18</v>
       </c>
       <c r="J30" t="s">
@@ -4094,7 +4235,7 @@
       <c r="H31" t="s">
         <v>10</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="15">
         <v>6.6179597016047299E+18</v>
       </c>
       <c r="J31" t="s">
@@ -4127,7 +4268,7 @@
       <c r="H32" t="s">
         <v>10</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="15">
         <v>6.6179597016047299E+18</v>
       </c>
       <c r="J32" t="s">
@@ -4160,7 +4301,7 @@
       <c r="H33" t="s">
         <v>10</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="15">
         <v>6.6179597058996972E+18</v>
       </c>
       <c r="J33" t="s">
@@ -4193,7 +4334,7 @@
       <c r="H34" t="s">
         <v>10</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="15">
         <v>6.6179597058996972E+18</v>
       </c>
       <c r="J34" t="s">
@@ -4226,7 +4367,7 @@
       <c r="H35" t="s">
         <v>10</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="15">
         <v>6.6179597273745336E+18</v>
       </c>
       <c r="J35" t="s">
@@ -4259,7 +4400,7 @@
       <c r="H36" t="s">
         <v>12</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="15">
         <v>6.6179597359644682E+18</v>
       </c>
       <c r="J36" t="s">
@@ -4292,7 +4433,7 @@
       <c r="H37" t="s">
         <v>12</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="15">
         <v>6.6179597488493701E+18</v>
       </c>
       <c r="J37" t="s">
@@ -4325,7 +4466,7 @@
       <c r="H38" t="s">
         <v>12</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="15">
         <v>6.6179597660292393E+18</v>
       </c>
       <c r="J38" t="s">
@@ -4358,7 +4499,7 @@
       <c r="H39" t="s">
         <v>10</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="15">
         <v>6.6179597746191739E+18</v>
       </c>
       <c r="J39" t="s">
@@ -4391,7 +4532,7 @@
       <c r="H40" t="s">
         <v>12</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="15">
         <v>6.6179597832091085E+18</v>
       </c>
       <c r="J40" t="s">
@@ -4424,7 +4565,7 @@
       <c r="H41" t="s">
         <v>18</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="15">
         <v>6.6179597960940104E+18</v>
       </c>
       <c r="J41" t="s">
@@ -4457,7 +4598,7 @@
       <c r="H42" t="s">
         <v>18</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="15">
         <v>6.6179598132738796E+18</v>
       </c>
       <c r="J42" t="s">
@@ -4490,7 +4631,7 @@
       <c r="H43" t="s">
         <v>18</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="15">
         <v>6.6179598304537487E+18</v>
       </c>
       <c r="J43" t="s">
@@ -4523,7 +4664,7 @@
       <c r="H44" t="s">
         <v>18</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="15">
         <v>6.617959834748716E+18</v>
       </c>
       <c r="J44" t="s">
@@ -4556,7 +4697,7 @@
       <c r="H45" t="s">
         <v>10</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="15">
         <v>6.6179598819933563E+18</v>
       </c>
       <c r="J45" t="s">
@@ -4589,7 +4730,7 @@
       <c r="H46" t="s">
         <v>12</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="15">
         <v>6.6179598991732255E+18</v>
       </c>
       <c r="J46" t="s">
@@ -4622,7 +4763,7 @@
       <c r="H47" t="s">
         <v>12</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="15">
         <v>6.6179598991732255E+18</v>
       </c>
       <c r="J47" t="s">
@@ -4633,10 +4774,10 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D48">
@@ -4655,7 +4796,7 @@
       <c r="H48" t="s">
         <v>12</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="15">
         <v>6.6179599034681928E+18</v>
       </c>
       <c r="J48" t="s">
@@ -4666,10 +4807,10 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D49">
@@ -4688,7 +4829,7 @@
       <c r="H49" t="s">
         <v>18</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="15">
         <v>6.6179599034681928E+18</v>
       </c>
       <c r="J49" t="s">
@@ -4699,10 +4840,10 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D50">
@@ -4721,7 +4862,7 @@
       <c r="H50" t="s">
         <v>12</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="15">
         <v>6.6179599034681928E+18</v>
       </c>
       <c r="J50" t="s">
@@ -4732,10 +4873,10 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D51">
@@ -4754,7 +4895,7 @@
       <c r="H51" t="s">
         <v>12</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="15">
         <v>6.6179599034681928E+18</v>
       </c>
       <c r="J51" t="s">
@@ -4787,7 +4928,7 @@
       <c r="H52" t="s">
         <v>10</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="15">
         <v>6.6179599163530947E+18</v>
       </c>
       <c r="J52" t="s">
@@ -4820,7 +4961,7 @@
       <c r="H53" t="s">
         <v>10</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="15">
         <v>6.6179599378279311E+18</v>
       </c>
       <c r="J53" t="s">
@@ -4853,7 +4994,7 @@
       <c r="H54" t="s">
         <v>10</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="15">
         <v>6.6179599678927022E+18</v>
       </c>
       <c r="J54" t="s">
@@ -4886,7 +5027,7 @@
       <c r="H55" t="s">
         <v>12</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="15">
         <v>6.6179599807776041E+18</v>
       </c>
       <c r="J55" t="s">
@@ -4919,7 +5060,7 @@
       <c r="H56" t="s">
         <v>10</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="15">
         <v>6.6179600108423752E+18</v>
       </c>
       <c r="J56" t="s">
@@ -4952,7 +5093,7 @@
       <c r="H57" t="s">
         <v>10</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="15">
         <v>6.6179600409071462E+18</v>
       </c>
       <c r="J57" t="s">
@@ -4985,7 +5126,7 @@
       <c r="H58" t="s">
         <v>12</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="15">
         <v>6.6179600409071462E+18</v>
       </c>
       <c r="J58" t="s">
@@ -5018,7 +5159,7 @@
       <c r="H59" t="s">
         <v>12</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="15">
         <v>6.61796006667695E+18</v>
       </c>
       <c r="J59" t="s">
@@ -5051,7 +5192,7 @@
       <c r="H60" t="s">
         <v>12</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="15">
         <v>6.6179600709719173E+18</v>
       </c>
       <c r="J60" t="s">
@@ -5084,7 +5225,7 @@
       <c r="H61" t="s">
         <v>12</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="15">
         <v>6.6179601139215903E+18</v>
       </c>
       <c r="J61" t="s">
@@ -5117,7 +5258,7 @@
       <c r="H62" t="s">
         <v>10</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="15">
         <v>6.6179601482813286E+18</v>
       </c>
       <c r="J62" t="s">
@@ -5150,7 +5291,7 @@
       <c r="H63" t="s">
         <v>12</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="15">
         <v>6.6179601912310016E+18</v>
       </c>
       <c r="J63" t="s">
@@ -5183,7 +5324,7 @@
       <c r="H64" t="s">
         <v>10</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="15">
         <v>6.6179602384756419E+18</v>
       </c>
       <c r="J64" t="s">
@@ -5216,7 +5357,7 @@
       <c r="H65" t="s">
         <v>12</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="15">
         <v>6.617960255655511E+18</v>
       </c>
       <c r="J65" t="s">
@@ -5249,7 +5390,7 @@
       <c r="H66" t="s">
         <v>10</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="15">
         <v>6.6179602599504783E+18</v>
       </c>
       <c r="J66" t="s">
@@ -5282,7 +5423,7 @@
       <c r="H67" t="s">
         <v>12</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="15">
         <v>6.6179602814253148E+18</v>
       </c>
       <c r="J67" t="s">
@@ -5315,7 +5456,7 @@
       <c r="H68" t="s">
         <v>12</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="15">
         <v>6.6179602814253148E+18</v>
       </c>
       <c r="J68" t="s">
@@ -5348,7 +5489,7 @@
       <c r="H69" t="s">
         <v>12</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="15">
         <v>6.6179603157850532E+18</v>
       </c>
       <c r="J69" t="s">
@@ -5381,7 +5522,7 @@
       <c r="H70" t="s">
         <v>12</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="15">
         <v>6.6179603243749878E+18</v>
       </c>
       <c r="J70" t="s">
@@ -5414,7 +5555,7 @@
       <c r="H71" t="s">
         <v>12</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="15">
         <v>6.6179603973894318E+18</v>
       </c>
       <c r="J71" t="s">
@@ -5447,7 +5588,7 @@
       <c r="H72" t="s">
         <v>10</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="15">
         <v>6.6179604102743337E+18</v>
       </c>
       <c r="J72" t="s">
@@ -5480,7 +5621,7 @@
       <c r="H73" t="s">
         <v>18</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="15">
         <v>6.6179604102743337E+18</v>
       </c>
       <c r="J73" t="s">
@@ -5513,7 +5654,7 @@
       <c r="H74" t="s">
         <v>12</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="15">
         <v>6.6179604102743337E+18</v>
       </c>
       <c r="J74" t="s">
@@ -5546,7 +5687,7 @@
       <c r="H75" t="s">
         <v>12</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="15">
         <v>6.6179604188642683E+18</v>
       </c>
       <c r="J75" t="s">
@@ -5579,7 +5720,7 @@
       <c r="H76" t="s">
         <v>12</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="15">
         <v>6.6179604231592356E+18</v>
       </c>
       <c r="J76" t="s">
@@ -5612,7 +5753,7 @@
       <c r="H77" t="s">
         <v>18</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="15">
         <v>6.6179604317491702E+18</v>
       </c>
       <c r="J77" t="s">
@@ -5645,7 +5786,7 @@
       <c r="H78" t="s">
         <v>12</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="15">
         <v>6.6179604317491702E+18</v>
       </c>
       <c r="J78" t="s">
@@ -5678,7 +5819,7 @@
       <c r="H79" t="s">
         <v>18</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="15">
         <v>6.6179604317491702E+18</v>
       </c>
       <c r="J79" t="s">
@@ -5711,7 +5852,7 @@
       <c r="H80" t="s">
         <v>18</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="15">
         <v>6.6179604317491702E+18</v>
       </c>
       <c r="J80" t="s">
@@ -5744,7 +5885,7 @@
       <c r="H81" t="s">
         <v>18</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="15">
         <v>6.6179604532240067E+18</v>
       </c>
       <c r="J81" t="s">
@@ -5777,7 +5918,7 @@
       <c r="H82" t="s">
         <v>12</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="15">
         <v>6.617960457518974E+18</v>
       </c>
       <c r="J82" t="s">
@@ -5810,7 +5951,7 @@
       <c r="H83" t="s">
         <v>12</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="15">
         <v>6.617960457518974E+18</v>
       </c>
       <c r="J83" t="s">
@@ -5843,7 +5984,7 @@
       <c r="H84" t="s">
         <v>10</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="15">
         <v>6.6179604618139412E+18</v>
       </c>
       <c r="J84" t="s">
@@ -5876,7 +6017,7 @@
       <c r="H85" t="s">
         <v>10</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="15">
         <v>6.6179605348283853E+18</v>
       </c>
       <c r="J85" t="s">
@@ -5909,7 +6050,7 @@
       <c r="H86" t="s">
         <v>10</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="15">
         <v>6.6179605520082545E+18</v>
       </c>
       <c r="J86" t="s">
@@ -5942,7 +6083,7 @@
       <c r="H87" t="s">
         <v>12</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="15">
         <v>6.6179605863679928E+18</v>
       </c>
       <c r="J87" t="s">
@@ -5975,7 +6116,7 @@
       <c r="H88" t="s">
         <v>12</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="15">
         <v>6.6179606078428293E+18</v>
       </c>
       <c r="J88" t="s">
@@ -6008,7 +6149,7 @@
       <c r="H89" t="s">
         <v>18</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="15">
         <v>6.6179606250226985E+18</v>
       </c>
       <c r="J89" t="s">
@@ -6041,7 +6182,7 @@
       <c r="H90" t="s">
         <v>12</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="15">
         <v>6.6179606336126331E+18</v>
       </c>
       <c r="J90" t="s">
@@ -6074,7 +6215,7 @@
       <c r="H91" t="s">
         <v>12</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="15">
         <v>6.6179606422025677E+18</v>
       </c>
       <c r="J91" t="s">
@@ -6107,7 +6248,7 @@
       <c r="H92" t="s">
         <v>12</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="15">
         <v>6.6179606722673388E+18</v>
       </c>
       <c r="J92" t="s">
@@ -6140,7 +6281,7 @@
       <c r="H93" t="s">
         <v>12</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="15">
         <v>6.6179607323968809E+18</v>
       </c>
       <c r="J93" t="s">
@@ -6173,7 +6314,7 @@
       <c r="H94" t="s">
         <v>12</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="15">
         <v>6.6179607667566193E+18</v>
       </c>
       <c r="J94" t="s">
@@ -6206,7 +6347,7 @@
       <c r="H95" t="s">
         <v>10</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="15">
         <v>6.6179607753465539E+18</v>
       </c>
       <c r="J95" t="s">
@@ -6239,7 +6380,7 @@
       <c r="H96" t="s">
         <v>12</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="15">
         <v>6.6179608311811287E+18</v>
       </c>
       <c r="J96" t="s">
@@ -6272,7 +6413,7 @@
       <c r="H97" t="s">
         <v>12</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="15">
         <v>6.6179608741308017E+18</v>
       </c>
       <c r="J97" t="s">
@@ -6305,7 +6446,7 @@
       <c r="H98" t="s">
         <v>10</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="15">
         <v>6.6179608827207363E+18</v>
       </c>
       <c r="J98" t="s">
@@ -6338,7 +6479,7 @@
       <c r="H99" t="s">
         <v>12</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="15">
         <v>6.61796090849054E+18</v>
       </c>
       <c r="J99" t="s">
@@ -6371,7 +6512,7 @@
       <c r="H100" t="s">
         <v>12</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="15">
         <v>6.6179609170804746E+18</v>
       </c>
       <c r="J100" t="s">
@@ -6404,7 +6545,7 @@
       <c r="H101" t="s">
         <v>12</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="15">
         <v>6.6179609900949187E+18</v>
       </c>
       <c r="J101" t="s">
@@ -6437,7 +6578,7 @@
       <c r="H102" t="s">
         <v>12</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="15">
         <v>6.617960994389886E+18</v>
       </c>
       <c r="J102" t="s">
@@ -6470,7 +6611,7 @@
       <c r="H103" t="s">
         <v>12</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="15">
         <v>6.617960994389886E+18</v>
       </c>
       <c r="J103" t="s">
@@ -6503,7 +6644,7 @@
       <c r="H104" t="s">
         <v>12</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="15">
         <v>6.6179609986848532E+18</v>
       </c>
       <c r="J104" t="s">
@@ -6536,7 +6677,7 @@
       <c r="H105" t="s">
         <v>12</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="15">
         <v>6.6179610029798205E+18</v>
       </c>
       <c r="J105" t="s">
@@ -6569,7 +6710,7 @@
       <c r="H106" t="s">
         <v>10</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="15">
         <v>6.6179610201596897E+18</v>
       </c>
       <c r="J106" t="s">
@@ -6602,7 +6743,7 @@
       <c r="H107" t="s">
         <v>12</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="15">
         <v>6.6179610545194281E+18</v>
       </c>
       <c r="J107" t="s">
@@ -6635,7 +6776,7 @@
       <c r="H108" t="s">
         <v>12</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="15">
         <v>6.6179610759942646E+18</v>
       </c>
       <c r="J108" t="s">
@@ -6668,7 +6809,7 @@
       <c r="H109" t="s">
         <v>12</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="15">
         <v>6.6179610845841992E+18</v>
       </c>
       <c r="J109" t="s">
@@ -6701,7 +6842,7 @@
       <c r="H110" t="s">
         <v>12</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="15">
         <v>6.6179610974691011E+18</v>
       </c>
       <c r="J110" t="s">
@@ -6734,7 +6875,7 @@
       <c r="H111" t="s">
         <v>12</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="15">
         <v>6.6179611060590356E+18</v>
       </c>
       <c r="J111" t="s">
@@ -6767,7 +6908,7 @@
       <c r="H112" t="s">
         <v>12</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="15">
         <v>6.6179611790734797E+18</v>
       </c>
       <c r="J112" t="s">
@@ -6800,7 +6941,7 @@
       <c r="H113" t="s">
         <v>12</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="15">
         <v>6.6179611962533489E+18</v>
       </c>
       <c r="J113" t="s">
@@ -6833,7 +6974,7 @@
       <c r="H114" t="s">
         <v>10</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="15">
         <v>6.6179611962533489E+18</v>
       </c>
       <c r="J114" t="s">
@@ -6866,7 +7007,7 @@
       <c r="H115" t="s">
         <v>12</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="15">
         <v>6.6179612220231526E+18</v>
       </c>
       <c r="J115" t="s">
@@ -6899,7 +7040,7 @@
       <c r="H116" t="s">
         <v>12</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="15">
         <v>6.6179612349080545E+18</v>
       </c>
       <c r="J116" t="s">
@@ -6932,7 +7073,7 @@
       <c r="H117" t="s">
         <v>12</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="15">
         <v>6.6179612392030218E+18</v>
       </c>
       <c r="J117" t="s">
@@ -6965,7 +7106,7 @@
       <c r="H118" t="s">
         <v>12</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="15">
         <v>6.617961256382891E+18</v>
       </c>
       <c r="J118" t="s">
@@ -6998,7 +7139,7 @@
       <c r="H119" t="s">
         <v>12</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="15">
         <v>6.6179612649728256E+18</v>
       </c>
       <c r="J119" t="s">
@@ -7031,7 +7172,7 @@
       <c r="H120" t="s">
         <v>12</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="15">
         <v>6.6179612649728256E+18</v>
       </c>
       <c r="J120" t="s">
@@ -7064,7 +7205,7 @@
       <c r="H121" t="s">
         <v>12</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="15">
         <v>6.6179612735627602E+18</v>
       </c>
       <c r="J121" t="s">
@@ -7097,7 +7238,7 @@
       <c r="H122" t="s">
         <v>12</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="15">
         <v>6.6179612950375967E+18</v>
       </c>
       <c r="J122" t="s">
@@ -7130,7 +7271,7 @@
       <c r="H123" t="s">
         <v>12</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="15">
         <v>6.617961299332564E+18</v>
       </c>
       <c r="J123" t="s">
@@ -7163,7 +7304,7 @@
       <c r="H124" t="s">
         <v>12</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="15">
         <v>6.6179613036275313E+18</v>
       </c>
       <c r="J124" t="s">
@@ -7196,7 +7337,7 @@
       <c r="H125" t="s">
         <v>12</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="15">
         <v>6.6179613036275313E+18</v>
       </c>
       <c r="J125" t="s">
@@ -7229,7 +7370,7 @@
       <c r="H126" t="s">
         <v>12</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="15">
         <v>6.6179613036275313E+18</v>
       </c>
       <c r="J126" t="s">
@@ -7262,7 +7403,7 @@
       <c r="H127" t="s">
         <v>12</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="15">
         <v>6.6179613079224986E+18</v>
       </c>
       <c r="J127" t="s">
@@ -7295,7 +7436,7 @@
       <c r="H128" t="s">
         <v>12</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="15">
         <v>6.6179613079224986E+18</v>
       </c>
       <c r="J128" t="s">
@@ -7328,7 +7469,7 @@
       <c r="H129" t="s">
         <v>12</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="15">
         <v>6.6179613122174659E+18</v>
       </c>
       <c r="J129" t="s">
@@ -7361,7 +7502,7 @@
       <c r="H130" t="s">
         <v>12</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="15">
         <v>6.6179613165124332E+18</v>
       </c>
       <c r="J130" t="s">
@@ -7394,7 +7535,7 @@
       <c r="H131" t="s">
         <v>12</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="15">
         <v>6.6179613208074004E+18</v>
       </c>
       <c r="J131" t="s">
@@ -7427,7 +7568,7 @@
       <c r="H132" t="s">
         <v>10</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="15">
         <v>6.6179613336923023E+18</v>
       </c>
       <c r="J132" t="s">
@@ -7460,7 +7601,7 @@
       <c r="H133" t="s">
         <v>12</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="15">
         <v>6.6179613422822369E+18</v>
       </c>
       <c r="J133" t="s">
@@ -7493,7 +7634,7 @@
       <c r="H134" t="s">
         <v>18</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="15">
         <v>6.6179613465772042E+18</v>
       </c>
       <c r="J134" t="s">
@@ -7526,7 +7667,7 @@
       <c r="H135" t="s">
         <v>12</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="15">
         <v>6.6179613508721715E+18</v>
       </c>
       <c r="J135" t="s">
@@ -7559,7 +7700,7 @@
       <c r="H136" t="s">
         <v>12</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="15">
         <v>6.6179613508721715E+18</v>
       </c>
       <c r="J136" t="s">
@@ -7592,7 +7733,7 @@
       <c r="H137" t="s">
         <v>12</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="15">
         <v>6.617961372347008E+18</v>
       </c>
       <c r="J137" t="s">
@@ -7625,7 +7766,7 @@
       <c r="H138" t="s">
         <v>12</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="15">
         <v>6.6179613766419753E+18</v>
       </c>
       <c r="J138" t="s">
@@ -7658,7 +7799,7 @@
       <c r="H139" t="s">
         <v>12</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="15">
         <v>6.6179613766419753E+18</v>
       </c>
       <c r="J139" t="s">
@@ -7691,7 +7832,7 @@
       <c r="H140" t="s">
         <v>12</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="15">
         <v>6.6179613809369426E+18</v>
       </c>
       <c r="J140" t="s">
@@ -7724,7 +7865,7 @@
       <c r="H141" t="s">
         <v>10</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="15">
         <v>6.6179613938218445E+18</v>
       </c>
       <c r="J141" t="s">
@@ -7757,7 +7898,7 @@
       <c r="H142" t="s">
         <v>12</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="15">
         <v>6.6179614024117791E+18</v>
       </c>
       <c r="J142" t="s">
@@ -7790,7 +7931,7 @@
       <c r="H143" t="s">
         <v>12</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="15">
         <v>6.617961415296681E+18</v>
       </c>
       <c r="J143" t="s">
@@ -7823,7 +7964,7 @@
       <c r="H144" t="s">
         <v>10</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="15">
         <v>6.6179614324765501E+18</v>
       </c>
       <c r="J144" t="s">
@@ -7856,7 +7997,7 @@
       <c r="H145" t="s">
         <v>12</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="15">
         <v>6.6179614367715174E+18</v>
       </c>
       <c r="J145" t="s">
@@ -7889,7 +8030,7 @@
       <c r="H146" t="s">
         <v>12</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="15">
         <v>6.6179614410664847E+18</v>
       </c>
       <c r="J146" t="s">
@@ -7922,7 +8063,7 @@
       <c r="H147" t="s">
         <v>10</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="15">
         <v>6.617961445361452E+18</v>
       </c>
       <c r="J147" t="s">
@@ -7955,7 +8096,7 @@
       <c r="H148" t="s">
         <v>12</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="15">
         <v>6.6179614539513866E+18</v>
       </c>
       <c r="J148" t="s">
@@ -7988,7 +8129,7 @@
       <c r="H149" t="s">
         <v>12</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="15">
         <v>6.6179614711312558E+18</v>
       </c>
       <c r="J149" t="s">
@@ -8021,7 +8162,7 @@
       <c r="H150" t="s">
         <v>12</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="15">
         <v>6.6179614754262231E+18</v>
       </c>
       <c r="J150" t="s">
@@ -8054,7 +8195,7 @@
       <c r="H151" t="s">
         <v>12</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="15">
         <v>6.6179615011960269E+18</v>
       </c>
       <c r="J151" t="s">
@@ -8087,7 +8228,7 @@
       <c r="H152" t="s">
         <v>12</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="15">
         <v>6.6179615011960269E+18</v>
       </c>
       <c r="J152" t="s">
@@ -8120,7 +8261,7 @@
       <c r="H153" t="s">
         <v>12</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="15">
         <v>6.6179615097859615E+18</v>
       </c>
       <c r="J153" t="s">
@@ -8153,7 +8294,7 @@
       <c r="H154" t="s">
         <v>12</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="15">
         <v>6.6179615226708634E+18</v>
       </c>
       <c r="J154" t="s">
@@ -8186,7 +8327,7 @@
       <c r="H155" t="s">
         <v>12</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="15">
         <v>6.6179615355557652E+18</v>
       </c>
       <c r="J155" t="s">
@@ -8219,7 +8360,7 @@
       <c r="H156" t="s">
         <v>10</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="15">
         <v>6.6179615398507325E+18</v>
       </c>
       <c r="J156" t="s">
@@ -8252,7 +8393,7 @@
       <c r="H157" t="s">
         <v>10</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="15">
         <v>6.6179615527356344E+18</v>
       </c>
       <c r="J157" t="s">
@@ -8285,7 +8426,7 @@
       <c r="H158" t="s">
         <v>10</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="15">
         <v>6.6179615699155036E+18</v>
       </c>
       <c r="J158" t="s">
@@ -8318,7 +8459,7 @@
       <c r="H159" t="s">
         <v>12</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="15">
         <v>6.6179615785054382E+18</v>
       </c>
       <c r="J159" t="s">
@@ -8351,7 +8492,7 @@
       <c r="H160" t="s">
         <v>12</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="15">
         <v>6.6179615956853074E+18</v>
       </c>
       <c r="J160" t="s">
@@ -8384,7 +8525,7 @@
       <c r="H161" t="s">
         <v>12</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="15">
         <v>6.6179615956853074E+18</v>
       </c>
       <c r="J161" t="s">
@@ -8417,7 +8558,7 @@
       <c r="H162" t="s">
         <v>12</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="15">
         <v>6.6179615956853074E+18</v>
       </c>
       <c r="J162" t="s">
@@ -8450,7 +8591,7 @@
       <c r="H163" t="s">
         <v>12</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="15">
         <v>6.6179616214551112E+18</v>
       </c>
       <c r="J163" t="s">
@@ -8483,7 +8624,7 @@
       <c r="H164" t="s">
         <v>12</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="15">
         <v>6.6179616214551112E+18</v>
       </c>
       <c r="J164" t="s">
@@ -8516,7 +8657,7 @@
       <c r="H165" t="s">
         <v>12</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="15">
         <v>6.6179616386349804E+18</v>
       </c>
       <c r="J165" t="s">
@@ -8549,7 +8690,7 @@
       <c r="H166" t="s">
         <v>12</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="15">
         <v>6.6179616429299476E+18</v>
       </c>
       <c r="J166" t="s">
@@ -8582,7 +8723,7 @@
       <c r="H167" t="s">
         <v>12</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="15">
         <v>6.6179616558148495E+18</v>
       </c>
       <c r="J167" t="s">
@@ -8615,7 +8756,7 @@
       <c r="H168" t="s">
         <v>10</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="15">
         <v>6.6179616901745879E+18</v>
       </c>
       <c r="J168" t="s">
@@ -8648,7 +8789,7 @@
       <c r="H169" t="s">
         <v>12</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="15">
         <v>6.6179616944695552E+18</v>
       </c>
       <c r="J169" t="s">
@@ -8681,7 +8822,7 @@
       <c r="H170" t="s">
         <v>12</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="15">
         <v>6.6179616987645225E+18</v>
       </c>
       <c r="J170" t="s">
@@ -8714,7 +8855,7 @@
       <c r="H171" t="s">
         <v>12</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="15">
         <v>6.6179617374192282E+18</v>
       </c>
       <c r="J171" t="s">
@@ -8747,7 +8888,7 @@
       <c r="H172" t="s">
         <v>12</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="15">
         <v>6.61796175030413E+18</v>
       </c>
       <c r="J172" t="s">
@@ -8780,7 +8921,7 @@
       <c r="H173" t="s">
         <v>12</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="15">
         <v>6.6179618319085087E+18</v>
       </c>
       <c r="J173" t="s">
@@ -8813,7 +8954,7 @@
       <c r="H174" t="s">
         <v>12</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="15">
         <v>6.6179618404984433E+18</v>
       </c>
       <c r="J174" t="s">
@@ -8846,7 +8987,7 @@
       <c r="H175" t="s">
         <v>12</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="15">
         <v>6.6179618447934106E+18</v>
       </c>
       <c r="J175" t="s">
@@ -8879,7 +9020,7 @@
       <c r="H176" t="s">
         <v>12</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="15">
         <v>6.6179618576783124E+18</v>
       </c>
       <c r="J176" t="s">
@@ -8912,7 +9053,7 @@
       <c r="H177" t="s">
         <v>12</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="15">
         <v>6.6179618576783124E+18</v>
       </c>
       <c r="J177" t="s">
@@ -8945,7 +9086,7 @@
       <c r="H178" t="s">
         <v>12</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="15">
         <v>6.6179618619732797E+18</v>
       </c>
       <c r="J178" t="s">
@@ -8978,7 +9119,7 @@
       <c r="H179" t="s">
         <v>12</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="15">
         <v>6.6179618877430835E+18</v>
       </c>
       <c r="J179" t="s">
@@ -9011,7 +9152,7 @@
       <c r="H180" t="s">
         <v>12</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="15">
         <v>6.6179619049229527E+18</v>
       </c>
       <c r="J180" t="s">
@@ -9044,7 +9185,7 @@
       <c r="H181" t="s">
         <v>12</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="15">
         <v>6.6179619049229527E+18</v>
       </c>
       <c r="J181" t="s">
@@ -9077,7 +9218,7 @@
       <c r="H182" t="s">
         <v>12</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="15">
         <v>6.6179619478726257E+18</v>
       </c>
       <c r="J182" t="s">
@@ -9110,7 +9251,7 @@
       <c r="H183" t="s">
         <v>12</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="15">
         <v>6.6179619564625603E+18</v>
       </c>
       <c r="J183" t="s">
@@ -9143,7 +9284,7 @@
       <c r="H184" t="s">
         <v>12</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="15">
         <v>6.6179619736424294E+18</v>
       </c>
       <c r="J184" t="s">
@@ -9176,7 +9317,7 @@
       <c r="H185" t="s">
         <v>12</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="15">
         <v>6.6179619736424294E+18</v>
       </c>
       <c r="J185" t="s">
@@ -9209,7 +9350,7 @@
       <c r="H186" t="s">
         <v>12</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="15">
         <v>6.6179619779373967E+18</v>
       </c>
       <c r="J186" t="s">
@@ -9242,7 +9383,7 @@
       <c r="H187" t="s">
         <v>10</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="15">
         <v>6.6179620208870697E+18</v>
       </c>
       <c r="J187" t="s">
@@ -9275,7 +9416,7 @@
       <c r="H188" t="s">
         <v>12</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="15">
         <v>6.6179620337719716E+18</v>
       </c>
       <c r="J188" t="s">
@@ -9308,7 +9449,7 @@
       <c r="H189" t="s">
         <v>10</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="15">
         <v>6.617962098196481E+18</v>
       </c>
       <c r="J189" t="s">
@@ -9341,7 +9482,7 @@
       <c r="H190" t="s">
         <v>12</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="15">
         <v>6.6179621497360886E+18</v>
       </c>
       <c r="J190" t="s">
@@ -9374,7 +9515,7 @@
       <c r="H191" t="s">
         <v>12</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="15">
         <v>6.6179622227505326E+18</v>
       </c>
       <c r="J191" t="s">
@@ -9407,7 +9548,7 @@
       <c r="H192" t="s">
         <v>12</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="15">
         <v>6.6179622699951729E+18</v>
       </c>
       <c r="J192" t="s">
@@ -9440,7 +9581,7 @@
       <c r="H193" t="s">
         <v>12</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="15">
         <v>6.6179623988441917E+18</v>
       </c>
       <c r="J193" t="s">
@@ -9473,7 +9614,7 @@
       <c r="H194" t="s">
         <v>12</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="15">
         <v>6.6179624546787666E+18</v>
       </c>
       <c r="J194" t="s">
@@ -9506,7 +9647,7 @@
       <c r="H195" t="s">
         <v>12</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="15">
         <v>6.6179624761536031E+18</v>
       </c>
       <c r="J195" t="s">
@@ -9539,7 +9680,7 @@
       <c r="H196" t="s">
         <v>12</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="15">
         <v>6.6179624933334723E+18</v>
       </c>
       <c r="J196" t="s">
@@ -9572,7 +9713,7 @@
       <c r="H197" t="s">
         <v>10</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="15">
         <v>6.6179625491680471E+18</v>
       </c>
       <c r="J197" t="s">
@@ -9605,7 +9746,7 @@
       <c r="H198" t="s">
         <v>12</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="15">
         <v>6.6179625663479163E+18</v>
       </c>
       <c r="J198" t="s">
@@ -9638,7 +9779,7 @@
       <c r="H199" t="s">
         <v>10</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="15">
         <v>6.6179626135925565E+18</v>
       </c>
       <c r="J199" t="s">
@@ -9671,7 +9812,7 @@
       <c r="H200" t="s">
         <v>10</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="15">
         <v>6.6179626565422295E+18</v>
       </c>
       <c r="J200" t="s">
@@ -9704,7 +9845,7 @@
       <c r="H201" t="s">
         <v>10</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="15">
         <v>6.6179626951969352E+18</v>
       </c>
       <c r="J201" t="s">
@@ -9737,7 +9878,7 @@
       <c r="H202" t="s">
         <v>10</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="15">
         <v>6.6179627982761503E+18</v>
       </c>
       <c r="J202" t="s">
@@ -9770,7 +9911,7 @@
       <c r="H203" t="s">
         <v>10</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="15">
         <v>6.6179628025711176E+18</v>
       </c>
       <c r="J203" t="s">
@@ -9803,7 +9944,7 @@
       <c r="H204" t="s">
         <v>12</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="15">
         <v>6.6179628154560195E+18</v>
       </c>
       <c r="J204" t="s">
@@ -9836,7 +9977,7 @@
       <c r="H205" t="s">
         <v>12</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="15">
         <v>6.617962824045954E+18</v>
       </c>
       <c r="J205" t="s">
@@ -9869,7 +10010,7 @@
       <c r="H206" t="s">
         <v>12</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="15">
         <v>6.6179628455207905E+18</v>
       </c>
       <c r="J206" t="s">
@@ -9902,7 +10043,7 @@
       <c r="H207" t="s">
         <v>12</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="15">
         <v>6.6179628884704635E+18</v>
       </c>
       <c r="J207" t="s">
@@ -9935,7 +10076,7 @@
       <c r="H208" t="s">
         <v>12</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="15">
         <v>6.6179628927654308E+18</v>
       </c>
       <c r="J208" t="s">
@@ -9968,7 +10109,7 @@
       <c r="H209" t="s">
         <v>10</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="15">
         <v>6.6179629486000056E+18</v>
       </c>
       <c r="J209" t="s">
@@ -10001,7 +10142,7 @@
       <c r="H210" t="s">
         <v>10</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="15">
         <v>6.6179629528949729E+18</v>
       </c>
       <c r="J210" t="s">
@@ -10034,7 +10175,7 @@
       <c r="H211" t="s">
         <v>12</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="15">
         <v>6.6179629614849075E+18</v>
       </c>
       <c r="J211" t="s">
@@ -10067,7 +10208,7 @@
       <c r="H212" t="s">
         <v>12</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="15">
         <v>6.6179629743698094E+18</v>
       </c>
       <c r="J212" t="s">
@@ -10100,7 +10241,7 @@
       <c r="H213" t="s">
         <v>10</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="15">
         <v>6.6179629786647767E+18</v>
       </c>
       <c r="J213" t="s">
@@ -10133,7 +10274,7 @@
       <c r="H214" t="s">
         <v>10</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="15">
         <v>6.6179629958446459E+18</v>
       </c>
       <c r="J214" t="s">
@@ -10166,7 +10307,7 @@
       <c r="H215" t="s">
         <v>10</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="15">
         <v>6.6179630130245151E+18</v>
       </c>
       <c r="J215" t="s">
@@ -10199,7 +10340,7 @@
       <c r="H216" t="s">
         <v>10</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="15">
         <v>6.6179630173194824E+18</v>
       </c>
       <c r="J216" t="s">
@@ -10232,7 +10373,7 @@
       <c r="H217" t="s">
         <v>10</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="15">
         <v>6.6179630173194824E+18</v>
       </c>
       <c r="J217" t="s">
@@ -10265,7 +10406,7 @@
       <c r="H218" t="s">
         <v>10</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="15">
         <v>6.6179630173194824E+18</v>
       </c>
       <c r="J218" t="s">
@@ -10298,7 +10439,7 @@
       <c r="H219" t="s">
         <v>10</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="15">
         <v>6.6179630302043843E+18</v>
       </c>
       <c r="J219" t="s">
@@ -10331,7 +10472,7 @@
       <c r="H220" t="s">
         <v>10</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="15">
         <v>6.6179630387943188E+18</v>
       </c>
       <c r="J220" t="s">
@@ -10364,7 +10505,7 @@
       <c r="H221" t="s">
         <v>12</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="15">
         <v>6.617963055974188E+18</v>
       </c>
       <c r="J221" t="s">
@@ -10397,7 +10538,7 @@
       <c r="H222" t="s">
         <v>10</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="15">
         <v>6.6179630602691553E+18</v>
       </c>
       <c r="J222" t="s">
@@ -10430,7 +10571,7 @@
       <c r="H223" t="s">
         <v>10</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="15">
         <v>6.6179630645641226E+18</v>
       </c>
       <c r="J223" t="s">
@@ -10463,7 +10604,7 @@
       <c r="H224" t="s">
         <v>10</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="15">
         <v>6.6179630645641226E+18</v>
       </c>
       <c r="J224" t="s">
@@ -10496,7 +10637,7 @@
       <c r="H225" t="s">
         <v>10</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="15">
         <v>6.6179630731540572E+18</v>
       </c>
       <c r="J225" t="s">
@@ -10529,7 +10670,7 @@
       <c r="H226" t="s">
         <v>10</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="15">
         <v>6.6179630731540572E+18</v>
       </c>
       <c r="J226" t="s">
@@ -10562,7 +10703,7 @@
       <c r="H227" t="s">
         <v>10</v>
       </c>
-      <c r="I227">
+      <c r="I227" s="15">
         <v>6.6179630817439918E+18</v>
       </c>
       <c r="J227" t="s">
@@ -10595,7 +10736,7 @@
       <c r="H228" t="s">
         <v>18</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="15">
         <v>6.617963098923861E+18</v>
       </c>
       <c r="J228" t="s">
@@ -10628,7 +10769,7 @@
       <c r="H229" t="s">
         <v>10</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="15">
         <v>6.617963098923861E+18</v>
       </c>
       <c r="J229" t="s">
@@ -10661,7 +10802,7 @@
       <c r="H230" t="s">
         <v>12</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="15">
         <v>6.6179631504634685E+18</v>
       </c>
       <c r="J230" t="s">
@@ -10694,7 +10835,7 @@
       <c r="H231" t="s">
         <v>10</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="15">
         <v>6.6179631504634685E+18</v>
       </c>
       <c r="J231" t="s">
@@ -10727,7 +10868,7 @@
       <c r="H232" t="s">
         <v>10</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="15">
         <v>6.6179631547584358E+18</v>
       </c>
       <c r="J232" t="s">
@@ -10760,7 +10901,7 @@
       <c r="H233" t="s">
         <v>10</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="15">
         <v>6.6179631547584358E+18</v>
       </c>
       <c r="J233" t="s">
@@ -10793,7 +10934,7 @@
       <c r="H234" t="s">
         <v>12</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="15">
         <v>6.6179631762332723E+18</v>
       </c>
       <c r="J234" t="s">
@@ -10826,7 +10967,7 @@
       <c r="H235" t="s">
         <v>10</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="15">
         <v>6.6179631805282396E+18</v>
       </c>
       <c r="J235" t="s">
@@ -10859,7 +11000,7 @@
       <c r="H236" t="s">
         <v>12</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="15">
         <v>6.6179631805282396E+18</v>
       </c>
       <c r="J236" t="s">
@@ -10892,7 +11033,7 @@
       <c r="H237" t="s">
         <v>18</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="15">
         <v>6.6179631848232069E+18</v>
       </c>
       <c r="J237" t="s">
@@ -10925,7 +11066,7 @@
       <c r="H238" t="s">
         <v>12</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="15">
         <v>6.6179631848232069E+18</v>
       </c>
       <c r="J238" t="s">
@@ -10958,7 +11099,7 @@
       <c r="H239" t="s">
         <v>10</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="15">
         <v>6.6179631848232069E+18</v>
       </c>
       <c r="J239" t="s">
@@ -10991,7 +11132,7 @@
       <c r="H240" t="s">
         <v>12</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="15">
         <v>6.6179631891181742E+18</v>
       </c>
       <c r="J240" t="s">
@@ -11024,7 +11165,7 @@
       <c r="H241" t="s">
         <v>10</v>
       </c>
-      <c r="I241">
+      <c r="I241" s="15">
         <v>6.6179631934131415E+18</v>
       </c>
       <c r="J241" t="s">
@@ -11057,7 +11198,7 @@
       <c r="H242" t="s">
         <v>10</v>
       </c>
-      <c r="I242">
+      <c r="I242" s="15">
         <v>6.6179632320678472E+18</v>
       </c>
       <c r="J242" t="s">
@@ -11090,7 +11231,7 @@
       <c r="H243" t="s">
         <v>10</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="15">
         <v>6.6179632320678472E+18</v>
       </c>
       <c r="J243" t="s">
@@ -11123,7 +11264,7 @@
       <c r="H244" t="s">
         <v>10</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="15">
         <v>6.6179632363628145E+18</v>
       </c>
       <c r="J244" t="s">
@@ -11156,7 +11297,7 @@
       <c r="H245" t="s">
         <v>12</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="15">
         <v>6.6179632406577818E+18</v>
       </c>
       <c r="J245" t="s">
@@ -11189,7 +11330,7 @@
       <c r="H246" t="s">
         <v>10</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="15">
         <v>6.6179632492477164E+18</v>
       </c>
       <c r="J246" t="s">
@@ -11222,7 +11363,7 @@
       <c r="H247" t="s">
         <v>18</v>
       </c>
-      <c r="I247">
+      <c r="I247" s="15">
         <v>6.6179632535426836E+18</v>
       </c>
       <c r="J247" t="s">
@@ -11255,7 +11396,7 @@
       <c r="H248" t="s">
         <v>10</v>
       </c>
-      <c r="I248">
+      <c r="I248" s="15">
         <v>6.6179632535426836E+18</v>
       </c>
       <c r="J248" t="s">
@@ -11288,7 +11429,7 @@
       <c r="H249" t="s">
         <v>10</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="15">
         <v>6.6179632578376509E+18</v>
       </c>
       <c r="J249" t="s">
@@ -11321,7 +11462,7 @@
       <c r="H250" t="s">
         <v>12</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="15">
         <v>6.6179632621326182E+18</v>
       </c>
       <c r="J250" t="s">
@@ -11354,7 +11495,7 @@
       <c r="H251" t="s">
         <v>10</v>
       </c>
-      <c r="I251">
+      <c r="I251" s="15">
         <v>6.6179632621326182E+18</v>
       </c>
       <c r="J251" t="s">
@@ -11387,7 +11528,7 @@
       <c r="H252" t="s">
         <v>10</v>
       </c>
-      <c r="I252">
+      <c r="I252" s="15">
         <v>6.6179632793124874E+18</v>
       </c>
       <c r="J252" t="s">
@@ -11420,7 +11561,7 @@
       <c r="H253" t="s">
         <v>12</v>
       </c>
-      <c r="I253">
+      <c r="I253" s="15">
         <v>6.617963287902422E+18</v>
       </c>
       <c r="J253" t="s">
@@ -11453,7 +11594,7 @@
       <c r="H254" t="s">
         <v>12</v>
       </c>
-      <c r="I254">
+      <c r="I254" s="15">
         <v>6.6179632921973893E+18</v>
       </c>
       <c r="J254" t="s">
@@ -11486,7 +11627,7 @@
       <c r="H255" t="s">
         <v>12</v>
       </c>
-      <c r="I255">
+      <c r="I255" s="15">
         <v>6.6179632921973893E+18</v>
       </c>
       <c r="J255" t="s">
@@ -11519,7 +11660,7 @@
       <c r="H256" t="s">
         <v>10</v>
       </c>
-      <c r="I256">
+      <c r="I256" s="15">
         <v>6.6179633351470623E+18</v>
       </c>
       <c r="J256" t="s">
@@ -11552,7 +11693,7 @@
       <c r="H257" t="s">
         <v>12</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="15">
         <v>6.6179633523269315E+18</v>
       </c>
       <c r="J257" t="s">
@@ -11585,7 +11726,7 @@
       <c r="H258" t="s">
         <v>10</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="15">
         <v>6.6179633523269315E+18</v>
       </c>
       <c r="J258" t="s">
@@ -11618,7 +11759,7 @@
       <c r="H259" t="s">
         <v>10</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="15">
         <v>6.6179634167514409E+18</v>
       </c>
       <c r="J259" t="s">
@@ -11651,7 +11792,7 @@
       <c r="H260" t="s">
         <v>12</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="15">
         <v>6.6179634167514409E+18</v>
       </c>
       <c r="J260" t="s">
@@ -11684,7 +11825,7 @@
       <c r="H261" t="s">
         <v>10</v>
       </c>
-      <c r="I261">
+      <c r="I261" s="15">
         <v>6.6179634210464082E+18</v>
       </c>
       <c r="J261" t="s">
@@ -11717,7 +11858,7 @@
       <c r="H262" t="s">
         <v>10</v>
       </c>
-      <c r="I262">
+      <c r="I262" s="15">
         <v>6.6179634554061466E+18</v>
       </c>
       <c r="J262" t="s">
@@ -11750,7 +11891,7 @@
       <c r="H263" t="s">
         <v>18</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="15">
         <v>6.6179634682910484E+18</v>
       </c>
       <c r="J263" t="s">
@@ -11783,7 +11924,7 @@
       <c r="H264" t="s">
         <v>10</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="15">
         <v>6.6179634682910484E+18</v>
       </c>
       <c r="J264" t="s">
@@ -11816,7 +11957,7 @@
       <c r="H265" t="s">
         <v>12</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="15">
         <v>6.617963476880983E+18</v>
       </c>
       <c r="J265" t="s">
@@ -11849,7 +11990,7 @@
       <c r="H266" t="s">
         <v>10</v>
       </c>
-      <c r="I266">
+      <c r="I266" s="15">
         <v>6.6179634854709176E+18</v>
       </c>
       <c r="J266" t="s">
@@ -11882,7 +12023,7 @@
       <c r="H267" t="s">
         <v>12</v>
       </c>
-      <c r="I267">
+      <c r="I267" s="15">
         <v>6.6179635756652308E+18</v>
       </c>
       <c r="J267" t="s">
@@ -11915,7 +12056,7 @@
       <c r="H268" t="s">
         <v>18</v>
       </c>
-      <c r="I268">
+      <c r="I268" s="15">
         <v>6.6179635928451E+18</v>
       </c>
       <c r="J268" t="s">
@@ -11948,7 +12089,7 @@
       <c r="H269" t="s">
         <v>12</v>
       </c>
-      <c r="I269">
+      <c r="I269" s="15">
         <v>6.6179636272048384E+18</v>
       </c>
       <c r="J269" t="s">
@@ -11981,7 +12122,7 @@
       <c r="H270" t="s">
         <v>12</v>
       </c>
-      <c r="I270">
+      <c r="I270" s="15">
         <v>6.6179636830394132E+18</v>
       </c>
       <c r="J270" t="s">
@@ -12014,7 +12155,7 @@
       <c r="H271" t="s">
         <v>12</v>
       </c>
-      <c r="I271">
+      <c r="I271" s="15">
         <v>6.6179637431689554E+18</v>
       </c>
       <c r="J271" t="s">
@@ -12047,7 +12188,7 @@
       <c r="H272" t="s">
         <v>10</v>
       </c>
-      <c r="I272">
+      <c r="I272" s="15">
         <v>6.6179637646437919E+18</v>
       </c>
       <c r="J272" t="s">
@@ -12080,7 +12221,7 @@
       <c r="H273" t="s">
         <v>10</v>
       </c>
-      <c r="I273">
+      <c r="I273" s="15">
         <v>6.6179637861186284E+18</v>
       </c>
       <c r="J273" t="s">
@@ -12113,7 +12254,7 @@
       <c r="H274" t="s">
         <v>12</v>
       </c>
-      <c r="I274">
+      <c r="I274" s="15">
         <v>6.6179638376582359E+18</v>
       </c>
       <c r="J274" t="s">
@@ -12146,7 +12287,7 @@
       <c r="H275" t="s">
         <v>12</v>
       </c>
-      <c r="I275">
+      <c r="I275" s="15">
         <v>6.6179638634280397E+18</v>
       </c>
       <c r="J275" t="s">
@@ -12179,7 +12320,7 @@
       <c r="H276" t="s">
         <v>12</v>
       </c>
-      <c r="I276">
+      <c r="I276" s="15">
         <v>6.6179638806079089E+18</v>
       </c>
       <c r="J276" t="s">
@@ -12212,7 +12353,7 @@
       <c r="H277" t="s">
         <v>12</v>
       </c>
-      <c r="I277">
+      <c r="I277" s="15">
         <v>6.6179639063777126E+18</v>
       </c>
       <c r="J277" t="s">
@@ -12245,7 +12386,7 @@
       <c r="H278" t="s">
         <v>12</v>
       </c>
-      <c r="I278">
+      <c r="I278" s="15">
         <v>6.6179639579173202E+18</v>
       </c>
       <c r="J278" t="s">
@@ -12278,7 +12419,7 @@
       <c r="H279" t="s">
         <v>12</v>
       </c>
-      <c r="I279">
+      <c r="I279" s="15">
         <v>6.6179640008669932E+18</v>
       </c>
       <c r="J279" t="s">
@@ -12311,7 +12452,7 @@
       <c r="H280" t="s">
         <v>10</v>
       </c>
-      <c r="I280">
+      <c r="I280" s="15">
         <v>6.6179641426009139E+18</v>
       </c>
       <c r="J280" t="s">
@@ -12344,7 +12485,7 @@
       <c r="H281" t="s">
         <v>12</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="15">
         <v>6.6179642070254234E+18</v>
       </c>
       <c r="J281" t="s">
@@ -12377,7 +12518,7 @@
       <c r="H282" t="s">
         <v>12</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="15">
         <v>6.6179642542700636E+18</v>
       </c>
       <c r="J282" t="s">
@@ -12410,7 +12551,7 @@
       <c r="H283" t="s">
         <v>12</v>
       </c>
-      <c r="I283">
+      <c r="I283" s="15">
         <v>6.6179642628599982E+18</v>
       </c>
       <c r="J283" t="s">
@@ -12443,7 +12584,7 @@
       <c r="H284" t="s">
         <v>12</v>
       </c>
-      <c r="I284">
+      <c r="I284" s="15">
         <v>6.6179642972197366E+18</v>
       </c>
       <c r="J284" t="s">
@@ -12476,7 +12617,7 @@
       <c r="H285" t="s">
         <v>10</v>
       </c>
-      <c r="I285">
+      <c r="I285" s="15">
         <v>6.6179643272845076E+18</v>
       </c>
       <c r="J285" t="s">
@@ -12509,7 +12650,7 @@
       <c r="H286" t="s">
         <v>12</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="15">
         <v>6.6179643315794749E+18</v>
       </c>
       <c r="J286" t="s">
@@ -12542,7 +12683,7 @@
       <c r="H287" t="s">
         <v>12</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="15">
         <v>6.6179643401694095E+18</v>
       </c>
       <c r="J287" t="s">
@@ -12575,7 +12716,7 @@
       <c r="H288" t="s">
         <v>12</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="15">
         <v>6.6179643444643768E+18</v>
       </c>
       <c r="J288" t="s">
@@ -12608,7 +12749,7 @@
       <c r="H289" t="s">
         <v>12</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="15">
         <v>6.6179643573492787E+18</v>
       </c>
       <c r="J289" t="s">
@@ -12641,7 +12782,7 @@
       <c r="H290" t="s">
         <v>12</v>
       </c>
-      <c r="I290">
+      <c r="I290" s="15">
         <v>6.6179643831190825E+18</v>
       </c>
       <c r="J290" t="s">
@@ -12674,7 +12815,7 @@
       <c r="H291" t="s">
         <v>12</v>
       </c>
-      <c r="I291">
+      <c r="I291" s="15">
         <v>6.6179644131838536E+18</v>
       </c>
       <c r="J291" t="s">
@@ -12707,7 +12848,7 @@
       <c r="H292" t="s">
         <v>12</v>
       </c>
-      <c r="I292">
+      <c r="I292" s="15">
         <v>6.6179644432486246E+18</v>
       </c>
       <c r="J292" t="s">
@@ -12740,7 +12881,7 @@
       <c r="H293" t="s">
         <v>12</v>
       </c>
-      <c r="I293">
+      <c r="I293" s="15">
         <v>6.6179644690184284E+18</v>
       </c>
       <c r="J293" t="s">
@@ -12773,7 +12914,7 @@
       <c r="H294" t="s">
         <v>12</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="15">
         <v>6.6179645033781668E+18</v>
       </c>
       <c r="J294" t="s">
@@ -12806,7 +12947,7 @@
       <c r="H295" t="s">
         <v>12</v>
       </c>
-      <c r="I295">
+      <c r="I295" s="15">
         <v>6.6179645119681014E+18</v>
       </c>
       <c r="J295" t="s">
@@ -12839,7 +12980,7 @@
       <c r="H296" t="s">
         <v>12</v>
       </c>
-      <c r="I296">
+      <c r="I296" s="15">
         <v>6.6179645248530033E+18</v>
       </c>
       <c r="J296" t="s">
@@ -12872,7 +13013,7 @@
       <c r="H297" t="s">
         <v>12</v>
       </c>
-      <c r="I297">
+      <c r="I297" s="15">
         <v>6.6179645592127416E+18</v>
       </c>
       <c r="J297" t="s">
@@ -12905,7 +13046,7 @@
       <c r="H298" t="s">
         <v>10</v>
       </c>
-      <c r="I298">
+      <c r="I298" s="15">
         <v>6.6179646494070548E+18</v>
       </c>
       <c r="J298" t="s">
@@ -12938,7 +13079,7 @@
       <c r="H299" t="s">
         <v>10</v>
       </c>
-      <c r="I299">
+      <c r="I299" s="15">
         <v>6.6179646794718259E+18</v>
       </c>
       <c r="J299" t="s">
@@ -12971,7 +13112,7 @@
       <c r="H300" t="s">
         <v>10</v>
       </c>
-      <c r="I300">
+      <c r="I300" s="15">
         <v>6.6179646923567278E+18</v>
       </c>
       <c r="J300" t="s">
@@ -13004,7 +13145,7 @@
       <c r="H301" t="s">
         <v>10</v>
       </c>
-      <c r="I301">
+      <c r="I301" s="15">
         <v>6.6179647782560737E+18</v>
       </c>
       <c r="J301" t="s">
@@ -13037,7 +13178,7 @@
       <c r="H302" t="s">
         <v>12</v>
       </c>
-      <c r="I302">
+      <c r="I302" s="15">
         <v>6.617964825500714E+18</v>
       </c>
       <c r="J302" t="s">
@@ -13070,7 +13211,7 @@
       <c r="H303" t="s">
         <v>10</v>
       </c>
-      <c r="I303">
+      <c r="I303" s="15">
         <v>6.6179648340906486E+18</v>
       </c>
       <c r="J303" t="s">
@@ -13103,7 +13244,7 @@
       <c r="H304" t="s">
         <v>10</v>
       </c>
-      <c r="I304">
+      <c r="I304" s="15">
         <v>6.6179648340906486E+18</v>
       </c>
       <c r="J304" t="s">
@@ -13136,7 +13277,7 @@
       <c r="H305" t="s">
         <v>10</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="15">
         <v>6.6179648383856159E+18</v>
       </c>
       <c r="J305" t="s">
@@ -13169,7 +13310,7 @@
       <c r="H306" t="s">
         <v>18</v>
       </c>
-      <c r="I306">
+      <c r="I306" s="15">
         <v>6.6179648383856159E+18</v>
       </c>
       <c r="J306" t="s">
@@ -13202,7 +13343,7 @@
       <c r="H307" t="s">
         <v>10</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="15">
         <v>6.6179648383856159E+18</v>
       </c>
       <c r="J307" t="s">
@@ -13235,7 +13376,7 @@
       <c r="H308" t="s">
         <v>12</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="15">
         <v>6.6179648426805832E+18</v>
       </c>
       <c r="J308" t="s">
@@ -13268,7 +13409,7 @@
       <c r="H309" t="s">
         <v>12</v>
       </c>
-      <c r="I309">
+      <c r="I309" s="15">
         <v>6.6179648727453542E+18</v>
       </c>
       <c r="J309" t="s">
@@ -13301,7 +13442,7 @@
       <c r="H310" t="s">
         <v>10</v>
       </c>
-      <c r="I310">
+      <c r="I310" s="15">
         <v>6.6179649071050926E+18</v>
       </c>
       <c r="J310" t="s">
@@ -13334,7 +13475,7 @@
       <c r="H311" t="s">
         <v>10</v>
       </c>
-      <c r="I311">
+      <c r="I311" s="15">
         <v>6.6179649156950272E+18</v>
       </c>
       <c r="J311" t="s">
@@ -13367,7 +13508,7 @@
       <c r="H312" t="s">
         <v>12</v>
       </c>
-      <c r="I312">
+      <c r="I312" s="15">
         <v>6.6179649242849618E+18</v>
       </c>
       <c r="J312" t="s">
@@ -13400,7 +13541,7 @@
       <c r="H313" t="s">
         <v>12</v>
       </c>
-      <c r="I313">
+      <c r="I313" s="15">
         <v>6.6179649285799291E+18</v>
       </c>
       <c r="J313" t="s">
@@ -13433,7 +13574,7 @@
       <c r="H314" t="s">
         <v>12</v>
       </c>
-      <c r="I314">
+      <c r="I314" s="15">
         <v>6.6179649972994058E+18</v>
       </c>
       <c r="J314" t="s">
@@ -13466,7 +13607,7 @@
       <c r="H315" t="s">
         <v>12</v>
       </c>
-      <c r="I315">
+      <c r="I315" s="15">
         <v>6.6179650273641769E+18</v>
       </c>
       <c r="J315" t="s">
@@ -13499,7 +13640,7 @@
       <c r="H316" t="s">
         <v>12</v>
       </c>
-      <c r="I316">
+      <c r="I316" s="15">
         <v>6.6179650359541115E+18</v>
       </c>
       <c r="J316" t="s">
@@ -13532,7 +13673,7 @@
       <c r="H317" t="s">
         <v>12</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="15">
         <v>6.6179650660188826E+18</v>
       </c>
       <c r="J317" t="s">
@@ -13565,7 +13706,7 @@
       <c r="H318" t="s">
         <v>10</v>
       </c>
-      <c r="I318">
+      <c r="I318" s="15">
         <v>6.6179651132635228E+18</v>
       </c>
       <c r="J318" t="s">
@@ -13598,7 +13739,7 @@
       <c r="H319" t="s">
         <v>10</v>
       </c>
-      <c r="I319">
+      <c r="I319" s="15">
         <v>6.6179651175584901E+18</v>
       </c>
       <c r="J319" t="s">
@@ -13631,7 +13772,7 @@
       <c r="H320" t="s">
         <v>10</v>
       </c>
-      <c r="I320">
+      <c r="I320" s="15">
         <v>6.6179651562131958E+18</v>
       </c>
       <c r="J320" t="s">
@@ -13664,7 +13805,7 @@
       <c r="H321" t="s">
         <v>10</v>
       </c>
-      <c r="I321">
+      <c r="I321" s="15">
         <v>6.6179651562131958E+18</v>
       </c>
       <c r="J321" t="s">
@@ -13697,7 +13838,7 @@
       <c r="H322" t="s">
         <v>10</v>
       </c>
-      <c r="I322">
+      <c r="I322" s="15">
         <v>6.6179651562131958E+18</v>
       </c>
       <c r="J322" t="s">
@@ -13730,7 +13871,7 @@
       <c r="H323" t="s">
         <v>10</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="15">
         <v>6.6179651905729341E+18</v>
       </c>
       <c r="J323" t="s">
@@ -13763,7 +13904,7 @@
       <c r="H324" t="s">
         <v>18</v>
       </c>
-      <c r="I324">
+      <c r="I324" s="15">
         <v>6.6179651905729341E+18</v>
       </c>
       <c r="J324" t="s">
@@ -13796,7 +13937,7 @@
       <c r="H325" t="s">
         <v>10</v>
       </c>
-      <c r="I325">
+      <c r="I325" s="15">
         <v>6.6179651905729341E+18</v>
       </c>
       <c r="J325" t="s">
@@ -13829,7 +13970,7 @@
       <c r="H326" t="s">
         <v>12</v>
       </c>
-      <c r="I326">
+      <c r="I326" s="15">
         <v>6.6179651948679014E+18</v>
       </c>
       <c r="J326" t="s">
@@ -13862,7 +14003,7 @@
       <c r="H327" t="s">
         <v>12</v>
       </c>
-      <c r="I327">
+      <c r="I327" s="15">
         <v>6.6179652206377052E+18</v>
       </c>
       <c r="J327" t="s">
@@ -13895,7 +14036,7 @@
       <c r="H328" t="s">
         <v>12</v>
       </c>
-      <c r="I328">
+      <c r="I328" s="15">
         <v>6.6179652249326725E+18</v>
       </c>
       <c r="J328" t="s">
@@ -13928,7 +14069,7 @@
       <c r="H329" t="s">
         <v>12</v>
       </c>
-      <c r="I329">
+      <c r="I329" s="15">
         <v>6.6179652292276398E+18</v>
       </c>
       <c r="J329" t="s">
@@ -13961,7 +14102,7 @@
       <c r="H330" t="s">
         <v>12</v>
       </c>
-      <c r="I330">
+      <c r="I330" s="15">
         <v>6.6179652292276398E+18</v>
       </c>
       <c r="J330" t="s">
@@ -13994,7 +14135,7 @@
       <c r="H331" t="s">
         <v>10</v>
       </c>
-      <c r="I331">
+      <c r="I331" s="15">
         <v>6.6179652292276398E+18</v>
       </c>
       <c r="J331" t="s">
@@ -14027,7 +14168,7 @@
       <c r="H332" t="s">
         <v>12</v>
       </c>
-      <c r="I332">
+      <c r="I332" s="15">
         <v>6.6179652378175744E+18</v>
       </c>
       <c r="J332" t="s">
@@ -14060,7 +14201,7 @@
       <c r="H333" t="s">
         <v>10</v>
       </c>
-      <c r="I333">
+      <c r="I333" s="15">
         <v>6.6179652378175744E+18</v>
       </c>
       <c r="J333" t="s">
@@ -14093,7 +14234,7 @@
       <c r="H334" t="s">
         <v>10</v>
       </c>
-      <c r="I334">
+      <c r="I334" s="15">
         <v>6.6179652549974436E+18</v>
       </c>
       <c r="J334" t="s">
@@ -14126,7 +14267,7 @@
       <c r="H335" t="s">
         <v>10</v>
       </c>
-      <c r="I335">
+      <c r="I335" s="15">
         <v>6.6179652592924109E+18</v>
       </c>
       <c r="J335" t="s">
@@ -14159,7 +14300,7 @@
       <c r="H336" t="s">
         <v>18</v>
       </c>
-      <c r="I336">
+      <c r="I336" s="15">
         <v>6.6179652678823455E+18</v>
       </c>
       <c r="J336" t="s">
@@ -14192,7 +14333,7 @@
       <c r="H337" t="s">
         <v>12</v>
       </c>
-      <c r="I337">
+      <c r="I337" s="15">
         <v>6.6179652678823455E+18</v>
       </c>
       <c r="J337" t="s">
@@ -14225,7 +14366,7 @@
       <c r="H338" t="s">
         <v>12</v>
       </c>
-      <c r="I338">
+      <c r="I338" s="15">
         <v>6.6179652721773128E+18</v>
       </c>
       <c r="J338" t="s">
@@ -14258,7 +14399,7 @@
       <c r="H339" t="s">
         <v>12</v>
       </c>
-      <c r="I339">
+      <c r="I339" s="15">
         <v>6.617965319421953E+18</v>
       </c>
       <c r="J339" t="s">
@@ -14291,7 +14432,7 @@
       <c r="H340" t="s">
         <v>10</v>
       </c>
-      <c r="I340">
+      <c r="I340" s="15">
         <v>6.6179654869256776E+18</v>
       </c>
       <c r="J340" t="s">
@@ -14324,7 +14465,7 @@
       <c r="H341" t="s">
         <v>10</v>
       </c>
-      <c r="I341">
+      <c r="I341" s="15">
         <v>6.6179654912206449E+18</v>
       </c>
       <c r="J341" t="s">
@@ -14357,7 +14498,7 @@
       <c r="H342" t="s">
         <v>10</v>
       </c>
-      <c r="I342">
+      <c r="I342" s="15">
         <v>6.6179654912206449E+18</v>
       </c>
       <c r="J342" t="s">
@@ -14390,7 +14531,7 @@
       <c r="H343" t="s">
         <v>10</v>
       </c>
-      <c r="I343">
+      <c r="I343" s="15">
         <v>6.6179654998105795E+18</v>
       </c>
       <c r="J343" t="s">
@@ -14423,7 +14564,7 @@
       <c r="H344" t="s">
         <v>18</v>
       </c>
-      <c r="I344">
+      <c r="I344" s="15">
         <v>6.6179655126954813E+18</v>
       </c>
       <c r="J344" t="s">
@@ -14456,7 +14597,7 @@
       <c r="H345" t="s">
         <v>10</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="15">
         <v>6.6179655126954813E+18</v>
       </c>
       <c r="J345" t="s">
@@ -14489,7 +14630,7 @@
       <c r="H346" t="s">
         <v>12</v>
       </c>
-      <c r="I346">
+      <c r="I346" s="15">
         <v>6.6179655126954813E+18</v>
       </c>
       <c r="J346" t="s">
@@ -14522,7 +14663,7 @@
       <c r="H347" t="s">
         <v>12</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="15">
         <v>6.6179655126954813E+18</v>
       </c>
       <c r="J347" t="s">
@@ -14555,7 +14696,7 @@
       <c r="H348" t="s">
         <v>10</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="15">
         <v>6.6179655169904486E+18</v>
       </c>
       <c r="J348" t="s">
@@ -14588,7 +14729,7 @@
       <c r="H349" t="s">
         <v>10</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="15">
         <v>6.6179655255803832E+18</v>
       </c>
       <c r="J349" t="s">
@@ -14621,7 +14762,7 @@
       <c r="H350" t="s">
         <v>10</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="15">
         <v>6.6179655341703178E+18</v>
       </c>
       <c r="J350" t="s">
@@ -14654,7 +14795,7 @@
       <c r="H351" t="s">
         <v>10</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="15">
         <v>6.6179655427602524E+18</v>
       </c>
       <c r="J351" t="s">
@@ -14687,7 +14828,7 @@
       <c r="H352" t="s">
         <v>10</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="15">
         <v>6.6179655470552197E+18</v>
       </c>
       <c r="J352" t="s">
@@ -14720,7 +14861,7 @@
       <c r="H353" t="s">
         <v>12</v>
       </c>
-      <c r="I353">
+      <c r="I353" s="15">
         <v>6.617965551350187E+18</v>
       </c>
       <c r="J353" t="s">
@@ -14753,7 +14894,7 @@
       <c r="H354" t="s">
         <v>18</v>
       </c>
-      <c r="I354">
+      <c r="I354" s="15">
         <v>6.617965551350187E+18</v>
       </c>
       <c r="J354" t="s">
@@ -14786,7 +14927,7 @@
       <c r="H355" t="s">
         <v>10</v>
       </c>
-      <c r="I355">
+      <c r="I355" s="15">
         <v>6.6179655556451543E+18</v>
       </c>
       <c r="J355" t="s">
@@ -14819,7 +14960,7 @@
       <c r="H356" t="s">
         <v>10</v>
       </c>
-      <c r="I356">
+      <c r="I356" s="15">
         <v>6.6179655685300562E+18</v>
       </c>
       <c r="J356" t="s">
@@ -14852,7 +14993,7 @@
       <c r="H357" t="s">
         <v>10</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="15">
         <v>6.617965667314304E+18</v>
       </c>
       <c r="J357" t="s">
@@ -14885,7 +15026,7 @@
       <c r="H358" t="s">
         <v>12</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="15">
         <v>6.6179656930841078E+18</v>
       </c>
       <c r="J358" t="s">
@@ -14918,7 +15059,7 @@
       <c r="H359" t="s">
         <v>10</v>
       </c>
-      <c r="I359">
+      <c r="I359" s="15">
         <v>6.6179657489186826E+18</v>
       </c>
       <c r="J359" t="s">
@@ -14951,7 +15092,7 @@
       <c r="H360" t="s">
         <v>10</v>
       </c>
-      <c r="I360">
+      <c r="I360" s="15">
         <v>6.6179657575086172E+18</v>
       </c>
       <c r="J360" t="s">
@@ -14984,7 +15125,7 @@
       <c r="H361" t="s">
         <v>10</v>
       </c>
-      <c r="I361">
+      <c r="I361" s="15">
         <v>6.6179657618035845E+18</v>
       </c>
       <c r="J361" t="s">
@@ -15017,7 +15158,7 @@
       <c r="H362" t="s">
         <v>18</v>
       </c>
-      <c r="I362">
+      <c r="I362" s="15">
         <v>6.6179657660985518E+18</v>
       </c>
       <c r="J362" t="s">
@@ -15050,7 +15191,7 @@
       <c r="H363" t="s">
         <v>10</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="15">
         <v>6.6179657660985518E+18</v>
       </c>
       <c r="J363" t="s">
@@ -15083,7 +15224,7 @@
       <c r="H364" t="s">
         <v>10</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="15">
         <v>6.6179657746884864E+18</v>
       </c>
       <c r="J364" t="s">
@@ -15116,7 +15257,7 @@
       <c r="H365" t="s">
         <v>10</v>
       </c>
-      <c r="I365">
+      <c r="I365" s="15">
         <v>6.6179657918683556E+18</v>
       </c>
       <c r="J365" t="s">
@@ -15149,7 +15290,7 @@
       <c r="H366" t="s">
         <v>10</v>
       </c>
-      <c r="I366">
+      <c r="I366" s="15">
         <v>6.6179657918683556E+18</v>
       </c>
       <c r="J366" t="s">
@@ -15182,7 +15323,7 @@
       <c r="H367" t="s">
         <v>10</v>
       </c>
-      <c r="I367">
+      <c r="I367" s="15">
         <v>6.6179658004582902E+18</v>
       </c>
       <c r="J367" t="s">
@@ -15215,7 +15356,7 @@
       <c r="H368" t="s">
         <v>18</v>
       </c>
-      <c r="I368">
+      <c r="I368" s="15">
         <v>6.6179658477029304E+18</v>
       </c>
       <c r="J368" t="s">
@@ -15248,7 +15389,7 @@
       <c r="H369" t="s">
         <v>18</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="15">
         <v>6.6179658820626688E+18</v>
       </c>
       <c r="J369" t="s">
@@ -15281,7 +15422,7 @@
       <c r="H370" t="s">
         <v>10</v>
       </c>
-      <c r="I370">
+      <c r="I370" s="15">
         <v>6.6179658820626688E+18</v>
       </c>
       <c r="J370" t="s">
@@ -15314,7 +15455,7 @@
       <c r="H371" t="s">
         <v>10</v>
       </c>
-      <c r="I371">
+      <c r="I371" s="15">
         <v>6.617965899242538E+18</v>
       </c>
       <c r="J371" t="s">
@@ -15347,7 +15488,7 @@
       <c r="H372" t="s">
         <v>12</v>
       </c>
-      <c r="I372">
+      <c r="I372" s="15">
         <v>6.6179659207173745E+18</v>
       </c>
       <c r="J372" t="s">
@@ -15380,7 +15521,7 @@
       <c r="H373" t="s">
         <v>10</v>
       </c>
-      <c r="I373">
+      <c r="I373" s="15">
         <v>6.6179659250123418E+18</v>
       </c>
       <c r="J373" t="s">
@@ -15413,7 +15554,7 @@
       <c r="H374" t="s">
         <v>10</v>
       </c>
-      <c r="I374">
+      <c r="I374" s="15">
         <v>6.6179659378972436E+18</v>
       </c>
       <c r="J374" t="s">
@@ -15446,7 +15587,7 @@
       <c r="H375" t="s">
         <v>12</v>
       </c>
-      <c r="I375">
+      <c r="I375" s="15">
         <v>6.6179659421922109E+18</v>
       </c>
       <c r="J375" t="s">
@@ -15479,7 +15620,7 @@
       <c r="H376" t="s">
         <v>10</v>
       </c>
-      <c r="I376">
+      <c r="I376" s="15">
         <v>6.617965972256982E+18</v>
       </c>
       <c r="J376" t="s">
@@ -15512,7 +15653,7 @@
       <c r="H377" t="s">
         <v>10</v>
       </c>
-      <c r="I377">
+      <c r="I377" s="15">
         <v>6.6179659937318185E+18</v>
       </c>
       <c r="J377" t="s">
@@ -15545,7 +15686,7 @@
       <c r="H378" t="s">
         <v>10</v>
       </c>
-      <c r="I378">
+      <c r="I378" s="15">
         <v>6.6179659980267858E+18</v>
       </c>
       <c r="J378" t="s">
@@ -15578,7 +15719,7 @@
       <c r="H379" t="s">
         <v>10</v>
       </c>
-      <c r="I379">
+      <c r="I379" s="15">
         <v>6.6179660066167204E+18</v>
       </c>
       <c r="J379" t="s">
@@ -15611,7 +15752,7 @@
       <c r="H380" t="s">
         <v>10</v>
       </c>
-      <c r="I380">
+      <c r="I380" s="15">
         <v>6.6179660066167204E+18</v>
       </c>
       <c r="J380" t="s">
@@ -15644,7 +15785,7 @@
       <c r="H381" t="s">
         <v>10</v>
       </c>
-      <c r="I381">
+      <c r="I381" s="15">
         <v>6.6179660237965896E+18</v>
       </c>
       <c r="J381" t="s">
@@ -15677,7 +15818,7 @@
       <c r="H382" t="s">
         <v>10</v>
       </c>
-      <c r="I382">
+      <c r="I382" s="15">
         <v>6.6179660237965896E+18</v>
       </c>
       <c r="J382" t="s">
@@ -15710,7 +15851,7 @@
       <c r="H383" t="s">
         <v>10</v>
       </c>
-      <c r="I383">
+      <c r="I383" s="15">
         <v>6.6179660280915569E+18</v>
       </c>
       <c r="J383" t="s">
@@ -15743,7 +15884,7 @@
       <c r="H384" t="s">
         <v>10</v>
       </c>
-      <c r="I384">
+      <c r="I384" s="15">
         <v>6.6179660409764588E+18</v>
       </c>
       <c r="J384" t="s">
@@ -15776,7 +15917,7 @@
       <c r="H385" t="s">
         <v>10</v>
       </c>
-      <c r="I385">
+      <c r="I385" s="15">
         <v>6.6179660581563279E+18</v>
       </c>
       <c r="J385" t="s">
@@ -15809,7 +15950,7 @@
       <c r="H386" t="s">
         <v>10</v>
       </c>
-      <c r="I386">
+      <c r="I386" s="15">
         <v>6.6179660925160663E+18</v>
       </c>
       <c r="J386" t="s">
@@ -15842,7 +15983,7 @@
       <c r="H387" t="s">
         <v>10</v>
       </c>
-      <c r="I387">
+      <c r="I387" s="15">
         <v>6.6179661054009682E+18</v>
       </c>
       <c r="J387" t="s">
@@ -15875,7 +16016,7 @@
       <c r="H388" t="s">
         <v>12</v>
       </c>
-      <c r="I388">
+      <c r="I388" s="15">
         <v>6.6179661397607066E+18</v>
       </c>
       <c r="J388" t="s">
@@ -15908,7 +16049,7 @@
       <c r="H389" t="s">
         <v>18</v>
       </c>
-      <c r="I389">
+      <c r="I389" s="15">
         <v>6.6179661440556739E+18</v>
       </c>
       <c r="J389" t="s">
@@ -15941,7 +16082,7 @@
       <c r="H390" t="s">
         <v>12</v>
       </c>
-      <c r="I390">
+      <c r="I390" s="15">
         <v>6.6179661440556739E+18</v>
       </c>
       <c r="J390" t="s">
@@ -15974,7 +16115,7 @@
       <c r="H391" t="s">
         <v>12</v>
       </c>
-      <c r="I391">
+      <c r="I391" s="15">
         <v>6.6179661483506412E+18</v>
       </c>
       <c r="J391" t="s">
@@ -16007,7 +16148,7 @@
       <c r="H392" t="s">
         <v>12</v>
       </c>
-      <c r="I392">
+      <c r="I392" s="15">
         <v>6.6179661483506412E+18</v>
       </c>
       <c r="J392" t="s">
@@ -16040,7 +16181,7 @@
       <c r="H393" t="s">
         <v>12</v>
       </c>
-      <c r="I393">
+      <c r="I393" s="15">
         <v>6.6179661483506412E+18</v>
       </c>
       <c r="J393" t="s">
@@ -16073,7 +16214,7 @@
       <c r="H394" t="s">
         <v>18</v>
       </c>
-      <c r="I394">
+      <c r="I394" s="15">
         <v>6.6179661526456084E+18</v>
       </c>
       <c r="J394" t="s">
@@ -16106,7 +16247,7 @@
       <c r="H395" t="s">
         <v>12</v>
       </c>
-      <c r="I395">
+      <c r="I395" s="15">
         <v>6.6179661526456084E+18</v>
       </c>
       <c r="J395" t="s">
@@ -16139,7 +16280,7 @@
       <c r="H396" t="s">
         <v>12</v>
       </c>
-      <c r="I396">
+      <c r="I396" s="15">
         <v>6.6179661526456084E+18</v>
       </c>
       <c r="J396" t="s">
@@ -16172,7 +16313,7 @@
       <c r="H397" t="s">
         <v>10</v>
       </c>
-      <c r="I397">
+      <c r="I397" s="15">
         <v>6.6179661655305103E+18</v>
       </c>
       <c r="J397" t="s">
@@ -16205,7 +16346,7 @@
       <c r="H398" t="s">
         <v>12</v>
       </c>
-      <c r="I398">
+      <c r="I398" s="15">
         <v>6.6179662342499871E+18</v>
       </c>
       <c r="J398" t="s">
@@ -16238,7 +16379,7 @@
       <c r="H399" t="s">
         <v>12</v>
       </c>
-      <c r="I399">
+      <c r="I399" s="15">
         <v>6.6179662342499871E+18</v>
       </c>
       <c r="J399" t="s">
@@ -16271,7 +16412,7 @@
       <c r="H400" t="s">
         <v>10</v>
       </c>
-      <c r="I400">
+      <c r="I400" s="15">
         <v>6.6179662600197908E+18</v>
       </c>
       <c r="J400" t="s">
@@ -16304,7 +16445,7 @@
       <c r="H401" t="s">
         <v>10</v>
       </c>
-      <c r="I401">
+      <c r="I401" s="15">
         <v>6.6179663158543657E+18</v>
       </c>
       <c r="J401" t="s">
@@ -16337,7 +16478,7 @@
       <c r="H402" t="s">
         <v>10</v>
       </c>
-      <c r="I402">
+      <c r="I402" s="15">
         <v>6.617966320149333E+18</v>
       </c>
       <c r="J402" t="s">
@@ -16370,7 +16511,7 @@
       <c r="H403" t="s">
         <v>10</v>
       </c>
-      <c r="I403">
+      <c r="I403" s="15">
         <v>6.6179663287392676E+18</v>
       </c>
       <c r="J403" t="s">
@@ -16403,7 +16544,7 @@
       <c r="H404" t="s">
         <v>12</v>
       </c>
-      <c r="I404">
+      <c r="I404" s="15">
         <v>6.617966393163777E+18</v>
       </c>
       <c r="J404" t="s">
@@ -16436,7 +16577,7 @@
       <c r="H405" t="s">
         <v>10</v>
       </c>
-      <c r="I405">
+      <c r="I405" s="15">
         <v>6.6179664146386135E+18</v>
       </c>
       <c r="J405" t="s">
@@ -16469,7 +16610,7 @@
       <c r="H406" t="s">
         <v>10</v>
       </c>
-      <c r="I406">
+      <c r="I406" s="15">
         <v>6.6179664447033846E+18</v>
       </c>
       <c r="J406" t="s">
@@ -16502,7 +16643,7 @@
       <c r="H407" t="s">
         <v>10</v>
       </c>
-      <c r="I407">
+      <c r="I407" s="15">
         <v>6.6179665263077632E+18</v>
       </c>
       <c r="J407" t="s">
@@ -16535,7 +16676,7 @@
       <c r="H408" t="s">
         <v>12</v>
       </c>
-      <c r="I408">
+      <c r="I408" s="15">
         <v>6.6179666551567821E+18</v>
       </c>
       <c r="J408" t="s">
@@ -16568,7 +16709,7 @@
       <c r="H409" t="s">
         <v>10</v>
       </c>
-      <c r="I409">
+      <c r="I409" s="15">
         <v>6.6179666809265859E+18</v>
       </c>
       <c r="J409" t="s">
@@ -16601,7 +16742,7 @@
       <c r="H410" t="s">
         <v>10</v>
       </c>
-      <c r="I410">
+      <c r="I410" s="15">
         <v>6.6179667625309645E+18</v>
       </c>
       <c r="J410" t="s">
@@ -16634,7 +16775,7 @@
       <c r="H411" t="s">
         <v>10</v>
       </c>
-      <c r="I411">
+      <c r="I411" s="15">
         <v>6.6179667711208991E+18</v>
       </c>
       <c r="J411" t="s">
@@ -16667,7 +16808,7 @@
       <c r="H412" t="s">
         <v>10</v>
       </c>
-      <c r="I412">
+      <c r="I412" s="15">
         <v>6.617966784005801E+18</v>
       </c>
       <c r="J412" t="s">
@@ -16700,7 +16841,7 @@
       <c r="H413" t="s">
         <v>18</v>
       </c>
-      <c r="I413">
+      <c r="I413" s="15">
         <v>6.6179668054806374E+18</v>
       </c>
       <c r="J413" t="s">
@@ -16733,7 +16874,7 @@
       <c r="H414" t="s">
         <v>10</v>
       </c>
-      <c r="I414">
+      <c r="I414" s="15">
         <v>6.6179668656101796E+18</v>
       </c>
       <c r="J414" t="s">
@@ -16766,7 +16907,7 @@
       <c r="H415" t="s">
         <v>10</v>
       </c>
-      <c r="I415">
+      <c r="I415" s="15">
         <v>6.6179669214447544E+18</v>
       </c>
       <c r="J415" t="s">
@@ -16799,7 +16940,7 @@
       <c r="H416" t="s">
         <v>10</v>
       </c>
-      <c r="I416">
+      <c r="I416" s="15">
         <v>6.6179669386246236E+18</v>
       </c>
       <c r="J416" t="s">
@@ -16832,7 +16973,7 @@
       <c r="H417" t="s">
         <v>12</v>
       </c>
-      <c r="I417">
+      <c r="I417" s="15">
         <v>6.6179669515095255E+18</v>
       </c>
       <c r="J417" t="s">
@@ -16865,7 +17006,7 @@
       <c r="H418" t="s">
         <v>12</v>
       </c>
-      <c r="I418">
+      <c r="I418" s="15">
         <v>6.6179670030491331E+18</v>
       </c>
       <c r="J418" t="s">
@@ -16898,7 +17039,7 @@
       <c r="H419" t="s">
         <v>10</v>
       </c>
-      <c r="I419">
+      <c r="I419" s="15">
         <v>6.6179670502937733E+18</v>
       </c>
       <c r="J419" t="s">
@@ -16931,7 +17072,7 @@
       <c r="H420" t="s">
         <v>10</v>
       </c>
-      <c r="I420">
+      <c r="I420" s="15">
         <v>6.6179671061283482E+18</v>
       </c>
       <c r="J420" t="s">
@@ -16964,7 +17105,7 @@
       <c r="H421" t="s">
         <v>10</v>
       </c>
-      <c r="I421">
+      <c r="I421" s="15">
         <v>6.6179671318981519E+18</v>
       </c>
       <c r="J421" t="s">
@@ -16997,7 +17138,7 @@
       <c r="H422" t="s">
         <v>10</v>
       </c>
-      <c r="I422">
+      <c r="I422" s="15">
         <v>6.6179671576679557E+18</v>
       </c>
       <c r="J422" t="s">
@@ -17030,7 +17171,7 @@
       <c r="H423" t="s">
         <v>10</v>
       </c>
-      <c r="I423">
+      <c r="I423" s="15">
         <v>6.6179671576679557E+18</v>
       </c>
       <c r="J423" t="s">
@@ -17063,7 +17204,7 @@
       <c r="H424" t="s">
         <v>10</v>
       </c>
-      <c r="I424">
+      <c r="I424" s="15">
         <v>6.6179671791427922E+18</v>
       </c>
       <c r="J424" t="s">
@@ -17096,7 +17237,7 @@
       <c r="H425" t="s">
         <v>12</v>
       </c>
-      <c r="I425">
+      <c r="I425" s="15">
         <v>6.6179671877327268E+18</v>
       </c>
       <c r="J425" t="s">
@@ -17129,7 +17270,7 @@
       <c r="H426" t="s">
         <v>12</v>
       </c>
-      <c r="I426">
+      <c r="I426" s="15">
         <v>6.6179672135025306E+18</v>
       </c>
       <c r="J426" t="s">
@@ -17162,7 +17303,7 @@
       <c r="H427" t="s">
         <v>10</v>
       </c>
-      <c r="I427">
+      <c r="I427" s="15">
         <v>6.6179672693371054E+18</v>
       </c>
       <c r="J427" t="s">
@@ -17195,7 +17336,7 @@
       <c r="H428" t="s">
         <v>12</v>
       </c>
-      <c r="I428">
+      <c r="I428" s="15">
         <v>6.6179673294666476E+18</v>
       </c>
       <c r="J428" t="s">
@@ -17228,7 +17369,7 @@
       <c r="H429" t="s">
         <v>12</v>
       </c>
-      <c r="I429">
+      <c r="I429" s="15">
         <v>6.6179674067760589E+18</v>
       </c>
       <c r="J429" t="s">
@@ -17261,7 +17402,7 @@
       <c r="H430" t="s">
         <v>12</v>
       </c>
-      <c r="I430">
+      <c r="I430" s="15">
         <v>6.6179674883804375E+18</v>
       </c>
       <c r="J430" t="s">
@@ -17294,7 +17435,7 @@
       <c r="H431" t="s">
         <v>10</v>
       </c>
-      <c r="I431">
+      <c r="I431" s="15">
         <v>6.6179674969703721E+18</v>
       </c>
       <c r="J431" t="s">
@@ -17327,7 +17468,7 @@
       <c r="H432" t="s">
         <v>10</v>
       </c>
-      <c r="I432">
+      <c r="I432" s="15">
         <v>6.6179675055603067E+18</v>
       </c>
       <c r="J432" t="s">
@@ -17360,7 +17501,7 @@
       <c r="H433" t="s">
         <v>10</v>
       </c>
-      <c r="I433">
+      <c r="I433" s="15">
         <v>6.6179675055603067E+18</v>
       </c>
       <c r="J433" t="s">
@@ -17393,7 +17534,7 @@
       <c r="H434" t="s">
         <v>18</v>
       </c>
-      <c r="I434">
+      <c r="I434" s="15">
         <v>6.6179675528049469E+18</v>
       </c>
       <c r="J434" t="s">
@@ -17426,7 +17567,7 @@
       <c r="H435" t="s">
         <v>10</v>
       </c>
-      <c r="I435">
+      <c r="I435" s="15">
         <v>6.6179675528049469E+18</v>
       </c>
       <c r="J435" t="s">
@@ -17459,7 +17600,7 @@
       <c r="H436" t="s">
         <v>18</v>
       </c>
-      <c r="I436">
+      <c r="I436" s="15">
         <v>6.6179675570999142E+18</v>
       </c>
       <c r="J436" t="s">
@@ -17492,7 +17633,7 @@
       <c r="H437" t="s">
         <v>10</v>
       </c>
-      <c r="I437">
+      <c r="I437" s="15">
         <v>6.6179675570999142E+18</v>
       </c>
       <c r="J437" t="s">
@@ -17525,7 +17666,7 @@
       <c r="H438" t="s">
         <v>10</v>
       </c>
-      <c r="I438">
+      <c r="I438" s="15">
         <v>6.6179675656898488E+18</v>
       </c>
       <c r="J438" t="s">
@@ -17558,7 +17699,7 @@
       <c r="H439" t="s">
         <v>18</v>
       </c>
-      <c r="I439">
+      <c r="I439" s="15">
         <v>6.6179675914596526E+18</v>
       </c>
       <c r="J439" t="s">
@@ -17591,7 +17732,7 @@
       <c r="H440" t="s">
         <v>10</v>
       </c>
-      <c r="I440">
+      <c r="I440" s="15">
         <v>6.6179675914596526E+18</v>
       </c>
       <c r="J440" t="s">
@@ -17624,7 +17765,7 @@
       <c r="H441" t="s">
         <v>10</v>
       </c>
-      <c r="I441">
+      <c r="I441" s="15">
         <v>6.6179675957546199E+18</v>
       </c>
       <c r="J441" t="s">
@@ -17657,7 +17798,7 @@
       <c r="H442" t="s">
         <v>10</v>
       </c>
-      <c r="I442">
+      <c r="I442" s="15">
         <v>6.6179676000495872E+18</v>
       </c>
       <c r="J442" t="s">
@@ -17690,7 +17831,7 @@
       <c r="H443" t="s">
         <v>12</v>
       </c>
-      <c r="I443">
+      <c r="I443" s="15">
         <v>6.6179676000495872E+18</v>
       </c>
       <c r="J443" t="s">
@@ -17723,7 +17864,7 @@
       <c r="H444" t="s">
         <v>12</v>
       </c>
-      <c r="I444">
+      <c r="I444" s="15">
         <v>6.6179676043445545E+18</v>
       </c>
       <c r="J444" t="s">
@@ -17756,7 +17897,7 @@
       <c r="H445" t="s">
         <v>10</v>
       </c>
-      <c r="I445">
+      <c r="I445" s="15">
         <v>6.6179676215244237E+18</v>
       </c>
       <c r="J445" t="s">
@@ -17789,7 +17930,7 @@
       <c r="H446" t="s">
         <v>12</v>
       </c>
-      <c r="I446">
+      <c r="I446" s="15">
         <v>6.6179676945388677E+18</v>
       </c>
       <c r="J446" t="s">
@@ -17822,7 +17963,7 @@
       <c r="H447" t="s">
         <v>10</v>
       </c>
-      <c r="I447">
+      <c r="I447" s="15">
         <v>6.6179677589633772E+18</v>
       </c>
       <c r="J447" t="s">
@@ -17855,7 +17996,7 @@
       <c r="H448" t="s">
         <v>10</v>
       </c>
-      <c r="I448">
+      <c r="I448" s="15">
         <v>6.6179678491576904E+18</v>
       </c>
       <c r="J448" t="s">
@@ -17888,7 +18029,7 @@
       <c r="H449" t="s">
         <v>10</v>
       </c>
-      <c r="I449">
+      <c r="I449" s="15">
         <v>6.6179678534526577E+18</v>
       </c>
       <c r="J449" t="s">
@@ -17921,7 +18062,7 @@
       <c r="H450" t="s">
         <v>12</v>
       </c>
-      <c r="I450">
+      <c r="I450" s="15">
         <v>6.6179678792224614E+18</v>
       </c>
       <c r="J450" t="s">
@@ -17954,7 +18095,7 @@
       <c r="H451" t="s">
         <v>10</v>
       </c>
-      <c r="I451">
+      <c r="I451" s="15">
         <v>6.6179678792224614E+18</v>
       </c>
       <c r="J451" t="s">
@@ -17987,7 +18128,7 @@
       <c r="H452" t="s">
         <v>18</v>
       </c>
-      <c r="I452">
+      <c r="I452" s="15">
         <v>6.6179678964023306E+18</v>
       </c>
       <c r="J452" t="s">
@@ -18020,7 +18161,7 @@
       <c r="H453" t="s">
         <v>18</v>
       </c>
-      <c r="I453">
+      <c r="I453" s="15">
         <v>6.617967973711742E+18</v>
       </c>
       <c r="J453" t="s">
@@ -18053,7 +18194,7 @@
       <c r="H454" t="s">
         <v>12</v>
       </c>
-      <c r="I454">
+      <c r="I454" s="15">
         <v>6.617967973711742E+18</v>
       </c>
       <c r="J454" t="s">
@@ -18086,7 +18227,7 @@
       <c r="H455" t="s">
         <v>10</v>
       </c>
-      <c r="I455">
+      <c r="I455" s="15">
         <v>6.6179679951865784E+18</v>
       </c>
       <c r="J455" t="s">
@@ -18119,7 +18260,7 @@
       <c r="H456" t="s">
         <v>10</v>
       </c>
-      <c r="I456">
+      <c r="I456" s="15">
         <v>6.6179679951865784E+18</v>
       </c>
       <c r="J456" t="s">
@@ -18152,7 +18293,7 @@
       <c r="H457" t="s">
         <v>12</v>
       </c>
-      <c r="I457">
+      <c r="I457" s="15">
         <v>6.6179679994815457E+18</v>
       </c>
       <c r="J457" t="s">
@@ -18185,7 +18326,7 @@
       <c r="H458" t="s">
         <v>10</v>
       </c>
-      <c r="I458">
+      <c r="I458" s="15">
         <v>6.6179679994815457E+18</v>
       </c>
       <c r="J458" t="s">
@@ -18218,7 +18359,7 @@
       <c r="H459" t="s">
         <v>12</v>
       </c>
-      <c r="I459">
+      <c r="I459" s="15">
         <v>6.6179680080714803E+18</v>
       </c>
       <c r="J459" t="s">
@@ -18251,7 +18392,7 @@
       <c r="H460" t="s">
         <v>10</v>
       </c>
-      <c r="I460">
+      <c r="I460" s="15">
         <v>6.6179681025607608E+18</v>
       </c>
       <c r="J460" t="s">
@@ -18284,7 +18425,7 @@
       <c r="H461" t="s">
         <v>12</v>
       </c>
-      <c r="I461">
+      <c r="I461" s="15">
         <v>6.6179681068557281E+18</v>
       </c>
       <c r="J461" t="s">
@@ -18317,7 +18458,7 @@
       <c r="H462" t="s">
         <v>12</v>
       </c>
-      <c r="I462">
+      <c r="I462" s="15">
         <v>6.6179681154456627E+18</v>
       </c>
       <c r="J462" t="s">
@@ -18350,7 +18491,7 @@
       <c r="H463" t="s">
         <v>10</v>
       </c>
-      <c r="I463">
+      <c r="I463" s="15">
         <v>6.6179681455104338E+18</v>
       </c>
       <c r="J463" t="s">
@@ -18383,7 +18524,7 @@
       <c r="H464" t="s">
         <v>12</v>
       </c>
-      <c r="I464">
+      <c r="I464" s="15">
         <v>6.6179681884601068E+18</v>
       </c>
       <c r="J464" t="s">
@@ -18416,7 +18557,7 @@
       <c r="H465" t="s">
         <v>12</v>
       </c>
-      <c r="I465">
+      <c r="I465" s="15">
         <v>6.617968192755074E+18</v>
       </c>
       <c r="J465" t="s">
@@ -18449,7 +18590,7 @@
       <c r="H466" t="s">
         <v>18</v>
       </c>
-      <c r="I466">
+      <c r="I466" s="15">
         <v>6.6179682571795835E+18</v>
       </c>
       <c r="J466" t="s">
@@ -18482,7 +18623,7 @@
       <c r="H467" t="s">
         <v>10</v>
       </c>
-      <c r="I467">
+      <c r="I467" s="15">
         <v>6.61796827865442E+18</v>
       </c>
       <c r="J467" t="s">
@@ -18515,7 +18656,7 @@
       <c r="H468" t="s">
         <v>12</v>
       </c>
-      <c r="I468">
+      <c r="I468" s="15">
         <v>6.6179682872443546E+18</v>
       </c>
       <c r="J468" t="s">
@@ -18548,7 +18689,7 @@
       <c r="H469" t="s">
         <v>10</v>
       </c>
-      <c r="I469">
+      <c r="I469" s="15">
         <v>6.617968308719191E+18</v>
       </c>
       <c r="J469" t="s">
@@ -18581,7 +18722,7 @@
       <c r="H470" t="s">
         <v>10</v>
       </c>
-      <c r="I470">
+      <c r="I470" s="15">
         <v>6.6179683173091256E+18</v>
       </c>
       <c r="J470" t="s">
@@ -18614,7 +18755,7 @@
       <c r="H471" t="s">
         <v>10</v>
       </c>
-      <c r="I471">
+      <c r="I471" s="15">
         <v>6.617968351668864E+18</v>
       </c>
       <c r="J471" t="s">
@@ -18647,7 +18788,7 @@
       <c r="H472" t="s">
         <v>10</v>
       </c>
-      <c r="I472">
+      <c r="I472" s="15">
         <v>6.6179683860286024E+18</v>
       </c>
       <c r="J472" t="s">
@@ -18680,7 +18821,7 @@
       <c r="H473" t="s">
         <v>10</v>
       </c>
-      <c r="I473">
+      <c r="I473" s="15">
         <v>6.6179683989135043E+18</v>
       </c>
       <c r="J473" t="s">
@@ -18713,7 +18854,7 @@
       <c r="H474" t="s">
         <v>12</v>
       </c>
-      <c r="I474">
+      <c r="I474" s="15">
         <v>6.6179684203883407E+18</v>
       </c>
       <c r="J474" t="s">
@@ -18746,7 +18887,7 @@
       <c r="H475" t="s">
         <v>10</v>
       </c>
-      <c r="I475">
+      <c r="I475" s="15">
         <v>6.6179684461581445E+18</v>
       </c>
       <c r="J475" t="s">
@@ -18779,7 +18920,7 @@
       <c r="H476" t="s">
         <v>10</v>
       </c>
-      <c r="I476">
+      <c r="I476" s="15">
         <v>6.6179684504531118E+18</v>
       </c>
       <c r="J476" t="s">
@@ -18812,7 +18953,7 @@
       <c r="H477" t="s">
         <v>10</v>
       </c>
-      <c r="I477">
+      <c r="I477" s="15">
         <v>6.6179684547480791E+18</v>
       </c>
       <c r="J477" t="s">
@@ -18845,7 +18986,7 @@
       <c r="H478" t="s">
         <v>10</v>
       </c>
-      <c r="I478">
+      <c r="I478" s="15">
         <v>6.6179684547480791E+18</v>
       </c>
       <c r="J478" t="s">
@@ -18878,7 +19019,7 @@
       <c r="H479" t="s">
         <v>10</v>
       </c>
-      <c r="I479">
+      <c r="I479" s="15">
         <v>6.6179684547480791E+18</v>
       </c>
       <c r="J479" t="s">
@@ -18911,7 +19052,7 @@
       <c r="H480" t="s">
         <v>12</v>
       </c>
-      <c r="I480">
+      <c r="I480" s="15">
         <v>6.6179684891078175E+18</v>
       </c>
       <c r="J480" t="s">
@@ -18944,7 +19085,7 @@
       <c r="H481" t="s">
         <v>10</v>
       </c>
-      <c r="I481">
+      <c r="I481" s="15">
         <v>6.6179685148776212E+18</v>
       </c>
       <c r="J481" t="s">
@@ -18977,7 +19118,7 @@
       <c r="H482" t="s">
         <v>12</v>
       </c>
-      <c r="I482">
+      <c r="I482" s="15">
         <v>6.6179685191725885E+18</v>
       </c>
       <c r="J482" t="s">
@@ -19010,7 +19151,7 @@
       <c r="H483" t="s">
         <v>12</v>
       </c>
-      <c r="I483">
+      <c r="I483" s="15">
         <v>6.617968540647425E+18</v>
       </c>
       <c r="J483" t="s">
@@ -19043,7 +19184,7 @@
       <c r="H484" t="s">
         <v>10</v>
       </c>
-      <c r="I484">
+      <c r="I484" s="15">
         <v>6.6179685578272942E+18</v>
       </c>
       <c r="J484" t="s">
@@ -19076,7 +19217,7 @@
       <c r="H485" t="s">
         <v>12</v>
       </c>
-      <c r="I485">
+      <c r="I485" s="15">
         <v>6.6179685793021307E+18</v>
       </c>
       <c r="J485" t="s">
@@ -19109,7 +19250,7 @@
       <c r="H486" t="s">
         <v>10</v>
       </c>
-      <c r="I486">
+      <c r="I486" s="15">
         <v>6.6179686222518036E+18</v>
       </c>
       <c r="J486" t="s">
@@ -19142,7 +19283,7 @@
       <c r="H487" t="s">
         <v>10</v>
       </c>
-      <c r="I487">
+      <c r="I487" s="15">
         <v>6.6179686222518036E+18</v>
       </c>
       <c r="J487" t="s">
@@ -19175,7 +19316,7 @@
       <c r="H488" t="s">
         <v>10</v>
       </c>
-      <c r="I488">
+      <c r="I488" s="15">
         <v>6.6179686308417382E+18</v>
       </c>
       <c r="J488" t="s">
@@ -19208,7 +19349,7 @@
       <c r="H489" t="s">
         <v>10</v>
       </c>
-      <c r="I489">
+      <c r="I489" s="15">
         <v>6.6179686351367055E+18</v>
       </c>
       <c r="J489" t="s">
@@ -19241,7 +19382,7 @@
       <c r="H490" t="s">
         <v>12</v>
       </c>
-      <c r="I490">
+      <c r="I490" s="15">
         <v>6.6179686437266401E+18</v>
       </c>
       <c r="J490" t="s">
@@ -19274,7 +19415,7 @@
       <c r="H491" t="s">
         <v>10</v>
       </c>
-      <c r="I491">
+      <c r="I491" s="15">
         <v>6.617968656611542E+18</v>
       </c>
       <c r="J491" t="s">
@@ -19307,7 +19448,7 @@
       <c r="H492" t="s">
         <v>10</v>
       </c>
-      <c r="I492">
+      <c r="I492" s="15">
         <v>6.617968656611542E+18</v>
       </c>
       <c r="J492" t="s">
@@ -19340,7 +19481,7 @@
       <c r="H493" t="s">
         <v>12</v>
       </c>
-      <c r="I493">
+      <c r="I493" s="15">
         <v>6.6179686609065093E+18</v>
       </c>
       <c r="J493" t="s">
@@ -19373,7 +19514,7 @@
       <c r="H494" t="s">
         <v>12</v>
       </c>
-      <c r="I494">
+      <c r="I494" s="15">
         <v>6.6179686609065093E+18</v>
       </c>
       <c r="J494" t="s">
@@ -19406,7 +19547,7 @@
       <c r="H495" t="s">
         <v>12</v>
       </c>
-      <c r="I495">
+      <c r="I495" s="15">
         <v>6.6179686694964439E+18</v>
       </c>
       <c r="J495" t="s">
@@ -19439,7 +19580,7 @@
       <c r="H496" t="s">
         <v>12</v>
       </c>
-      <c r="I496">
+      <c r="I496" s="15">
         <v>6.617968699561215E+18</v>
       </c>
       <c r="J496" t="s">
@@ -19472,7 +19613,7 @@
       <c r="H497" t="s">
         <v>10</v>
       </c>
-      <c r="I497">
+      <c r="I497" s="15">
         <v>6.6179687339209533E+18</v>
       </c>
       <c r="J497" t="s">
@@ -19505,7 +19646,7 @@
       <c r="H498" t="s">
         <v>12</v>
       </c>
-      <c r="I498">
+      <c r="I498" s="15">
         <v>6.6179687511008225E+18</v>
       </c>
       <c r="J498" t="s">
@@ -19538,7 +19679,7 @@
       <c r="H499" t="s">
         <v>12</v>
       </c>
-      <c r="I499">
+      <c r="I499" s="15">
         <v>6.6179688412951357E+18</v>
       </c>
       <c r="J499" t="s">
@@ -19571,7 +19712,7 @@
       <c r="H500" t="s">
         <v>12</v>
       </c>
-      <c r="I500">
+      <c r="I500" s="15">
         <v>6.6179688498850703E+18</v>
       </c>
       <c r="J500" t="s">
@@ -19604,7 +19745,7 @@
       <c r="H501" t="s">
         <v>10</v>
       </c>
-      <c r="I501">
+      <c r="I501" s="15">
         <v>6.6179688584750049E+18</v>
       </c>
       <c r="J501" t="s">
@@ -19637,7 +19778,7 @@
       <c r="H502" t="s">
         <v>10</v>
       </c>
-      <c r="I502">
+      <c r="I502" s="15">
         <v>6.6179689014246779E+18</v>
       </c>
       <c r="J502" t="s">
@@ -19670,7 +19811,7 @@
       <c r="H503" t="s">
         <v>10</v>
       </c>
-      <c r="I503">
+      <c r="I503" s="15">
         <v>6.6179689100146125E+18</v>
       </c>
       <c r="J503" t="s">
@@ -19703,7 +19844,7 @@
       <c r="H504" t="s">
         <v>10</v>
       </c>
-      <c r="I504">
+      <c r="I504" s="15">
         <v>6.6179689143095798E+18</v>
       </c>
       <c r="J504" t="s">
@@ -19736,7 +19877,7 @@
       <c r="H505" t="s">
         <v>10</v>
       </c>
-      <c r="I505">
+      <c r="I505" s="15">
         <v>6.6179689143095798E+18</v>
       </c>
       <c r="J505" t="s">
@@ -19769,7 +19910,7 @@
       <c r="H506" t="s">
         <v>10</v>
       </c>
-      <c r="I506">
+      <c r="I506" s="15">
         <v>6.6179689186045471E+18</v>
       </c>
       <c r="J506" t="s">
@@ -19802,7 +19943,7 @@
       <c r="H507" t="s">
         <v>18</v>
       </c>
-      <c r="I507">
+      <c r="I507" s="15">
         <v>6.6179689186045471E+18</v>
       </c>
       <c r="J507" t="s">
@@ -19835,7 +19976,7 @@
       <c r="H508" t="s">
         <v>10</v>
       </c>
-      <c r="I508">
+      <c r="I508" s="15">
         <v>6.617968931489449E+18</v>
       </c>
       <c r="J508" t="s">
@@ -19868,7 +20009,7 @@
       <c r="H509" t="s">
         <v>12</v>
       </c>
-      <c r="I509">
+      <c r="I509" s="15">
         <v>6.6179689486693181E+18</v>
       </c>
       <c r="J509" t="s">
@@ -19901,7 +20042,7 @@
       <c r="H510" t="s">
         <v>18</v>
       </c>
-      <c r="I510">
+      <c r="I510" s="15">
         <v>6.6179689701441546E+18</v>
       </c>
       <c r="J510" t="s">
@@ -19934,7 +20075,7 @@
       <c r="H511" t="s">
         <v>10</v>
       </c>
-      <c r="I511">
+      <c r="I511" s="15">
         <v>6.6179689701441546E+18</v>
       </c>
       <c r="J511" t="s">
@@ -19967,7 +20108,7 @@
       <c r="H512" t="s">
         <v>10</v>
       </c>
-      <c r="I512">
+      <c r="I512" s="15">
         <v>6.617969004503893E+18</v>
       </c>
       <c r="J512" t="s">
@@ -20000,7 +20141,7 @@
       <c r="H513" t="s">
         <v>10</v>
       </c>
-      <c r="I513">
+      <c r="I513" s="15">
         <v>6.617969004503893E+18</v>
       </c>
       <c r="J513" t="s">
@@ -20033,7 +20174,7 @@
       <c r="H514" t="s">
         <v>10</v>
       </c>
-      <c r="I514">
+      <c r="I514" s="15">
         <v>6.6179690216837622E+18</v>
       </c>
       <c r="J514" t="s">
@@ -20066,7 +20207,7 @@
       <c r="H515" t="s">
         <v>10</v>
       </c>
-      <c r="I515">
+      <c r="I515" s="15">
         <v>6.6179690560435005E+18</v>
       </c>
       <c r="J515" t="s">
@@ -20099,7 +20240,7 @@
       <c r="H516" t="s">
         <v>12</v>
       </c>
-      <c r="I516">
+      <c r="I516" s="15">
         <v>6.6179690689284024E+18</v>
       </c>
       <c r="J516" t="s">
@@ -20132,7 +20273,7 @@
       <c r="H517" t="s">
         <v>10</v>
       </c>
-      <c r="I517">
+      <c r="I517" s="15">
         <v>6.617969077518337E+18</v>
       </c>
       <c r="J517" t="s">
@@ -20165,7 +20306,7 @@
       <c r="H518" t="s">
         <v>10</v>
       </c>
-      <c r="I518">
+      <c r="I518" s="15">
         <v>6.617969077518337E+18</v>
       </c>
       <c r="J518" t="s">
@@ -20198,7 +20339,7 @@
       <c r="H519" t="s">
         <v>12</v>
       </c>
-      <c r="I519">
+      <c r="I519" s="15">
         <v>6.6179691118780754E+18</v>
       </c>
       <c r="J519" t="s">
@@ -20231,7 +20372,7 @@
       <c r="H520" t="s">
         <v>10</v>
       </c>
-      <c r="I520">
+      <c r="I520" s="15">
         <v>6.6179691376478792E+18</v>
       </c>
       <c r="J520" t="s">
@@ -20264,7 +20405,7 @@
       <c r="H521" t="s">
         <v>10</v>
       </c>
-      <c r="I521">
+      <c r="I521" s="15">
         <v>6.6179691376478792E+18</v>
       </c>
       <c r="J521" t="s">
@@ -20297,7 +20438,7 @@
       <c r="H522" t="s">
         <v>10</v>
       </c>
-      <c r="I522">
+      <c r="I522" s="15">
         <v>6.6179691419428465E+18</v>
       </c>
       <c r="J522" t="s">
@@ -20330,7 +20471,7 @@
       <c r="H523" t="s">
         <v>10</v>
       </c>
-      <c r="I523">
+      <c r="I523" s="15">
         <v>6.6179691419428465E+18</v>
       </c>
       <c r="J523" t="s">
@@ -20363,7 +20504,7 @@
       <c r="H524" t="s">
         <v>10</v>
       </c>
-      <c r="I524">
+      <c r="I524" s="15">
         <v>6.6179691419428465E+18</v>
       </c>
       <c r="J524" t="s">
@@ -20396,7 +20537,7 @@
       <c r="H525" t="s">
         <v>12</v>
       </c>
-      <c r="I525">
+      <c r="I525" s="15">
         <v>6.6179691591227156E+18</v>
       </c>
       <c r="J525" t="s">
@@ -20429,7 +20570,7 @@
       <c r="H526" t="s">
         <v>12</v>
       </c>
-      <c r="I526">
+      <c r="I526" s="15">
         <v>6.6179691677126502E+18</v>
       </c>
       <c r="J526" t="s">
@@ -20462,7 +20603,7 @@
       <c r="H527" t="s">
         <v>10</v>
       </c>
-      <c r="I527">
+      <c r="I527" s="15">
         <v>6.6179691720076175E+18</v>
       </c>
       <c r="J527" t="s">
@@ -20495,7 +20636,7 @@
       <c r="H528" t="s">
         <v>10</v>
       </c>
-      <c r="I528">
+      <c r="I528" s="15">
         <v>6.6179691763025848E+18</v>
       </c>
       <c r="J528" t="s">
@@ -20528,7 +20669,7 @@
       <c r="H529" t="s">
         <v>10</v>
       </c>
-      <c r="I529">
+      <c r="I529" s="15">
         <v>6.6179691763025848E+18</v>
       </c>
       <c r="J529" t="s">
@@ -20561,7 +20702,7 @@
       <c r="H530" t="s">
         <v>12</v>
       </c>
-      <c r="I530">
+      <c r="I530" s="15">
         <v>6.6179691805975521E+18</v>
       </c>
       <c r="J530" t="s">
@@ -20594,7 +20735,7 @@
       <c r="H531" t="s">
         <v>12</v>
       </c>
-      <c r="I531">
+      <c r="I531" s="15">
         <v>6.6179691805975521E+18</v>
       </c>
       <c r="J531" t="s">
@@ -20627,7 +20768,7 @@
       <c r="H532" t="s">
         <v>10</v>
       </c>
-      <c r="I532">
+      <c r="I532" s="15">
         <v>6.6179692321371597E+18</v>
       </c>
       <c r="J532" t="s">
@@ -20660,7 +20801,7 @@
       <c r="H533" t="s">
         <v>10</v>
       </c>
-      <c r="I533">
+      <c r="I533" s="15">
         <v>6.6179692536119962E+18</v>
       </c>
       <c r="J533" t="s">
@@ -20693,7 +20834,7 @@
       <c r="H534" t="s">
         <v>12</v>
       </c>
-      <c r="I534">
+      <c r="I534" s="15">
         <v>6.6179692965616691E+18</v>
       </c>
       <c r="J534" t="s">
@@ -20726,7 +20867,7 @@
       <c r="H535" t="s">
         <v>10</v>
       </c>
-      <c r="I535">
+      <c r="I535" s="15">
         <v>6.6179693008566364E+18</v>
       </c>
       <c r="J535" t="s">
@@ -20759,7 +20900,7 @@
       <c r="H536" t="s">
         <v>10</v>
       </c>
-      <c r="I536">
+      <c r="I536" s="15">
         <v>6.6179693051516037E+18</v>
       </c>
       <c r="J536" t="s">
@@ -20792,7 +20933,7 @@
       <c r="H537" t="s">
         <v>10</v>
       </c>
-      <c r="I537">
+      <c r="I537" s="15">
         <v>6.6179693137415383E+18</v>
       </c>
       <c r="J537" t="s">
@@ -20825,7 +20966,7 @@
       <c r="H538" t="s">
         <v>10</v>
       </c>
-      <c r="I538">
+      <c r="I538" s="15">
         <v>6.6179693137415383E+18</v>
       </c>
       <c r="J538" t="s">
@@ -20858,7 +20999,7 @@
       <c r="H539" t="s">
         <v>18</v>
       </c>
-      <c r="I539">
+      <c r="I539" s="15">
         <v>6.6179693137415383E+18</v>
       </c>
       <c r="J539" t="s">
@@ -20891,7 +21032,7 @@
       <c r="H540" t="s">
         <v>12</v>
       </c>
-      <c r="I540">
+      <c r="I540" s="15">
         <v>6.6179693137415383E+18</v>
       </c>
       <c r="J540" t="s">
@@ -20924,7 +21065,7 @@
       <c r="H541" t="s">
         <v>12</v>
       </c>
-      <c r="I541">
+      <c r="I541" s="15">
         <v>6.6179693180365056E+18</v>
       </c>
       <c r="J541" t="s">
@@ -20957,7 +21098,7 @@
       <c r="H542" t="s">
         <v>12</v>
       </c>
-      <c r="I542">
+      <c r="I542" s="15">
         <v>6.6179693266264402E+18</v>
       </c>
       <c r="J542" t="s">
@@ -20990,7 +21131,7 @@
       <c r="H543" t="s">
         <v>12</v>
       </c>
-      <c r="I543">
+      <c r="I543" s="15">
         <v>6.6179693352163748E+18</v>
       </c>
       <c r="J543" t="s">
@@ -21023,7 +21164,7 @@
       <c r="H544" t="s">
         <v>12</v>
       </c>
-      <c r="I544">
+      <c r="I544" s="15">
         <v>6.6179693609861786E+18</v>
       </c>
       <c r="J544" t="s">
@@ -21056,7 +21197,7 @@
       <c r="H545" t="s">
         <v>12</v>
       </c>
-      <c r="I545">
+      <c r="I545" s="15">
         <v>6.6179693652811459E+18</v>
       </c>
       <c r="J545" t="s">
@@ -21089,7 +21230,7 @@
       <c r="H546" t="s">
         <v>12</v>
       </c>
-      <c r="I546">
+      <c r="I546" s="15">
         <v>6.6179693695761132E+18</v>
       </c>
       <c r="J546" t="s">
@@ -21122,7 +21263,7 @@
       <c r="H547" t="s">
         <v>10</v>
       </c>
-      <c r="I547">
+      <c r="I547" s="15">
         <v>6.6179693867559823E+18</v>
       </c>
       <c r="J547" t="s">
@@ -21155,7 +21296,7 @@
       <c r="H548" t="s">
         <v>10</v>
       </c>
-      <c r="I548">
+      <c r="I548" s="15">
         <v>6.6179694511804918E+18</v>
       </c>
       <c r="J548" t="s">
@@ -21188,7 +21329,7 @@
       <c r="H549" t="s">
         <v>12</v>
       </c>
-      <c r="I549">
+      <c r="I549" s="15">
         <v>6.6179694855402301E+18</v>
       </c>
       <c r="J549" t="s">
@@ -21221,7 +21362,7 @@
       <c r="H550" t="s">
         <v>12</v>
       </c>
-      <c r="I550">
+      <c r="I550" s="15">
         <v>6.6179694855402301E+18</v>
       </c>
       <c r="J550" t="s">
@@ -21254,7 +21395,7 @@
       <c r="H551" t="s">
         <v>12</v>
       </c>
-      <c r="I551">
+      <c r="I551" s="15">
         <v>6.617969498425132E+18</v>
       </c>
       <c r="J551" t="s">
@@ -21287,7 +21428,7 @@
       <c r="H552" t="s">
         <v>12</v>
       </c>
-      <c r="I552">
+      <c r="I552" s="15">
         <v>6.6179695113100339E+18</v>
       </c>
       <c r="J552" t="s">
@@ -21320,7 +21461,7 @@
       <c r="H553" t="s">
         <v>12</v>
       </c>
-      <c r="I553">
+      <c r="I553" s="15">
         <v>6.6179695113100339E+18</v>
       </c>
       <c r="J553" t="s">
@@ -21353,7 +21494,7 @@
       <c r="H554" t="s">
         <v>12</v>
       </c>
-      <c r="I554">
+      <c r="I554" s="15">
         <v>6.6179695156050012E+18</v>
       </c>
       <c r="J554" t="s">
@@ -21386,7 +21527,7 @@
       <c r="H555" t="s">
         <v>12</v>
       </c>
-      <c r="I555">
+      <c r="I555" s="15">
         <v>6.6179695156050012E+18</v>
       </c>
       <c r="J555" t="s">
@@ -21419,7 +21560,7 @@
       <c r="H556" t="s">
         <v>12</v>
       </c>
-      <c r="I556">
+      <c r="I556" s="15">
         <v>6.6179695198999685E+18</v>
       </c>
       <c r="J556" t="s">
@@ -21452,7 +21593,7 @@
       <c r="H557" t="s">
         <v>12</v>
       </c>
-      <c r="I557">
+      <c r="I557" s="15">
         <v>6.6179695370798377E+18</v>
       </c>
       <c r="J557" t="s">
@@ -21485,7 +21626,7 @@
       <c r="H558" t="s">
         <v>10</v>
       </c>
-      <c r="I558">
+      <c r="I558" s="15">
         <v>6.6179695456697723E+18</v>
       </c>
       <c r="J558" t="s">
@@ -21518,7 +21659,7 @@
       <c r="H559" t="s">
         <v>18</v>
       </c>
-      <c r="I559">
+      <c r="I559" s="15">
         <v>6.6179695499647396E+18</v>
       </c>
       <c r="J559" t="s">
@@ -21551,7 +21692,7 @@
       <c r="H560" t="s">
         <v>10</v>
       </c>
-      <c r="I560">
+      <c r="I560" s="15">
         <v>6.6179695628496415E+18</v>
       </c>
       <c r="J560" t="s">
@@ -21584,7 +21725,7 @@
       <c r="H561" t="s">
         <v>12</v>
       </c>
-      <c r="I561">
+      <c r="I561" s="15">
         <v>6.6179695757345434E+18</v>
       </c>
       <c r="J561" t="s">
@@ -21617,7 +21758,7 @@
       <c r="H562" t="s">
         <v>12</v>
       </c>
-      <c r="I562">
+      <c r="I562" s="15">
         <v>6.6179695886194452E+18</v>
       </c>
       <c r="J562" t="s">
@@ -21650,7 +21791,7 @@
       <c r="H563" t="s">
         <v>10</v>
       </c>
-      <c r="I563">
+      <c r="I563" s="15">
         <v>6.6179695929144125E+18</v>
       </c>
       <c r="J563" t="s">
@@ -21683,7 +21824,7 @@
       <c r="H564" t="s">
         <v>12</v>
       </c>
-      <c r="I564">
+      <c r="I564" s="15">
         <v>6.6179696100942817E+18</v>
       </c>
       <c r="J564" t="s">
@@ -21716,7 +21857,7 @@
       <c r="H565" t="s">
         <v>12</v>
       </c>
-      <c r="I565">
+      <c r="I565" s="15">
         <v>6.6179696186842163E+18</v>
       </c>
       <c r="J565" t="s">
@@ -21749,7 +21890,7 @@
       <c r="H566" t="s">
         <v>12</v>
       </c>
-      <c r="I566">
+      <c r="I566" s="15">
         <v>6.6179696186842163E+18</v>
       </c>
       <c r="J566" t="s">
@@ -21782,7 +21923,7 @@
       <c r="H567" t="s">
         <v>10</v>
       </c>
-      <c r="I567">
+      <c r="I567" s="15">
         <v>6.6179696229791836E+18</v>
       </c>
       <c r="J567" t="s">
@@ -21815,7 +21956,7 @@
       <c r="H568" t="s">
         <v>12</v>
       </c>
-      <c r="I568">
+      <c r="I568" s="15">
         <v>6.6179696358640855E+18</v>
       </c>
       <c r="J568" t="s">
@@ -21848,7 +21989,7 @@
       <c r="H569" t="s">
         <v>12</v>
       </c>
-      <c r="I569">
+      <c r="I569" s="15">
         <v>6.6179696401590528E+18</v>
       </c>
       <c r="J569" t="s">
@@ -21881,7 +22022,7 @@
       <c r="H570" t="s">
         <v>10</v>
       </c>
-      <c r="I570">
+      <c r="I570" s="15">
         <v>6.617969657338922E+18</v>
       </c>
       <c r="J570" t="s">
@@ -21914,7 +22055,7 @@
       <c r="H571" t="s">
         <v>12</v>
       </c>
-      <c r="I571">
+      <c r="I571" s="15">
         <v>6.6179696616338893E+18</v>
       </c>
       <c r="J571" t="s">
@@ -21947,7 +22088,7 @@
       <c r="H572" t="s">
         <v>10</v>
       </c>
-      <c r="I572">
+      <c r="I572" s="15">
         <v>6.6179697604181371E+18</v>
       </c>
       <c r="J572" t="s">
@@ -21980,7 +22121,7 @@
       <c r="H573" t="s">
         <v>10</v>
       </c>
-      <c r="I573">
+      <c r="I573" s="15">
         <v>6.6179697604181371E+18</v>
       </c>
       <c r="J573" t="s">
@@ -22013,7 +22154,7 @@
       <c r="H574" t="s">
         <v>12</v>
       </c>
-      <c r="I574">
+      <c r="I574" s="15">
         <v>6.6179698162527119E+18</v>
       </c>
       <c r="J574" t="s">
@@ -22046,7 +22187,7 @@
       <c r="H575" t="s">
         <v>12</v>
       </c>
-      <c r="I575">
+      <c r="I575" s="15">
         <v>6.6179698420225157E+18</v>
       </c>
       <c r="J575" t="s">
@@ -22079,7 +22220,7 @@
       <c r="H576" t="s">
         <v>12</v>
       </c>
-      <c r="I576">
+      <c r="I576" s="15">
         <v>6.6179699107419924E+18</v>
       </c>
       <c r="J576" t="s">
@@ -22112,7 +22253,7 @@
       <c r="H577" t="s">
         <v>12</v>
       </c>
-      <c r="I577">
+      <c r="I577" s="15">
         <v>6.617969919331927E+18</v>
       </c>
       <c r="J577" t="s">
@@ -22145,7 +22286,7 @@
       <c r="H578" t="s">
         <v>12</v>
       </c>
-      <c r="I578">
+      <c r="I578" s="15">
         <v>6.6179699236268943E+18</v>
       </c>
       <c r="J578" t="s">
@@ -22178,7 +22319,7 @@
       <c r="H579" t="s">
         <v>12</v>
       </c>
-      <c r="I579">
+      <c r="I579" s="15">
         <v>6.6179699279218616E+18</v>
       </c>
       <c r="J579" t="s">
@@ -22211,7 +22352,7 @@
       <c r="H580" t="s">
         <v>12</v>
       </c>
-      <c r="I580">
+      <c r="I580" s="15">
         <v>6.6179699322168289E+18</v>
       </c>
       <c r="J580" t="s">
@@ -22244,7 +22385,7 @@
       <c r="H581" t="s">
         <v>12</v>
       </c>
-      <c r="I581">
+      <c r="I581" s="15">
         <v>6.6179699322168289E+18</v>
       </c>
       <c r="J581" t="s">
@@ -22277,7 +22418,7 @@
       <c r="H582" t="s">
         <v>12</v>
       </c>
-      <c r="I582">
+      <c r="I582" s="15">
         <v>6.6179699365117962E+18</v>
       </c>
       <c r="J582" t="s">
@@ -22310,7 +22451,7 @@
       <c r="H583" t="s">
         <v>10</v>
       </c>
-      <c r="I583">
+      <c r="I583" s="15">
         <v>6.6179699408067635E+18</v>
       </c>
       <c r="J583" t="s">
@@ -22343,7 +22484,7 @@
       <c r="H584" t="s">
         <v>10</v>
       </c>
-      <c r="I584">
+      <c r="I584" s="15">
         <v>6.6179699493966981E+18</v>
       </c>
       <c r="J584" t="s">
@@ -22376,7 +22517,7 @@
       <c r="H585" t="s">
         <v>10</v>
       </c>
-      <c r="I585">
+      <c r="I585" s="15">
         <v>6.6179699579866327E+18</v>
       </c>
       <c r="J585" t="s">
@@ -22409,7 +22550,7 @@
       <c r="H586" t="s">
         <v>12</v>
       </c>
-      <c r="I586">
+      <c r="I586" s="15">
         <v>6.6179699665765673E+18</v>
       </c>
       <c r="J586" t="s">
@@ -22442,7 +22583,7 @@
       <c r="H587" t="s">
         <v>12</v>
       </c>
-      <c r="I587">
+      <c r="I587" s="15">
         <v>6.6179699708715346E+18</v>
       </c>
       <c r="J587" t="s">
@@ -22475,7 +22616,7 @@
       <c r="H588" t="s">
         <v>10</v>
       </c>
-      <c r="I588">
+      <c r="I588" s="15">
         <v>6.6179699837564365E+18</v>
       </c>
       <c r="J588" t="s">
@@ -22508,7 +22649,7 @@
       <c r="H589" t="s">
         <v>10</v>
       </c>
-      <c r="I589">
+      <c r="I589" s="15">
         <v>6.6179699966413384E+18</v>
       </c>
       <c r="J589" t="s">
@@ -22541,7 +22682,7 @@
       <c r="H590" t="s">
         <v>10</v>
       </c>
-      <c r="I590">
+      <c r="I590" s="15">
         <v>6.6179700009363057E+18</v>
       </c>
       <c r="J590" t="s">
@@ -22574,7 +22715,7 @@
       <c r="H591" t="s">
         <v>10</v>
       </c>
-      <c r="I591">
+      <c r="I591" s="15">
         <v>6.6179700095262403E+18</v>
       </c>
       <c r="J591" t="s">
@@ -22607,7 +22748,7 @@
       <c r="H592" t="s">
         <v>10</v>
       </c>
-      <c r="I592">
+      <c r="I592" s="15">
         <v>6.6179700095262403E+18</v>
       </c>
       <c r="J592" t="s">
@@ -22640,7 +22781,7 @@
       <c r="H593" t="s">
         <v>10</v>
       </c>
-      <c r="I593">
+      <c r="I593" s="15">
         <v>6.6179700224111421E+18</v>
       </c>
       <c r="J593" t="s">
@@ -22673,7 +22814,7 @@
       <c r="H594" t="s">
         <v>12</v>
       </c>
-      <c r="I594">
+      <c r="I594" s="15">
         <v>6.6179700610658478E+18</v>
       </c>
       <c r="J594" t="s">
@@ -22706,7 +22847,7 @@
       <c r="H595" t="s">
         <v>10</v>
       </c>
-      <c r="I595">
+      <c r="I595" s="15">
         <v>6.6179700825406843E+18</v>
       </c>
       <c r="J595" t="s">
@@ -22739,7 +22880,7 @@
       <c r="H596" t="s">
         <v>10</v>
       </c>
-      <c r="I596">
+      <c r="I596" s="15">
         <v>6.6179701340802918E+18</v>
       </c>
       <c r="J596" t="s">
@@ -22772,7 +22913,7 @@
       <c r="H597" t="s">
         <v>12</v>
       </c>
-      <c r="I597">
+      <c r="I597" s="15">
         <v>6.617970151260161E+18</v>
       </c>
       <c r="J597" t="s">
@@ -22805,7 +22946,7 @@
       <c r="H598" t="s">
         <v>12</v>
       </c>
-      <c r="I598">
+      <c r="I598" s="15">
         <v>6.6179701555551283E+18</v>
       </c>
       <c r="J598" t="s">
@@ -22838,7 +22979,7 @@
       <c r="H599" t="s">
         <v>12</v>
       </c>
-      <c r="I599">
+      <c r="I599" s="15">
         <v>6.6179702027997686E+18</v>
       </c>
       <c r="J599" t="s">
@@ -22871,7 +23012,7 @@
       <c r="H600" t="s">
         <v>10</v>
       </c>
-      <c r="I600">
+      <c r="I600" s="15">
         <v>6.617970340238722E+18</v>
       </c>
       <c r="J600" t="s">
@@ -22904,7 +23045,7 @@
       <c r="H601" t="s">
         <v>10</v>
       </c>
-      <c r="I601">
+      <c r="I601" s="15">
         <v>6.617970340238722E+18</v>
       </c>
       <c r="J601" t="s">
@@ -22937,7 +23078,7 @@
       <c r="H602" t="s">
         <v>10</v>
       </c>
-      <c r="I602">
+      <c r="I602" s="15">
         <v>6.6179703445336893E+18</v>
       </c>
       <c r="J602" t="s">
@@ -22970,7 +23111,7 @@
       <c r="H603" t="s">
         <v>10</v>
       </c>
-      <c r="I603">
+      <c r="I603" s="15">
         <v>6.6179703445336893E+18</v>
       </c>
       <c r="J603" t="s">
@@ -23003,7 +23144,7 @@
       <c r="H604" t="s">
         <v>12</v>
       </c>
-      <c r="I604">
+      <c r="I604" s="15">
         <v>6.6179704175481334E+18</v>
       </c>
       <c r="J604" t="s">
@@ -23036,7 +23177,7 @@
       <c r="H605" t="s">
         <v>12</v>
       </c>
-      <c r="I605">
+      <c r="I605" s="15">
         <v>6.6179704304330353E+18</v>
       </c>
       <c r="J605" t="s">
@@ -23069,7 +23210,7 @@
       <c r="H606" t="s">
         <v>12</v>
       </c>
-      <c r="I606">
+      <c r="I606" s="15">
         <v>6.6179704476129044E+18</v>
       </c>
       <c r="J606" t="s">
@@ -23102,7 +23243,7 @@
       <c r="H607" t="s">
         <v>12</v>
       </c>
-      <c r="I607">
+      <c r="I607" s="15">
         <v>6.6179705335122504E+18</v>
       </c>
       <c r="J607" t="s">
@@ -23135,7 +23276,7 @@
       <c r="H608" t="s">
         <v>12</v>
       </c>
-      <c r="I608">
+      <c r="I608" s="15">
         <v>6.617970542102185E+18</v>
       </c>
       <c r="J608" t="s">
@@ -23168,7 +23309,7 @@
       <c r="H609" t="s">
         <v>12</v>
       </c>
-      <c r="I609">
+      <c r="I609" s="15">
         <v>6.6179705463971523E+18</v>
       </c>
       <c r="J609" t="s">
@@ -23201,7 +23342,7 @@
       <c r="H610" t="s">
         <v>12</v>
       </c>
-      <c r="I610">
+      <c r="I610" s="15">
         <v>6.6179705592820541E+18</v>
       </c>
       <c r="J610" t="s">
@@ -23234,7 +23375,7 @@
       <c r="H611" t="s">
         <v>12</v>
       </c>
-      <c r="I611">
+      <c r="I611" s="15">
         <v>6.6179705678719887E+18</v>
       </c>
       <c r="J611" t="s">
@@ -23267,7 +23408,7 @@
       <c r="H612" t="s">
         <v>12</v>
       </c>
-      <c r="I612">
+      <c r="I612" s="15">
         <v>6.617970615116629E+18</v>
       </c>
       <c r="J612" t="s">
@@ -23300,7 +23441,7 @@
       <c r="H613" t="s">
         <v>12</v>
       </c>
-      <c r="I613">
+      <c r="I613" s="15">
         <v>6.6179706623612692E+18</v>
       </c>
       <c r="J613" t="s">
@@ -23333,7 +23474,7 @@
       <c r="H614" t="s">
         <v>12</v>
       </c>
-      <c r="I614">
+      <c r="I614" s="15">
         <v>6.6179706967210076E+18</v>
       </c>
       <c r="J614" t="s">
@@ -23366,7 +23507,7 @@
       <c r="H615" t="s">
         <v>12</v>
       </c>
-      <c r="I615">
+      <c r="I615" s="15">
         <v>6.6179707096059095E+18</v>
       </c>
       <c r="J615" t="s">
@@ -23399,7 +23540,7 @@
       <c r="H616" t="s">
         <v>18</v>
       </c>
-      <c r="I616">
+      <c r="I616" s="15">
         <v>6.6179707267857787E+18</v>
       </c>
       <c r="J616" t="s">
@@ -23432,7 +23573,7 @@
       <c r="H617" t="s">
         <v>12</v>
       </c>
-      <c r="I617">
+      <c r="I617" s="15">
         <v>6.617970731080746E+18</v>
       </c>
       <c r="J617" t="s">
@@ -23465,7 +23606,7 @@
       <c r="H618" t="s">
         <v>12</v>
       </c>
-      <c r="I618">
+      <c r="I618" s="15">
         <v>6.6179707482606152E+18</v>
       </c>
       <c r="J618" t="s">
@@ -23498,7 +23639,7 @@
       <c r="H619" t="s">
         <v>12</v>
       </c>
-      <c r="I619">
+      <c r="I619" s="15">
         <v>6.6179707697354516E+18</v>
       </c>
       <c r="J619" t="s">
@@ -23531,7 +23672,7 @@
       <c r="H620" t="s">
         <v>10</v>
       </c>
-      <c r="I620">
+      <c r="I620" s="15">
         <v>6.617970847044863E+18</v>
       </c>
       <c r="J620" t="s">
@@ -23564,7 +23705,7 @@
       <c r="H621" t="s">
         <v>12</v>
       </c>
-      <c r="I621">
+      <c r="I621" s="15">
         <v>6.6179708685196995E+18</v>
       </c>
       <c r="J621" t="s">
@@ -23597,7 +23738,7 @@
       <c r="H622" t="s">
         <v>12</v>
       </c>
-      <c r="I622">
+      <c r="I622" s="15">
         <v>6.6179709028794378E+18</v>
       </c>
       <c r="J622" t="s">
@@ -23630,7 +23771,7 @@
       <c r="H623" t="s">
         <v>12</v>
       </c>
-      <c r="I623">
+      <c r="I623" s="15">
         <v>6.6179709028794378E+18</v>
       </c>
       <c r="J623" t="s">
@@ -23663,7 +23804,7 @@
       <c r="H624" t="s">
         <v>10</v>
       </c>
-      <c r="I624">
+      <c r="I624" s="15">
         <v>6.6179709243542743E+18</v>
       </c>
       <c r="J624" t="s">
@@ -23696,7 +23837,7 @@
       <c r="H625" t="s">
         <v>12</v>
       </c>
-      <c r="I625">
+      <c r="I625" s="15">
         <v>6.61797096300898E+18</v>
       </c>
       <c r="J625" t="s">
@@ -23729,7 +23870,7 @@
       <c r="H626" t="s">
         <v>12</v>
       </c>
-      <c r="I626">
+      <c r="I626" s="15">
         <v>6.617970993073751E+18</v>
       </c>
       <c r="J626" t="s">
@@ -23762,7 +23903,7 @@
       <c r="H627" t="s">
         <v>10</v>
       </c>
-      <c r="I627">
+      <c r="I627" s="15">
         <v>6.6179710274334894E+18</v>
       </c>
       <c r="J627" t="s">
@@ -23795,7 +23936,7 @@
       <c r="H628" t="s">
         <v>10</v>
       </c>
-      <c r="I628">
+      <c r="I628" s="15">
         <v>6.6179710489083259E+18</v>
       </c>
       <c r="J628" t="s">
@@ -23828,7 +23969,7 @@
       <c r="H629" t="s">
         <v>10</v>
       </c>
-      <c r="I629">
+      <c r="I629" s="15">
         <v>6.6179710660881951E+18</v>
       </c>
       <c r="J629" t="s">
@@ -23861,7 +24002,7 @@
       <c r="H630" t="s">
         <v>18</v>
       </c>
-      <c r="I630">
+      <c r="I630" s="15">
         <v>6.6179710703831624E+18</v>
       </c>
       <c r="J630" t="s">
@@ -23894,7 +24035,7 @@
       <c r="H631" t="s">
         <v>10</v>
       </c>
-      <c r="I631">
+      <c r="I631" s="15">
         <v>6.6179710918579988E+18</v>
       </c>
       <c r="J631" t="s">
@@ -23927,7 +24068,7 @@
       <c r="H632" t="s">
         <v>18</v>
       </c>
-      <c r="I632">
+      <c r="I632" s="15">
         <v>6.6179711047429007E+18</v>
       </c>
       <c r="J632" t="s">
@@ -23960,7 +24101,7 @@
       <c r="H633" t="s">
         <v>12</v>
       </c>
-      <c r="I633">
+      <c r="I633" s="15">
         <v>6.617971109037868E+18</v>
       </c>
       <c r="J633" t="s">
@@ -23993,7 +24134,7 @@
       <c r="H634" t="s">
         <v>12</v>
       </c>
-      <c r="I634">
+      <c r="I634" s="15">
         <v>6.6179711691674102E+18</v>
       </c>
       <c r="J634" t="s">
@@ -24026,7 +24167,7 @@
       <c r="H635" t="s">
         <v>12</v>
       </c>
-      <c r="I635">
+      <c r="I635" s="15">
         <v>6.6179712164120504E+18</v>
       </c>
       <c r="J635" t="s">
@@ -24059,7 +24200,7 @@
       <c r="H636" t="s">
         <v>12</v>
       </c>
-      <c r="I636">
+      <c r="I636" s="15">
         <v>6.6179712894264945E+18</v>
       </c>
       <c r="J636" t="s">
@@ -24092,7 +24233,7 @@
       <c r="H637" t="s">
         <v>12</v>
       </c>
-      <c r="I637">
+      <c r="I637" s="15">
         <v>6.6179714096855788E+18</v>
       </c>
       <c r="J637" t="s">
@@ -24125,7 +24266,7 @@
       <c r="H638" t="s">
         <v>12</v>
       </c>
-      <c r="I638">
+      <c r="I638" s="15">
         <v>6.6179714827000228E+18</v>
       </c>
       <c r="J638" t="s">
@@ -24158,7 +24299,7 @@
       <c r="H639" t="s">
         <v>12</v>
       </c>
-      <c r="I639">
+      <c r="I639" s="15">
         <v>6.6179716244339436E+18</v>
       </c>
       <c r="J639" t="s">
@@ -24191,7 +24332,7 @@
       <c r="H640" t="s">
         <v>12</v>
       </c>
-      <c r="I640">
+      <c r="I640" s="15">
         <v>6.6179716330238781E+18</v>
       </c>
       <c r="J640" t="s">
@@ -24224,7 +24365,7 @@
       <c r="H641" t="s">
         <v>12</v>
       </c>
-      <c r="I641">
+      <c r="I641" s="15">
         <v>6.6179716373188454E+18</v>
       </c>
       <c r="J641" t="s">
@@ -24257,7 +24398,7 @@
       <c r="H642" t="s">
         <v>12</v>
       </c>
-      <c r="I642">
+      <c r="I642" s="15">
         <v>6.6179716373188454E+18</v>
       </c>
       <c r="J642" t="s">
@@ -24290,7 +24431,7 @@
       <c r="H643" t="s">
         <v>10</v>
       </c>
-      <c r="I643">
+      <c r="I643" s="15">
         <v>6.6179716759735511E+18</v>
       </c>
       <c r="J643" t="s">
@@ -24323,7 +24464,7 @@
       <c r="H644" t="s">
         <v>10</v>
       </c>
-      <c r="I644">
+      <c r="I644" s="15">
         <v>6.6179716759735511E+18</v>
       </c>
       <c r="J644" t="s">
@@ -24356,7 +24497,7 @@
       <c r="H645" t="s">
         <v>10</v>
       </c>
-      <c r="I645">
+      <c r="I645" s="15">
         <v>6.6179717275131587E+18</v>
       </c>
       <c r="J645" t="s">
@@ -24389,7 +24530,7 @@
       <c r="H646" t="s">
         <v>10</v>
       </c>
-      <c r="I646">
+      <c r="I646" s="15">
         <v>6.6179717833477335E+18</v>
       </c>
       <c r="J646" t="s">
@@ -24422,7 +24563,7 @@
       <c r="H647" t="s">
         <v>12</v>
       </c>
-      <c r="I647">
+      <c r="I647" s="15">
         <v>6.6179718477722429E+18</v>
       </c>
       <c r="J647" t="s">
@@ -24455,7 +24596,7 @@
       <c r="H648" t="s">
         <v>12</v>
       </c>
-      <c r="I648">
+      <c r="I648" s="15">
         <v>6.6179718864269486E+18</v>
       </c>
       <c r="J648" t="s">
@@ -24488,7 +24629,7 @@
       <c r="H649" t="s">
         <v>12</v>
       </c>
-      <c r="I649">
+      <c r="I649" s="15">
         <v>6.6179718864269486E+18</v>
       </c>
       <c r="J649" t="s">
@@ -24521,7 +24662,7 @@
       <c r="H650" t="s">
         <v>10</v>
       </c>
-      <c r="I650">
+      <c r="I650" s="15">
         <v>6.6179719036068178E+18</v>
       </c>
       <c r="J650" t="s">
@@ -24554,7 +24695,7 @@
       <c r="H651" t="s">
         <v>10</v>
       </c>
-      <c r="I651">
+      <c r="I651" s="15">
         <v>6.6179719079017851E+18</v>
       </c>
       <c r="J651" t="s">
@@ -24587,7 +24728,7 @@
       <c r="H652" t="s">
         <v>12</v>
       </c>
-      <c r="I652">
+      <c r="I652" s="15">
         <v>6.617971920786687E+18</v>
       </c>
       <c r="J652" t="s">
@@ -24620,7 +24761,7 @@
       <c r="H653" t="s">
         <v>12</v>
       </c>
-      <c r="I653">
+      <c r="I653" s="15">
         <v>6.6179719594413926E+18</v>
       </c>
       <c r="J653" t="s">
@@ -24653,7 +24794,7 @@
       <c r="H654" t="s">
         <v>12</v>
       </c>
-      <c r="I654">
+      <c r="I654" s="15">
         <v>6.6179720023910656E+18</v>
       </c>
       <c r="J654" t="s">
@@ -24686,7 +24827,7 @@
       <c r="H655" t="s">
         <v>12</v>
       </c>
-      <c r="I655">
+      <c r="I655" s="15">
         <v>6.6179720066860329E+18</v>
       </c>
       <c r="J655" t="s">
@@ -24719,7 +24860,7 @@
       <c r="H656" t="s">
         <v>10</v>
       </c>
-      <c r="I656">
+      <c r="I656" s="15">
         <v>6.6179720625206077E+18</v>
       </c>
       <c r="J656" t="s">
@@ -24752,7 +24893,7 @@
       <c r="H657" t="s">
         <v>10</v>
       </c>
-      <c r="I657">
+      <c r="I657" s="15">
         <v>6.6179721355350518E+18</v>
       </c>
       <c r="J657" t="s">
@@ -24785,7 +24926,7 @@
       <c r="H658" t="s">
         <v>18</v>
       </c>
-      <c r="I658">
+      <c r="I658" s="15">
         <v>6.6179721613048556E+18</v>
       </c>
       <c r="J658" t="s">
@@ -24818,7 +24959,7 @@
       <c r="H659" t="s">
         <v>10</v>
       </c>
-      <c r="I659">
+      <c r="I659" s="15">
         <v>6.6179721655998228E+18</v>
       </c>
       <c r="J659" t="s">
@@ -24851,7 +24992,7 @@
       <c r="H660" t="s">
         <v>10</v>
       </c>
-      <c r="I660">
+      <c r="I660" s="15">
         <v>6.6179721655998228E+18</v>
       </c>
       <c r="J660" t="s">
@@ -24884,7 +25025,7 @@
       <c r="H661" t="s">
         <v>10</v>
       </c>
-      <c r="I661">
+      <c r="I661" s="15">
         <v>6.6179721655998228E+18</v>
       </c>
       <c r="J661" t="s">
@@ -24917,7 +25058,7 @@
       <c r="H662" t="s">
         <v>10</v>
       </c>
-      <c r="I662">
+      <c r="I662" s="15">
         <v>6.6179721698947901E+18</v>
       </c>
       <c r="J662" t="s">
@@ -24950,7 +25091,7 @@
       <c r="H663" t="s">
         <v>10</v>
       </c>
-      <c r="I663">
+      <c r="I663" s="15">
         <v>6.6179721698947901E+18</v>
       </c>
       <c r="J663" t="s">
@@ -24983,7 +25124,7 @@
       <c r="H664" t="s">
         <v>18</v>
       </c>
-      <c r="I664">
+      <c r="I664" s="15">
         <v>6.6179721698947901E+18</v>
       </c>
       <c r="J664" t="s">
@@ -25016,7 +25157,7 @@
       <c r="H665" t="s">
         <v>10</v>
       </c>
-      <c r="I665">
+      <c r="I665" s="15">
         <v>6.6179721698947901E+18</v>
       </c>
       <c r="J665" t="s">
@@ -25049,7 +25190,7 @@
       <c r="H666" t="s">
         <v>10</v>
       </c>
-      <c r="I666">
+      <c r="I666" s="15">
         <v>6.6179721698947901E+18</v>
       </c>
       <c r="J666" t="s">
@@ -25082,7 +25223,7 @@
       <c r="H667" t="s">
         <v>10</v>
       </c>
-      <c r="I667">
+      <c r="I667" s="15">
         <v>6.6179721698947901E+18</v>
       </c>
       <c r="J667" t="s">
@@ -25115,7 +25256,7 @@
       <c r="H668" t="s">
         <v>12</v>
       </c>
-      <c r="I668">
+      <c r="I668" s="15">
         <v>6.6179721784847247E+18</v>
       </c>
       <c r="J668" t="s">
@@ -25148,7 +25289,7 @@
       <c r="H669" t="s">
         <v>10</v>
       </c>
-      <c r="I669">
+      <c r="I669" s="15">
         <v>6.6179721784847247E+18</v>
       </c>
       <c r="J669" t="s">
@@ -25181,7 +25322,7 @@
       <c r="H670" t="s">
         <v>10</v>
       </c>
-      <c r="I670">
+      <c r="I670" s="15">
         <v>6.617972182779692E+18</v>
       </c>
       <c r="J670" t="s">
@@ -25214,7 +25355,7 @@
       <c r="H671" t="s">
         <v>10</v>
       </c>
-      <c r="I671">
+      <c r="I671" s="15">
         <v>6.6179721870746593E+18</v>
       </c>
       <c r="J671" t="s">
@@ -25247,7 +25388,7 @@
       <c r="H672" t="s">
         <v>10</v>
       </c>
-      <c r="I672">
+      <c r="I672" s="15">
         <v>6.6179721913696266E+18</v>
       </c>
       <c r="J672" t="s">
@@ -25280,7 +25421,7 @@
       <c r="H673" t="s">
         <v>12</v>
       </c>
-      <c r="I673">
+      <c r="I673" s="15">
         <v>6.6179722386142669E+18</v>
       </c>
       <c r="J673" t="s">
@@ -25313,7 +25454,7 @@
       <c r="H674" t="s">
         <v>12</v>
       </c>
-      <c r="I674">
+      <c r="I674" s="15">
         <v>6.6179722429092342E+18</v>
       </c>
       <c r="J674" t="s">
@@ -25346,7 +25487,7 @@
       <c r="H675" t="s">
         <v>10</v>
       </c>
-      <c r="I675">
+      <c r="I675" s="15">
         <v>6.617972341693482E+18</v>
       </c>
       <c r="J675" t="s">
@@ -25379,7 +25520,7 @@
       <c r="H676" t="s">
         <v>12</v>
       </c>
-      <c r="I676">
+      <c r="I676" s="15">
         <v>6.6179723459884493E+18</v>
       </c>
       <c r="J676" t="s">
@@ -25412,7 +25553,7 @@
       <c r="H677" t="s">
         <v>12</v>
       </c>
-      <c r="I677">
+      <c r="I677" s="15">
         <v>6.6179723760532204E+18</v>
       </c>
       <c r="J677" t="s">
@@ -25445,7 +25586,7 @@
       <c r="H678" t="s">
         <v>12</v>
       </c>
-      <c r="I678">
+      <c r="I678" s="15">
         <v>6.6179724061179914E+18</v>
       </c>
       <c r="J678" t="s">
@@ -25478,7 +25619,7 @@
       <c r="H679" t="s">
         <v>10</v>
       </c>
-      <c r="I679">
+      <c r="I679" s="15">
         <v>6.6179724275928279E+18</v>
       </c>
       <c r="J679" t="s">
@@ -25511,7 +25652,7 @@
       <c r="H680" t="s">
         <v>12</v>
       </c>
-      <c r="I680">
+      <c r="I680" s="15">
         <v>6.6179724447726971E+18</v>
       </c>
       <c r="J680" t="s">
@@ -25544,7 +25685,7 @@
       <c r="H681" t="s">
         <v>12</v>
       </c>
-      <c r="I681">
+      <c r="I681" s="15">
         <v>6.6179724662475336E+18</v>
       </c>
       <c r="J681" t="s">
@@ -25577,7 +25718,7 @@
       <c r="H682" t="s">
         <v>12</v>
       </c>
-      <c r="I682">
+      <c r="I682" s="15">
         <v>6.6179724705425009E+18</v>
       </c>
       <c r="J682" t="s">
@@ -25610,7 +25751,7 @@
       <c r="H683" t="s">
         <v>12</v>
       </c>
-      <c r="I683">
+      <c r="I683" s="15">
         <v>6.6179724705425009E+18</v>
       </c>
       <c r="J683" t="s">
@@ -25643,7 +25784,7 @@
       <c r="H684" t="s">
         <v>12</v>
       </c>
-      <c r="I684">
+      <c r="I684" s="15">
         <v>6.6179724748374682E+18</v>
       </c>
       <c r="J684" t="s">
@@ -25676,7 +25817,7 @@
       <c r="H685" t="s">
         <v>12</v>
       </c>
-      <c r="I685">
+      <c r="I685" s="15">
         <v>6.6179724748374682E+18</v>
       </c>
       <c r="J685" t="s">
@@ -25709,7 +25850,7 @@
       <c r="H686" t="s">
         <v>12</v>
       </c>
-      <c r="I686">
+      <c r="I686" s="15">
         <v>6.6179724791324355E+18</v>
       </c>
       <c r="J686" t="s">
@@ -25742,7 +25883,7 @@
       <c r="H687" t="s">
         <v>12</v>
       </c>
-      <c r="I687">
+      <c r="I687" s="15">
         <v>6.6179724834274028E+18</v>
       </c>
       <c r="J687" t="s">
@@ -25775,7 +25916,7 @@
       <c r="H688" t="s">
         <v>12</v>
       </c>
-      <c r="I688">
+      <c r="I688" s="15">
         <v>6.61797248772237E+18</v>
       </c>
       <c r="J688" t="s">
@@ -25808,7 +25949,7 @@
       <c r="H689" t="s">
         <v>10</v>
       </c>
-      <c r="I689">
+      <c r="I689" s="15">
         <v>6.6179724920173373E+18</v>
       </c>
       <c r="J689" t="s">
@@ -25841,7 +25982,7 @@
       <c r="H690" t="s">
         <v>10</v>
       </c>
-      <c r="I690">
+      <c r="I690" s="15">
         <v>6.6179725049022392E+18</v>
       </c>
       <c r="J690" t="s">
@@ -25874,7 +26015,7 @@
       <c r="H691" t="s">
         <v>10</v>
       </c>
-      <c r="I691">
+      <c r="I691" s="15">
         <v>6.6179725134921738E+18</v>
       </c>
       <c r="J691" t="s">
@@ -25907,7 +26048,7 @@
       <c r="H692" t="s">
         <v>12</v>
       </c>
-      <c r="I692">
+      <c r="I692" s="15">
         <v>6.6179725822116506E+18</v>
       </c>
       <c r="J692" t="s">
@@ -25940,7 +26081,7 @@
       <c r="H693" t="s">
         <v>10</v>
       </c>
-      <c r="I693">
+      <c r="I693" s="15">
         <v>6.6179726552260946E+18</v>
       </c>
       <c r="J693" t="s">
@@ -25973,7 +26114,7 @@
       <c r="H694" t="s">
         <v>10</v>
       </c>
-      <c r="I694">
+      <c r="I694" s="15">
         <v>6.6179727153556367E+18</v>
       </c>
       <c r="J694" t="s">
@@ -26006,7 +26147,7 @@
       <c r="H695" t="s">
         <v>10</v>
       </c>
-      <c r="I695">
+      <c r="I695" s="15">
         <v>6.6179727454204078E+18</v>
       </c>
       <c r="J695" t="s">
@@ -26039,7 +26180,7 @@
       <c r="H696" t="s">
         <v>10</v>
       </c>
-      <c r="I696">
+      <c r="I696" s="15">
         <v>6.617972762600277E+18</v>
       </c>
       <c r="J696" t="s">
@@ -26072,7 +26213,7 @@
       <c r="H697" t="s">
         <v>10</v>
       </c>
-      <c r="I697">
+      <c r="I697" s="15">
         <v>6.6179727926650491E+18</v>
       </c>
       <c r="J697" t="s">
@@ -26105,7 +26246,7 @@
       <c r="H698" t="s">
         <v>10</v>
       </c>
-      <c r="I698">
+      <c r="I698" s="15">
         <v>6.6179728313197548E+18</v>
       </c>
       <c r="J698" t="s">
@@ -26138,7 +26279,7 @@
       <c r="H699" t="s">
         <v>10</v>
       </c>
-      <c r="I699">
+      <c r="I699" s="15">
         <v>6.6179728570895585E+18</v>
       </c>
       <c r="J699" t="s">
@@ -26171,7 +26312,7 @@
       <c r="H700" t="s">
         <v>12</v>
       </c>
-      <c r="I700">
+      <c r="I700" s="15">
         <v>6.6179729301040026E+18</v>
       </c>
       <c r="J700" t="s">
@@ -26204,7 +26345,7 @@
       <c r="H701" t="s">
         <v>12</v>
       </c>
-      <c r="I701">
+      <c r="I701" s="15">
         <v>6.6179730288882504E+18</v>
       </c>
       <c r="J701" t="s">
@@ -26237,7 +26378,7 @@
       <c r="H702" t="s">
         <v>12</v>
       </c>
-      <c r="I702">
+      <c r="I702" s="15">
         <v>6.6179731061976617E+18</v>
       </c>
       <c r="J702" t="s">
@@ -26270,7 +26411,7 @@
       <c r="H703" t="s">
         <v>12</v>
       </c>
-      <c r="I703">
+      <c r="I703" s="15">
         <v>6.6179731233775309E+18</v>
       </c>
       <c r="J703" t="s">
@@ -26303,7 +26444,7 @@
       <c r="H704" t="s">
         <v>10</v>
       </c>
-      <c r="I704">
+      <c r="I704" s="15">
         <v>6.6179731233775309E+18</v>
       </c>
       <c r="J704" t="s">
@@ -26336,7 +26477,7 @@
       <c r="H705" t="s">
         <v>12</v>
       </c>
-      <c r="I705">
+      <c r="I705" s="15">
         <v>6.6179731276724982E+18</v>
       </c>
       <c r="J705" t="s">
@@ -26369,7 +26510,7 @@
       <c r="H706" t="s">
         <v>12</v>
       </c>
-      <c r="I706">
+      <c r="I706" s="15">
         <v>6.6179731577372692E+18</v>
       </c>
       <c r="J706" t="s">
@@ -26402,7 +26543,7 @@
       <c r="H707" t="s">
         <v>12</v>
       </c>
-      <c r="I707">
+      <c r="I707" s="15">
         <v>6.6179731920970076E+18</v>
       </c>
       <c r="J707" t="s">
@@ -26435,7 +26576,7 @@
       <c r="H708" t="s">
         <v>12</v>
       </c>
-      <c r="I708">
+      <c r="I708" s="15">
         <v>6.6179732522265498E+18</v>
       </c>
       <c r="J708" t="s">
@@ -26468,7 +26609,7 @@
       <c r="H709" t="s">
         <v>12</v>
       </c>
-      <c r="I709">
+      <c r="I709" s="15">
         <v>6.6179732565215171E+18</v>
       </c>
       <c r="J709" t="s">
@@ -26501,7 +26642,7 @@
       <c r="H710" t="s">
         <v>10</v>
       </c>
-      <c r="I710">
+      <c r="I710" s="15">
         <v>6.6179732779963535E+18</v>
       </c>
       <c r="J710" t="s">
@@ -26534,7 +26675,7 @@
       <c r="H711" t="s">
         <v>12</v>
       </c>
-      <c r="I711">
+      <c r="I711" s="15">
         <v>6.6179732951762227E+18</v>
       </c>
       <c r="J711" t="s">
@@ -26567,7 +26708,7 @@
       <c r="H712" t="s">
         <v>12</v>
       </c>
-      <c r="I712">
+      <c r="I712" s="15">
         <v>6.6179733295359611E+18</v>
       </c>
       <c r="J712" t="s">
@@ -26600,7 +26741,7 @@
       <c r="H713" t="s">
         <v>12</v>
       </c>
-      <c r="I713">
+      <c r="I713" s="15">
         <v>6.6179734240252416E+18</v>
       </c>
       <c r="J713" t="s">
@@ -26633,7 +26774,7 @@
       <c r="H714" t="s">
         <v>12</v>
       </c>
-      <c r="I714">
+      <c r="I714" s="15">
         <v>6.6179734412051108E+18</v>
       </c>
       <c r="J714" t="s">
@@ -26666,7 +26807,7 @@
       <c r="H715" t="s">
         <v>12</v>
       </c>
-      <c r="I715">
+      <c r="I715" s="15">
         <v>6.6179734626799473E+18</v>
       </c>
       <c r="J715" t="s">
@@ -26699,7 +26840,7 @@
       <c r="H716" t="s">
         <v>12</v>
       </c>
-      <c r="I716">
+      <c r="I716" s="15">
         <v>6.6179734712698819E+18</v>
       </c>
       <c r="J716" t="s">
@@ -26732,7 +26873,7 @@
       <c r="H717" t="s">
         <v>10</v>
       </c>
-      <c r="I717">
+      <c r="I717" s="15">
         <v>6.6179734841547837E+18</v>
       </c>
       <c r="J717" t="s">
@@ -26765,7 +26906,7 @@
       <c r="H718" t="s">
         <v>10</v>
       </c>
-      <c r="I718">
+      <c r="I718" s="15">
         <v>6.6179735228094894E+18</v>
       </c>
       <c r="J718" t="s">
@@ -26798,7 +26939,7 @@
       <c r="H719" t="s">
         <v>18</v>
       </c>
-      <c r="I719">
+      <c r="I719" s="15">
         <v>6.6179735657591624E+18</v>
       </c>
       <c r="J719" t="s">
@@ -26831,7 +26972,7 @@
       <c r="H720" t="s">
         <v>10</v>
       </c>
-      <c r="I720">
+      <c r="I720" s="15">
         <v>6.6179735657591624E+18</v>
       </c>
       <c r="J720" t="s">
@@ -26864,7 +27005,7 @@
       <c r="H721" t="s">
         <v>10</v>
       </c>
-      <c r="I721">
+      <c r="I721" s="15">
         <v>6.6179735872339988E+18</v>
       </c>
       <c r="J721" t="s">
@@ -26897,7 +27038,7 @@
       <c r="H722" t="s">
         <v>10</v>
       </c>
-      <c r="I722">
+      <c r="I722" s="15">
         <v>6.6179736130038026E+18</v>
       </c>
       <c r="J722" t="s">
@@ -26930,7 +27071,7 @@
       <c r="H723" t="s">
         <v>10</v>
       </c>
-      <c r="I723">
+      <c r="I723" s="15">
         <v>6.6179736130038026E+18</v>
       </c>
       <c r="J723" t="s">
@@ -26963,7 +27104,7 @@
       <c r="H724" t="s">
         <v>12</v>
       </c>
-      <c r="I724">
+      <c r="I724" s="15">
         <v>6.6179736258887045E+18</v>
       </c>
       <c r="J724" t="s">
@@ -26996,7 +27137,7 @@
       <c r="H725" t="s">
         <v>10</v>
       </c>
-      <c r="I725">
+      <c r="I725" s="15">
         <v>6.6179736774283121E+18</v>
       </c>
       <c r="J725" t="s">
@@ -27029,7 +27170,7 @@
       <c r="H726" t="s">
         <v>10</v>
       </c>
-      <c r="I726">
+      <c r="I726" s="15">
         <v>6.6179737289679196E+18</v>
       </c>
       <c r="J726" t="s">
@@ -27062,7 +27203,7 @@
       <c r="H727" t="s">
         <v>12</v>
       </c>
-      <c r="I727">
+      <c r="I727" s="15">
         <v>6.6179738621119058E+18</v>
       </c>
       <c r="J727" t="s">
@@ -27095,7 +27236,7 @@
       <c r="H728" t="s">
         <v>12</v>
       </c>
-      <c r="I728">
+      <c r="I728" s="15">
         <v>6.617973995255892E+18</v>
       </c>
       <c r="J728" t="s">
@@ -27128,7 +27269,7 @@
       <c r="H729" t="s">
         <v>10</v>
       </c>
-      <c r="I729">
+      <c r="I729" s="15">
         <v>6.6179740124357612E+18</v>
       </c>
       <c r="J729" t="s">
@@ -27161,7 +27302,7 @@
       <c r="H730" t="s">
         <v>12</v>
       </c>
-      <c r="I730">
+      <c r="I730" s="15">
         <v>6.617974068270336E+18</v>
       </c>
       <c r="J730" t="s">
@@ -27194,7 +27335,7 @@
       <c r="H731" t="s">
         <v>12</v>
       </c>
-      <c r="I731">
+      <c r="I731" s="15">
         <v>6.6179740768602706E+18</v>
       </c>
       <c r="J731" t="s">
@@ -27227,7 +27368,7 @@
       <c r="H732" t="s">
         <v>10</v>
       </c>
-      <c r="I732">
+      <c r="I732" s="15">
         <v>6.6179740854502052E+18</v>
       </c>
       <c r="J732" t="s">
@@ -27260,7 +27401,7 @@
       <c r="H733" t="s">
         <v>12</v>
       </c>
-      <c r="I733">
+      <c r="I733" s="15">
         <v>6.6179740854502052E+18</v>
       </c>
       <c r="J733" t="s">
@@ -27293,7 +27434,7 @@
       <c r="H734" t="s">
         <v>12</v>
       </c>
-      <c r="I734">
+      <c r="I734" s="15">
         <v>6.6179741026300744E+18</v>
       </c>
       <c r="J734" t="s">
@@ -27326,7 +27467,7 @@
       <c r="H735" t="s">
         <v>10</v>
       </c>
-      <c r="I735">
+      <c r="I735" s="15">
         <v>6.6179741928243876E+18</v>
       </c>
       <c r="J735" t="s">
@@ -27359,7 +27500,7 @@
       <c r="H736" t="s">
         <v>10</v>
       </c>
-      <c r="I736">
+      <c r="I736" s="15">
         <v>6.6179742185941914E+18</v>
       </c>
       <c r="J736" t="s">
@@ -27392,7 +27533,7 @@
       <c r="H737" t="s">
         <v>12</v>
       </c>
-      <c r="I737">
+      <c r="I737" s="15">
         <v>6.6179744204576543E+18</v>
       </c>
       <c r="J737" t="s">
@@ -27425,7 +27566,7 @@
       <c r="H738" t="s">
         <v>10</v>
       </c>
-      <c r="I738">
+      <c r="I738" s="15">
         <v>6.6179744505224253E+18</v>
       </c>
       <c r="J738" t="s">
@@ -27458,7 +27599,7 @@
       <c r="H739" t="s">
         <v>12</v>
       </c>
-      <c r="I739">
+      <c r="I739" s="15">
         <v>6.6179745578966077E+18</v>
       </c>
       <c r="J739" t="s">
@@ -27491,7 +27632,7 @@
       <c r="H740" t="s">
         <v>12</v>
       </c>
-      <c r="I740">
+      <c r="I740" s="15">
         <v>6.6179746652707901E+18</v>
       </c>
       <c r="J740" t="s">
@@ -27524,7 +27665,7 @@
       <c r="H741" t="s">
         <v>12</v>
       </c>
-      <c r="I741">
+      <c r="I741" s="15">
         <v>6.6179746867456266E+18</v>
       </c>
       <c r="J741" t="s">
@@ -27557,7 +27698,7 @@
       <c r="H742" t="s">
         <v>10</v>
       </c>
-      <c r="I742">
+      <c r="I742" s="15">
         <v>6.6179747254003323E+18</v>
       </c>
       <c r="J742" t="s">
@@ -27590,7 +27731,7 @@
       <c r="H743" t="s">
         <v>10</v>
       </c>
-      <c r="I743">
+      <c r="I743" s="15">
         <v>6.6179748198896128E+18</v>
       </c>
       <c r="J743" t="s">
@@ -27623,7 +27764,7 @@
       <c r="H744" t="s">
         <v>10</v>
       </c>
-      <c r="I744">
+      <c r="I744" s="15">
         <v>6.6179748327745147E+18</v>
       </c>
       <c r="J744" t="s">
@@ -27656,7 +27797,7 @@
       <c r="H745" t="s">
         <v>12</v>
       </c>
-      <c r="I745">
+      <c r="I745" s="15">
         <v>6.6179749143788933E+18</v>
       </c>
       <c r="J745" t="s">
@@ -27689,7 +27830,7 @@
       <c r="H746" t="s">
         <v>10</v>
       </c>
-      <c r="I746">
+      <c r="I746" s="15">
         <v>6.61797498309837E+18</v>
       </c>
       <c r="J746" t="s">
@@ -27722,7 +27863,7 @@
       <c r="H747" t="s">
         <v>10</v>
       </c>
-      <c r="I747">
+      <c r="I747" s="15">
         <v>6.6179750432279122E+18</v>
       </c>
       <c r="J747" t="s">
@@ -27755,7 +27896,7 @@
       <c r="H748" t="s">
         <v>10</v>
       </c>
-      <c r="I748">
+      <c r="I748" s="15">
         <v>6.6179750775876506E+18</v>
       </c>
       <c r="J748" t="s">
@@ -27788,7 +27929,7 @@
       <c r="H749" t="s">
         <v>12</v>
       </c>
-      <c r="I749">
+      <c r="I749" s="15">
         <v>6.6179751248322908E+18</v>
       </c>
       <c r="J749" t="s">
@@ -27821,7 +27962,7 @@
       <c r="H750" t="s">
         <v>10</v>
       </c>
-      <c r="I750">
+      <c r="I750" s="15">
         <v>6.6179751978467348E+18</v>
       </c>
       <c r="J750" t="s">
@@ -27854,7 +27995,7 @@
       <c r="H751" t="s">
         <v>12</v>
       </c>
-      <c r="I751">
+      <c r="I751" s="15">
         <v>6.617975215026604E+18</v>
       </c>
       <c r="J751" t="s">
@@ -27887,7 +28028,7 @@
       <c r="H752" t="s">
         <v>12</v>
       </c>
-      <c r="I752">
+      <c r="I752" s="15">
         <v>6.6179752236165386E+18</v>
       </c>
       <c r="J752" t="s">
@@ -27920,7 +28061,7 @@
       <c r="H753" t="s">
         <v>12</v>
       </c>
-      <c r="I753">
+      <c r="I753" s="15">
         <v>6.6179752450913751E+18</v>
       </c>
       <c r="J753" t="s">
@@ -27953,7 +28094,7 @@
       <c r="H754" t="s">
         <v>10</v>
       </c>
-      <c r="I754">
+      <c r="I754" s="15">
         <v>6.6179752708611789E+18</v>
       </c>
       <c r="J754" t="s">
@@ -27986,7 +28127,7 @@
       <c r="H755" t="s">
         <v>10</v>
       </c>
-      <c r="I755">
+      <c r="I755" s="15">
         <v>6.6179753954152305E+18</v>
       </c>
       <c r="J755" t="s">
@@ -28019,7 +28160,7 @@
       <c r="H756" t="s">
         <v>10</v>
       </c>
-      <c r="I756">
+      <c r="I756" s="15">
         <v>6.6179754040051651E+18</v>
       </c>
       <c r="J756" t="s">
@@ -28052,7 +28193,7 @@
       <c r="H757" t="s">
         <v>10</v>
       </c>
-      <c r="I757">
+      <c r="I757" s="15">
         <v>6.6179754083001324E+18</v>
       </c>
       <c r="J757" t="s">
@@ -28085,7 +28226,7 @@
       <c r="H758" t="s">
         <v>10</v>
       </c>
-      <c r="I758">
+      <c r="I758" s="15">
         <v>6.6179754125950996E+18</v>
       </c>
       <c r="J758" t="s">
@@ -28118,7 +28259,7 @@
       <c r="H759" t="s">
         <v>18</v>
       </c>
-      <c r="I759">
+      <c r="I759" s="15">
         <v>6.6179754125950996E+18</v>
       </c>
       <c r="J759" t="s">
@@ -28151,7 +28292,7 @@
       <c r="H760" t="s">
         <v>10</v>
       </c>
-      <c r="I760">
+      <c r="I760" s="15">
         <v>6.6179754125950996E+18</v>
       </c>
       <c r="J760" t="s">
@@ -28184,7 +28325,7 @@
       <c r="H761" t="s">
         <v>10</v>
       </c>
-      <c r="I761">
+      <c r="I761" s="15">
         <v>6.6179754125950996E+18</v>
       </c>
       <c r="J761" t="s">
@@ -28217,7 +28358,7 @@
       <c r="H762" t="s">
         <v>10</v>
       </c>
-      <c r="I762">
+      <c r="I762" s="15">
         <v>6.6179754211850342E+18</v>
       </c>
       <c r="J762" t="s">
@@ -28250,7 +28391,7 @@
       <c r="H763" t="s">
         <v>10</v>
       </c>
-      <c r="I763">
+      <c r="I763" s="15">
         <v>6.6179754211850342E+18</v>
       </c>
       <c r="J763" t="s">
@@ -28283,7 +28424,7 @@
       <c r="H764" t="s">
         <v>12</v>
       </c>
-      <c r="I764">
+      <c r="I764" s="15">
         <v>6.6179755328541839E+18</v>
       </c>
       <c r="J764" t="s">
@@ -28316,7 +28457,7 @@
       <c r="H765" t="s">
         <v>10</v>
       </c>
-      <c r="I765">
+      <c r="I765" s="15">
         <v>6.6179756015736607E+18</v>
       </c>
       <c r="J765" t="s">
@@ -28349,7 +28490,7 @@
       <c r="H766" t="s">
         <v>12</v>
       </c>
-      <c r="I766">
+      <c r="I766" s="15">
         <v>6.6179758764515676E+18</v>
       </c>
       <c r="J766" t="s">
@@ -28382,7 +28523,7 @@
       <c r="H767" t="s">
         <v>12</v>
       </c>
-      <c r="I767">
+      <c r="I767" s="15">
         <v>6.6179760010056192E+18</v>
       </c>
       <c r="J767" t="s">
@@ -28415,7 +28556,7 @@
       <c r="H768" t="s">
         <v>10</v>
       </c>
-      <c r="I768">
+      <c r="I768" s="15">
         <v>6.6179761384445727E+18</v>
       </c>
       <c r="J768" t="s">
@@ -28448,7 +28589,7 @@
       <c r="H769" t="s">
         <v>12</v>
       </c>
-      <c r="I769">
+      <c r="I769" s="15">
         <v>6.6179761556244419E+18</v>
       </c>
       <c r="J769" t="s">
@@ -28481,7 +28622,7 @@
       <c r="H770" t="s">
         <v>12</v>
       </c>
-      <c r="I770">
+      <c r="I770" s="15">
         <v>6.6179761642143764E+18</v>
       </c>
       <c r="J770" t="s">
@@ -28514,7 +28655,7 @@
       <c r="H771" t="s">
         <v>12</v>
       </c>
-      <c r="I771">
+      <c r="I771" s="15">
         <v>6.6179761813942456E+18</v>
       </c>
       <c r="J771" t="s">
@@ -28547,7 +28688,7 @@
       <c r="H772" t="s">
         <v>10</v>
       </c>
-      <c r="I772">
+      <c r="I772" s="15">
         <v>6.6179761985741148E+18</v>
       </c>
       <c r="J772" t="s">
@@ -28580,7 +28721,7 @@
       <c r="H773" t="s">
         <v>10</v>
       </c>
-      <c r="I773">
+      <c r="I773" s="15">
         <v>6.6179762114590167E+18</v>
       </c>
       <c r="J773" t="s">
@@ -28613,7 +28754,7 @@
       <c r="H774" t="s">
         <v>12</v>
       </c>
-      <c r="I774">
+      <c r="I774" s="15">
         <v>6.6179763231281664E+18</v>
       </c>
       <c r="J774" t="s">
@@ -28646,7 +28787,7 @@
       <c r="H775" t="s">
         <v>10</v>
       </c>
-      <c r="I775">
+      <c r="I775" s="15">
         <v>6.617976331718101E+18</v>
       </c>
       <c r="J775" t="s">
@@ -28679,7 +28820,7 @@
       <c r="H776" t="s">
         <v>10</v>
       </c>
-      <c r="I776">
+      <c r="I776" s="15">
         <v>6.6179763360130683E+18</v>
       </c>
       <c r="J776" t="s">
@@ -28712,7 +28853,7 @@
       <c r="H777" t="s">
         <v>18</v>
       </c>
-      <c r="I777">
+      <c r="I777" s="15">
         <v>6.6179763531929375E+18</v>
       </c>
       <c r="J777" t="s">
@@ -28745,7 +28886,7 @@
       <c r="H778" t="s">
         <v>10</v>
       </c>
-      <c r="I778">
+      <c r="I778" s="15">
         <v>6.6179763531929375E+18</v>
       </c>
       <c r="J778" t="s">
@@ -28778,7 +28919,7 @@
       <c r="H779" t="s">
         <v>10</v>
       </c>
-      <c r="I779">
+      <c r="I779" s="15">
         <v>6.617976447682218E+18</v>
       </c>
       <c r="J779" t="s">
@@ -28811,7 +28952,7 @@
       <c r="H780" t="s">
         <v>10</v>
       </c>
-      <c r="I780">
+      <c r="I780" s="15">
         <v>6.6179764648620872E+18</v>
       </c>
       <c r="J780" t="s">
@@ -28844,7 +28985,7 @@
       <c r="H781" t="s">
         <v>10</v>
       </c>
-      <c r="I781">
+      <c r="I781" s="15">
         <v>6.6179764777469891E+18</v>
       </c>
       <c r="J781" t="s">
@@ -28877,7 +29018,7 @@
       <c r="H782" t="s">
         <v>10</v>
       </c>
-      <c r="I782">
+      <c r="I782" s="15">
         <v>6.6179764820419564E+18</v>
       </c>
       <c r="J782" t="s">
@@ -28910,7 +29051,7 @@
       <c r="H783" t="s">
         <v>10</v>
       </c>
-      <c r="I783">
+      <c r="I783" s="15">
         <v>6.6179764863369236E+18</v>
       </c>
       <c r="J783" t="s">
@@ -28943,7 +29084,7 @@
       <c r="H784" t="s">
         <v>10</v>
       </c>
-      <c r="I784">
+      <c r="I784" s="15">
         <v>6.6179764863369236E+18</v>
       </c>
       <c r="J784" t="s">
@@ -28976,7 +29117,7 @@
       <c r="H785" t="s">
         <v>10</v>
       </c>
-      <c r="I785">
+      <c r="I785" s="15">
         <v>6.6179766280708444E+18</v>
       </c>
       <c r="J785" t="s">
@@ -29009,7 +29150,7 @@
       <c r="H786" t="s">
         <v>10</v>
       </c>
-      <c r="I786">
+      <c r="I786" s="15">
         <v>6.6179767225601249E+18</v>
       </c>
       <c r="J786" t="s">
@@ -29042,7 +29183,7 @@
       <c r="H787" t="s">
         <v>10</v>
       </c>
-      <c r="I787">
+      <c r="I787" s="15">
         <v>6.6179767268550922E+18</v>
       </c>
       <c r="J787" t="s">
@@ -29075,7 +29216,7 @@
       <c r="H788" t="s">
         <v>10</v>
       </c>
-      <c r="I788">
+      <c r="I788" s="15">
         <v>6.6179767354450268E+18</v>
       </c>
       <c r="J788" t="s">
@@ -29108,7 +29249,7 @@
       <c r="H789" t="s">
         <v>10</v>
       </c>
-      <c r="I789">
+      <c r="I789" s="15">
         <v>6.6179767912796017E+18</v>
       </c>
       <c r="J789" t="s">
@@ -29141,7 +29282,7 @@
       <c r="H790" t="s">
         <v>10</v>
       </c>
-      <c r="I790">
+      <c r="I790" s="15">
         <v>6.617976795574569E+18</v>
       </c>
       <c r="J790" t="s">
@@ -29174,7 +29315,7 @@
       <c r="H791" t="s">
         <v>10</v>
       </c>
-      <c r="I791">
+      <c r="I791" s="15">
         <v>6.617976795574569E+18</v>
       </c>
       <c r="J791" t="s">
@@ -29207,7 +29348,7 @@
       <c r="H792" t="s">
         <v>10</v>
       </c>
-      <c r="I792">
+      <c r="I792" s="15">
         <v>6.617976868589013E+18</v>
       </c>
       <c r="J792" t="s">
@@ -29240,7 +29381,7 @@
       <c r="H793" t="s">
         <v>10</v>
       </c>
-      <c r="I793">
+      <c r="I793" s="15">
         <v>6.6179768728839803E+18</v>
       </c>
       <c r="J793" t="s">
@@ -29273,7 +29414,7 @@
       <c r="H794" t="s">
         <v>10</v>
       </c>
-      <c r="I794">
+      <c r="I794" s="15">
         <v>6.6179768728839803E+18</v>
       </c>
       <c r="J794" t="s">
@@ -29306,7 +29447,7 @@
       <c r="H795" t="s">
         <v>10</v>
       </c>
-      <c r="I795">
+      <c r="I795" s="15">
         <v>6.6179768771789476E+18</v>
       </c>
       <c r="J795" t="s">
@@ -29339,7 +29480,7 @@
       <c r="H796" t="s">
         <v>10</v>
       </c>
-      <c r="I796">
+      <c r="I796" s="15">
         <v>6.6179768771789476E+18</v>
       </c>
       <c r="J796" t="s">
@@ -29372,7 +29513,7 @@
       <c r="H797" t="s">
         <v>18</v>
       </c>
-      <c r="I797">
+      <c r="I797" s="15">
         <v>6.6179768814739149E+18</v>
       </c>
       <c r="J797" t="s">
@@ -29405,7 +29546,7 @@
       <c r="H798" t="s">
         <v>10</v>
       </c>
-      <c r="I798">
+      <c r="I798" s="15">
         <v>6.6179768814739149E+18</v>
       </c>
       <c r="J798" t="s">
@@ -29438,7 +29579,7 @@
       <c r="H799" t="s">
         <v>12</v>
       </c>
-      <c r="I799">
+      <c r="I799" s="15">
         <v>6.6179768814739149E+18</v>
       </c>
       <c r="J799" t="s">
@@ -29471,7 +29612,7 @@
       <c r="H800" t="s">
         <v>10</v>
       </c>
-      <c r="I800">
+      <c r="I800" s="15">
         <v>6.6179768900638495E+18</v>
       </c>
       <c r="J800" t="s">
@@ -29504,7 +29645,7 @@
       <c r="H801" t="s">
         <v>10</v>
       </c>
-      <c r="I801">
+      <c r="I801" s="15">
         <v>6.6179768900638495E+18</v>
       </c>
       <c r="J801" t="s">
@@ -29537,7 +29678,7 @@
       <c r="H802" t="s">
         <v>12</v>
       </c>
-      <c r="I802">
+      <c r="I802" s="15">
         <v>6.6179768900638495E+18</v>
       </c>
       <c r="J802" t="s">
@@ -29570,7 +29711,7 @@
       <c r="H803" t="s">
         <v>10</v>
       </c>
-      <c r="I803">
+      <c r="I803" s="15">
         <v>6.6179768943588168E+18</v>
       </c>
       <c r="J803" t="s">
@@ -29603,7 +29744,7 @@
       <c r="H804" t="s">
         <v>10</v>
       </c>
-      <c r="I804">
+      <c r="I804" s="15">
         <v>6.6179768943588168E+18</v>
       </c>
       <c r="J804" t="s">
@@ -29636,7 +29777,7 @@
       <c r="H805" t="s">
         <v>12</v>
       </c>
-      <c r="I805">
+      <c r="I805" s="15">
         <v>6.6179768943588168E+18</v>
       </c>
       <c r="J805" t="s">
@@ -29669,7 +29810,7 @@
       <c r="H806" t="s">
         <v>12</v>
       </c>
-      <c r="I806">
+      <c r="I806" s="15">
         <v>6.6179769072437187E+18</v>
       </c>
       <c r="J806" t="s">
@@ -29702,7 +29843,7 @@
       <c r="H807" t="s">
         <v>10</v>
       </c>
-      <c r="I807">
+      <c r="I807" s="15">
         <v>6.617976911538686E+18</v>
       </c>
       <c r="J807" t="s">
@@ -29735,7 +29876,7 @@
       <c r="H808" t="s">
         <v>12</v>
       </c>
-      <c r="I808">
+      <c r="I808" s="15">
         <v>6.617976911538686E+18</v>
       </c>
       <c r="J808" t="s">
@@ -29768,7 +29909,7 @@
       <c r="H809" t="s">
         <v>10</v>
       </c>
-      <c r="I809">
+      <c r="I809" s="15">
         <v>6.6179769201286205E+18</v>
       </c>
       <c r="J809" t="s">
@@ -29801,7 +29942,7 @@
       <c r="H810" t="s">
         <v>10</v>
       </c>
-      <c r="I810">
+      <c r="I810" s="15">
         <v>6.6179769201286205E+18</v>
       </c>
       <c r="J810" t="s">
@@ -29834,7 +29975,7 @@
       <c r="H811" t="s">
         <v>10</v>
       </c>
-      <c r="I811">
+      <c r="I811" s="15">
         <v>6.6179769330135224E+18</v>
       </c>
       <c r="J811" t="s">
@@ -29867,7 +30008,7 @@
       <c r="H812" t="s">
         <v>10</v>
       </c>
-      <c r="I812">
+      <c r="I812" s="15">
         <v>6.617976941603457E+18</v>
       </c>
       <c r="J812" t="s">
@@ -29900,7 +30041,7 @@
       <c r="H813" t="s">
         <v>10</v>
       </c>
-      <c r="I813">
+      <c r="I813" s="15">
         <v>6.6179769630782935E+18</v>
       </c>
       <c r="J813" t="s">
@@ -29933,7 +30074,7 @@
       <c r="H814" t="s">
         <v>10</v>
       </c>
-      <c r="I814">
+      <c r="I814" s="15">
         <v>6.6179769630782935E+18</v>
       </c>
       <c r="J814" t="s">
@@ -29966,7 +30107,7 @@
       <c r="H815" t="s">
         <v>10</v>
       </c>
-      <c r="I815">
+      <c r="I815" s="15">
         <v>6.6179769673732608E+18</v>
       </c>
       <c r="J815" t="s">
@@ -29999,7 +30140,7 @@
       <c r="H816" t="s">
         <v>10</v>
       </c>
-      <c r="I816">
+      <c r="I816" s="15">
         <v>6.6179770017329992E+18</v>
       </c>
       <c r="J816" t="s">
@@ -30032,7 +30173,7 @@
       <c r="H817" t="s">
         <v>12</v>
       </c>
-      <c r="I817">
+      <c r="I817" s="15">
         <v>6.6179770146179011E+18</v>
       </c>
       <c r="J817" t="s">
@@ -30065,7 +30206,7 @@
       <c r="H818" t="s">
         <v>18</v>
       </c>
-      <c r="I818">
+      <c r="I818" s="15">
         <v>6.6179770317977702E+18</v>
       </c>
       <c r="J818" t="s">
@@ -30098,7 +30239,7 @@
       <c r="H819" t="s">
         <v>12</v>
       </c>
-      <c r="I819">
+      <c r="I819" s="15">
         <v>6.6179770317977702E+18</v>
       </c>
       <c r="J819" t="s">
@@ -30131,7 +30272,7 @@
       <c r="H820" t="s">
         <v>10</v>
       </c>
-      <c r="I820">
+      <c r="I820" s="15">
         <v>6.6179770489776394E+18</v>
       </c>
       <c r="J820" t="s">
@@ -30164,7 +30305,7 @@
       <c r="H821" t="s">
         <v>10</v>
       </c>
-      <c r="I821">
+      <c r="I821" s="15">
         <v>6.6179770661575086E+18</v>
       </c>
       <c r="J821" t="s">
@@ -30197,7 +30338,7 @@
       <c r="H822" t="s">
         <v>10</v>
       </c>
-      <c r="I822">
+      <c r="I822" s="15">
         <v>6.6179771907115602E+18</v>
       </c>
       <c r="J822" t="s">
@@ -30230,7 +30371,7 @@
       <c r="H823" t="s">
         <v>12</v>
       </c>
-      <c r="I823">
+      <c r="I823" s="15">
         <v>6.6179773066756772E+18</v>
       </c>
       <c r="J823" t="s">
@@ -30263,7 +30404,7 @@
       <c r="H824" t="s">
         <v>10</v>
       </c>
-      <c r="I824">
+      <c r="I824" s="15">
         <v>6.6179773496253501E+18</v>
       </c>
       <c r="J824" t="s">
@@ -30296,7 +30437,7 @@
       <c r="H825" t="s">
         <v>12</v>
       </c>
-      <c r="I825">
+      <c r="I825" s="15">
         <v>6.6179773925750231E+18</v>
       </c>
       <c r="J825" t="s">
@@ -30329,7 +30470,7 @@
       <c r="H826" t="s">
         <v>10</v>
       </c>
-      <c r="I826">
+      <c r="I826" s="15">
         <v>6.6179774269347615E+18</v>
       </c>
       <c r="J826" t="s">
@@ -30362,7 +30503,7 @@
       <c r="H827" t="s">
         <v>10</v>
       </c>
-      <c r="I827">
+      <c r="I827" s="15">
         <v>6.6179774527045652E+18</v>
       </c>
       <c r="J827" t="s">
@@ -30395,7 +30536,7 @@
       <c r="H828" t="s">
         <v>10</v>
       </c>
-      <c r="I828">
+      <c r="I828" s="15">
         <v>6.6179774913592709E+18</v>
       </c>
       <c r="J828" t="s">
@@ -30428,7 +30569,7 @@
       <c r="H829" t="s">
         <v>10</v>
       </c>
-      <c r="I829">
+      <c r="I829" s="15">
         <v>6.6179777018126684E+18</v>
       </c>
       <c r="J829" t="s">
@@ -30461,7 +30602,7 @@
       <c r="H830" t="s">
         <v>10</v>
       </c>
-      <c r="I830">
+      <c r="I830" s="15">
         <v>6.6179777662371779E+18</v>
       </c>
       <c r="J830" t="s">
@@ -30494,7 +30635,7 @@
       <c r="H831" t="s">
         <v>12</v>
       </c>
-      <c r="I831">
+      <c r="I831" s="15">
         <v>6.6179777748271124E+18</v>
       </c>
       <c r="J831" t="s">
@@ -30527,7 +30668,7 @@
       <c r="H832" t="s">
         <v>10</v>
       </c>
-      <c r="I832">
+      <c r="I832" s="15">
         <v>6.6179778177767854E+18</v>
       </c>
       <c r="J832" t="s">
@@ -30560,7 +30701,7 @@
       <c r="H833" t="s">
         <v>10</v>
       </c>
-      <c r="I833">
+      <c r="I833" s="15">
         <v>6.6179778177767854E+18</v>
       </c>
       <c r="J833" t="s">
@@ -30593,7 +30734,7 @@
       <c r="H834" t="s">
         <v>10</v>
       </c>
-      <c r="I834">
+      <c r="I834" s="15">
         <v>6.6179778349566546E+18</v>
       </c>
       <c r="J834" t="s">
@@ -30626,7 +30767,7 @@
       <c r="H835" t="s">
         <v>12</v>
       </c>
-      <c r="I835">
+      <c r="I835" s="15">
         <v>6.6179778564314911E+18</v>
       </c>
       <c r="J835" t="s">
@@ -30659,7 +30800,7 @@
       <c r="H836" t="s">
         <v>10</v>
       </c>
-      <c r="I836">
+      <c r="I836" s="15">
         <v>6.617977869316393E+18</v>
       </c>
       <c r="J836" t="s">
@@ -30692,7 +30833,7 @@
       <c r="H837" t="s">
         <v>10</v>
       </c>
-      <c r="I837">
+      <c r="I837" s="15">
         <v>6.617977869316393E+18</v>
       </c>
       <c r="J837" t="s">
@@ -30725,7 +30866,7 @@
       <c r="H838" t="s">
         <v>10</v>
       </c>
-      <c r="I838">
+      <c r="I838" s="15">
         <v>6.6179778950861967E+18</v>
       </c>
       <c r="J838" t="s">
@@ -30758,7 +30899,7 @@
       <c r="H839" t="s">
         <v>12</v>
       </c>
-      <c r="I839">
+      <c r="I839" s="15">
         <v>6.6179779165610332E+18</v>
       </c>
       <c r="J839" t="s">
@@ -30791,7 +30932,7 @@
       <c r="H840" t="s">
         <v>12</v>
       </c>
-      <c r="I840">
+      <c r="I840" s="15">
         <v>6.6179779380358697E+18</v>
       </c>
       <c r="J840" t="s">
@@ -30824,7 +30965,7 @@
       <c r="H841" t="s">
         <v>10</v>
       </c>
-      <c r="I841">
+      <c r="I841" s="15">
         <v>6.6179780239352156E+18</v>
       </c>
       <c r="J841" t="s">
@@ -30857,7 +30998,7 @@
       <c r="H842" t="s">
         <v>10</v>
       </c>
-      <c r="I842">
+      <c r="I842" s="15">
         <v>6.6179780282301829E+18</v>
       </c>
       <c r="J842" t="s">
@@ -30890,7 +31031,7 @@
       <c r="H843" t="s">
         <v>10</v>
       </c>
-      <c r="I843">
+      <c r="I843" s="15">
         <v>6.6179780325251502E+18</v>
       </c>
       <c r="J843" t="s">
@@ -30923,7 +31064,7 @@
       <c r="H844" t="s">
         <v>12</v>
       </c>
-      <c r="I844">
+      <c r="I844" s="15">
         <v>6.6179780368201175E+18</v>
       </c>
       <c r="J844" t="s">
@@ -30956,7 +31097,7 @@
       <c r="H845" t="s">
         <v>12</v>
       </c>
-      <c r="I845">
+      <c r="I845" s="15">
         <v>6.6179782429785477E+18</v>
       </c>
       <c r="J845" t="s">
@@ -30989,7 +31130,7 @@
       <c r="H846" t="s">
         <v>12</v>
       </c>
-      <c r="I846">
+      <c r="I846" s="15">
         <v>6.6179782429785477E+18</v>
       </c>
       <c r="J846" t="s">
@@ -31022,7 +31163,7 @@
       <c r="H847" t="s">
         <v>12</v>
       </c>
-      <c r="I847">
+      <c r="I847" s="15">
         <v>6.6179783417627955E+18</v>
       </c>
       <c r="J847" t="s">
@@ -31055,7 +31196,7 @@
       <c r="H848" t="s">
         <v>18</v>
       </c>
-      <c r="I848">
+      <c r="I848" s="15">
         <v>6.6179783804175012E+18</v>
       </c>
       <c r="J848" t="s">
@@ -31088,7 +31229,7 @@
       <c r="H849" t="s">
         <v>12</v>
       </c>
-      <c r="I849">
+      <c r="I849" s="15">
         <v>6.6179784147772396E+18</v>
       </c>
       <c r="J849" t="s">
@@ -31121,7 +31262,7 @@
       <c r="H850" t="s">
         <v>12</v>
       </c>
-      <c r="I850">
+      <c r="I850" s="15">
         <v>6.6179784276621414E+18</v>
       </c>
       <c r="J850" t="s">
@@ -31154,7 +31295,7 @@
       <c r="H851" t="s">
         <v>12</v>
       </c>
-      <c r="I851">
+      <c r="I851" s="15">
         <v>6.6179784920866509E+18</v>
       </c>
       <c r="J851" t="s">
@@ -31187,7 +31328,7 @@
       <c r="H852" t="s">
         <v>10</v>
       </c>
-      <c r="I852">
+      <c r="I852" s="15">
         <v>6.6179785393312911E+18</v>
       </c>
       <c r="J852" t="s">
@@ -31220,7 +31361,7 @@
       <c r="H853" t="s">
         <v>10</v>
       </c>
-      <c r="I853">
+      <c r="I853" s="15">
         <v>6.6179785865759314E+18</v>
       </c>
       <c r="J853" t="s">
@@ -31253,7 +31394,7 @@
       <c r="H854" t="s">
         <v>12</v>
       </c>
-      <c r="I854">
+      <c r="I854" s="15">
         <v>6.617978595165866E+18</v>
       </c>
       <c r="J854" t="s">
@@ -31286,7 +31427,7 @@
       <c r="H855" t="s">
         <v>10</v>
       </c>
-      <c r="I855">
+      <c r="I855" s="15">
         <v>6.6179786810652119E+18</v>
       </c>
       <c r="J855" t="s">
@@ -31319,7 +31460,7 @@
       <c r="H856" t="s">
         <v>12</v>
       </c>
-      <c r="I856">
+      <c r="I856" s="15">
         <v>6.6179786853601792E+18</v>
       </c>
       <c r="J856" t="s">
@@ -31352,7 +31493,7 @@
       <c r="H857" t="s">
         <v>10</v>
       </c>
-      <c r="I857">
+      <c r="I857" s="15">
         <v>6.6179786896551465E+18</v>
       </c>
       <c r="J857" t="s">
@@ -31385,7 +31526,7 @@
       <c r="H858" t="s">
         <v>12</v>
       </c>
-      <c r="I858">
+      <c r="I858" s="15">
         <v>6.6179787497846886E+18</v>
       </c>
       <c r="J858" t="s">
@@ -31418,7 +31559,7 @@
       <c r="H859" t="s">
         <v>12</v>
       </c>
-      <c r="I859">
+      <c r="I859" s="15">
         <v>6.6179788142091981E+18</v>
       </c>
       <c r="J859" t="s">
@@ -31451,7 +31592,7 @@
       <c r="H860" t="s">
         <v>10</v>
       </c>
-      <c r="I860">
+      <c r="I860" s="15">
         <v>6.6179788227991327E+18</v>
       </c>
       <c r="J860" t="s">
@@ -31484,7 +31625,7 @@
       <c r="H861" t="s">
         <v>10</v>
       </c>
-      <c r="I861">
+      <c r="I861" s="15">
         <v>6.6179788485689364E+18</v>
       </c>
       <c r="J861" t="s">
@@ -31517,7 +31658,7 @@
       <c r="H862" t="s">
         <v>12</v>
       </c>
-      <c r="I862">
+      <c r="I862" s="15">
         <v>6.6179788872236421E+18</v>
       </c>
       <c r="J862" t="s">
@@ -31550,7 +31691,7 @@
       <c r="H863" t="s">
         <v>12</v>
       </c>
-      <c r="I863">
+      <c r="I863" s="15">
         <v>6.6179789602380861E+18</v>
       </c>
       <c r="J863" t="s">
@@ -31583,7 +31724,7 @@
       <c r="H864" t="s">
         <v>10</v>
       </c>
-      <c r="I864">
+      <c r="I864" s="15">
         <v>6.617978973122988E+18</v>
       </c>
       <c r="J864" t="s">
@@ -31616,7 +31757,7 @@
       <c r="H865" t="s">
         <v>12</v>
       </c>
-      <c r="I865">
+      <c r="I865" s="15">
         <v>6.6179790289575629E+18</v>
       </c>
       <c r="J865" t="s">
@@ -31649,7 +31790,7 @@
       <c r="H866" t="s">
         <v>10</v>
       </c>
-      <c r="I866">
+      <c r="I866" s="15">
         <v>6.617979059022334E+18</v>
       </c>
       <c r="J866" t="s">
@@ -31682,7 +31823,7 @@
       <c r="H867" t="s">
         <v>10</v>
       </c>
-      <c r="I867">
+      <c r="I867" s="15">
         <v>6.6179790719072358E+18</v>
       </c>
       <c r="J867" t="s">
@@ -31715,7 +31856,7 @@
       <c r="H868" t="s">
         <v>12</v>
       </c>
-      <c r="I868">
+      <c r="I868" s="15">
         <v>6.6179790804971704E+18</v>
       </c>
       <c r="J868" t="s">
@@ -31748,7 +31889,7 @@
       <c r="H869" t="s">
         <v>12</v>
       </c>
-      <c r="I869">
+      <c r="I869" s="15">
         <v>6.6179791019720069E+18</v>
       </c>
       <c r="J869" t="s">
@@ -31781,7 +31922,7 @@
       <c r="H870" t="s">
         <v>18</v>
       </c>
-      <c r="I870">
+      <c r="I870" s="15">
         <v>6.6179791277418107E+18</v>
       </c>
       <c r="J870" t="s">
@@ -31814,7 +31955,7 @@
       <c r="H871" t="s">
         <v>10</v>
       </c>
-      <c r="I871">
+      <c r="I871" s="15">
         <v>6.6179791277418107E+18</v>
       </c>
       <c r="J871" t="s">
@@ -31847,7 +31988,7 @@
       <c r="H872" t="s">
         <v>12</v>
       </c>
-      <c r="I872">
+      <c r="I872" s="15">
         <v>6.617979132036778E+18</v>
       </c>
       <c r="J872" t="s">
@@ -31880,7 +32021,7 @@
       <c r="H873" t="s">
         <v>12</v>
       </c>
-      <c r="I873">
+      <c r="I873" s="15">
         <v>6.6179791363317453E+18</v>
       </c>
       <c r="J873" t="s">
@@ -31913,7 +32054,7 @@
       <c r="H874" t="s">
         <v>12</v>
       </c>
-      <c r="I874">
+      <c r="I874" s="15">
         <v>6.6179791363317453E+18</v>
       </c>
       <c r="J874" t="s">
@@ -31946,7 +32087,7 @@
       <c r="H875" t="s">
         <v>12</v>
       </c>
-      <c r="I875">
+      <c r="I875" s="15">
         <v>6.6179791363317453E+18</v>
       </c>
       <c r="J875" t="s">
@@ -31979,7 +32120,7 @@
       <c r="H876" t="s">
         <v>12</v>
       </c>
-      <c r="I876">
+      <c r="I876" s="15">
         <v>6.6179791406267126E+18</v>
       </c>
       <c r="J876" t="s">
@@ -32012,7 +32153,7 @@
       <c r="H877" t="s">
         <v>12</v>
       </c>
-      <c r="I877">
+      <c r="I877" s="15">
         <v>6.6179791406267126E+18</v>
       </c>
       <c r="J877" t="s">
@@ -32045,7 +32186,7 @@
       <c r="H878" t="s">
         <v>12</v>
       </c>
-      <c r="I878">
+      <c r="I878" s="15">
         <v>6.6179791792814182E+18</v>
       </c>
       <c r="J878" t="s">
@@ -32078,7 +32219,7 @@
       <c r="H879" t="s">
         <v>12</v>
       </c>
-      <c r="I879">
+      <c r="I879" s="15">
         <v>6.6179792093461893E+18</v>
       </c>
       <c r="J879" t="s">
@@ -32111,7 +32252,7 @@
       <c r="H880" t="s">
         <v>12</v>
       </c>
-      <c r="I880">
+      <c r="I880" s="15">
         <v>6.6179792308210258E+18</v>
       </c>
       <c r="J880" t="s">
@@ -32144,7 +32285,7 @@
       <c r="H881" t="s">
         <v>12</v>
       </c>
-      <c r="I881">
+      <c r="I881" s="15">
         <v>6.6179792823606333E+18</v>
       </c>
       <c r="J881" t="s">
@@ -32177,7 +32318,7 @@
       <c r="H882" t="s">
         <v>12</v>
       </c>
-      <c r="I882">
+      <c r="I882" s="15">
         <v>6.6179792823606333E+18</v>
       </c>
       <c r="J882" t="s">
@@ -32210,7 +32351,7 @@
       <c r="H883" t="s">
         <v>12</v>
       </c>
-      <c r="I883">
+      <c r="I883" s="15">
         <v>6.6179792866556006E+18</v>
       </c>
       <c r="J883" t="s">
@@ -32243,7 +32384,7 @@
       <c r="H884" t="s">
         <v>12</v>
       </c>
-      <c r="I884">
+      <c r="I884" s="15">
         <v>6.6179792866556006E+18</v>
       </c>
       <c r="J884" t="s">
@@ -32276,7 +32417,7 @@
       <c r="H885" t="s">
         <v>12</v>
       </c>
-      <c r="I885">
+      <c r="I885" s="15">
         <v>6.6179792866556006E+18</v>
       </c>
       <c r="J885" t="s">
@@ -32309,7 +32450,7 @@
       <c r="H886" t="s">
         <v>12</v>
       </c>
-      <c r="I886">
+      <c r="I886" s="15">
         <v>6.6179793167203717E+18</v>
       </c>
       <c r="J886" t="s">
@@ -32342,7 +32483,7 @@
       <c r="H887" t="s">
         <v>12</v>
       </c>
-      <c r="I887">
+      <c r="I887" s="15">
         <v>6.617979321015339E+18</v>
       </c>
       <c r="J887" t="s">
@@ -32375,7 +32516,7 @@
       <c r="H888" t="s">
         <v>12</v>
       </c>
-      <c r="I888">
+      <c r="I888" s="15">
         <v>6.617979321015339E+18</v>
       </c>
       <c r="J888" t="s">
@@ -32408,7 +32549,7 @@
       <c r="H889" t="s">
         <v>12</v>
       </c>
-      <c r="I889">
+      <c r="I889" s="15">
         <v>6.6179793296052736E+18</v>
       </c>
       <c r="J889" t="s">
@@ -32441,7 +32582,7 @@
       <c r="H890" t="s">
         <v>12</v>
       </c>
-      <c r="I890">
+      <c r="I890" s="15">
         <v>6.6179793339002409E+18</v>
       </c>
       <c r="J890" t="s">
@@ -32474,7 +32615,7 @@
       <c r="H891" t="s">
         <v>10</v>
       </c>
-      <c r="I891">
+      <c r="I891" s="15">
         <v>6.6179793983247503E+18</v>
       </c>
       <c r="J891" t="s">
@@ -32507,7 +32648,7 @@
       <c r="H892" t="s">
         <v>10</v>
       </c>
-      <c r="I892">
+      <c r="I892" s="15">
         <v>6.6179795056989327E+18</v>
       </c>
       <c r="J892" t="s">
@@ -32540,7 +32681,7 @@
       <c r="H893" t="s">
         <v>10</v>
       </c>
-      <c r="I893">
+      <c r="I893" s="15">
         <v>6.6179795142888673E+18</v>
       </c>
       <c r="J893" t="s">
@@ -32573,7 +32714,7 @@
       <c r="H894" t="s">
         <v>10</v>
       </c>
-      <c r="I894">
+      <c r="I894" s="15">
         <v>6.6179795142888673E+18</v>
       </c>
       <c r="J894" t="s">
@@ -32606,7 +32747,7 @@
       <c r="H895" t="s">
         <v>12</v>
       </c>
-      <c r="I895">
+      <c r="I895" s="15">
         <v>6.6179795314687365E+18</v>
       </c>
       <c r="J895" t="s">
@@ -32639,7 +32780,7 @@
       <c r="H896" t="s">
         <v>12</v>
       </c>
-      <c r="I896">
+      <c r="I896" s="15">
         <v>6.6179795314687365E+18</v>
       </c>
       <c r="J896" t="s">
@@ -32672,7 +32813,7 @@
       <c r="H897" t="s">
         <v>12</v>
       </c>
-      <c r="I897">
+      <c r="I897" s="15">
         <v>6.6179795744184095E+18</v>
       </c>
       <c r="J897" t="s">
@@ -32705,7 +32846,7 @@
       <c r="H898" t="s">
         <v>12</v>
       </c>
-      <c r="I898">
+      <c r="I898" s="15">
         <v>6.6179796130731151E+18</v>
       </c>
       <c r="J898" t="s">
@@ -32738,7 +32879,7 @@
       <c r="H899" t="s">
         <v>12</v>
       </c>
-      <c r="I899">
+      <c r="I899" s="15">
         <v>6.6179796345479516E+18</v>
       </c>
       <c r="J899" t="s">
@@ -32771,7 +32912,7 @@
       <c r="H900" t="s">
         <v>12</v>
       </c>
-      <c r="I900">
+      <c r="I900" s="15">
         <v>6.6179796388429189E+18</v>
       </c>
       <c r="J900" t="s">
@@ -32804,7 +32945,7 @@
       <c r="H901" t="s">
         <v>12</v>
       </c>
-      <c r="I901">
+      <c r="I901" s="15">
         <v>6.6179796431378862E+18</v>
       </c>
       <c r="J901" t="s">
@@ -32837,7 +32978,7 @@
       <c r="H902" t="s">
         <v>12</v>
       </c>
-      <c r="I902">
+      <c r="I902" s="15">
         <v>6.6179796474328535E+18</v>
       </c>
       <c r="J902" t="s">
@@ -32870,7 +33011,7 @@
       <c r="H903" t="s">
         <v>10</v>
       </c>
-      <c r="I903">
+      <c r="I903" s="15">
         <v>6.6179796560227881E+18</v>
       </c>
       <c r="J903" t="s">
@@ -32903,7 +33044,7 @@
       <c r="H904" t="s">
         <v>12</v>
       </c>
-      <c r="I904">
+      <c r="I904" s="15">
         <v>6.6179796603177554E+18</v>
       </c>
       <c r="J904" t="s">
@@ -32936,7 +33077,7 @@
       <c r="H905" t="s">
         <v>12</v>
       </c>
-      <c r="I905">
+      <c r="I905" s="15">
         <v>6.6179796603177554E+18</v>
       </c>
       <c r="J905" t="s">
@@ -32969,7 +33110,7 @@
       <c r="H906" t="s">
         <v>10</v>
       </c>
-      <c r="I906">
+      <c r="I906" s="15">
         <v>6.6179796646127227E+18</v>
       </c>
       <c r="J906" t="s">
@@ -33002,7 +33143,7 @@
       <c r="H907" t="s">
         <v>12</v>
       </c>
-      <c r="I907">
+      <c r="I907" s="15">
         <v>6.6179796989724611E+18</v>
       </c>
       <c r="J907" t="s">
@@ -33035,7 +33176,7 @@
       <c r="H908" t="s">
         <v>12</v>
       </c>
-      <c r="I908">
+      <c r="I908" s="15">
         <v>6.6179797290372321E+18</v>
       </c>
       <c r="J908" t="s">
@@ -33068,7 +33209,7 @@
       <c r="H909" t="s">
         <v>12</v>
       </c>
-      <c r="I909">
+      <c r="I909" s="15">
         <v>6.6179797333321994E+18</v>
       </c>
       <c r="J909" t="s">
@@ -33101,7 +33242,7 @@
       <c r="H910" t="s">
         <v>12</v>
       </c>
-      <c r="I910">
+      <c r="I910" s="15">
         <v>6.6179797591020032E+18</v>
       </c>
       <c r="J910" t="s">
@@ -33134,7 +33275,7 @@
       <c r="H911" t="s">
         <v>12</v>
       </c>
-      <c r="I911">
+      <c r="I911" s="15">
         <v>6.6179797805768397E+18</v>
       </c>
       <c r="J911" t="s">
@@ -33167,7 +33308,7 @@
       <c r="H912" t="s">
         <v>12</v>
       </c>
-      <c r="I912">
+      <c r="I912" s="15">
         <v>6.6179797934617416E+18</v>
       </c>
       <c r="J912" t="s">
@@ -33200,7 +33341,7 @@
       <c r="H913" t="s">
         <v>12</v>
       </c>
-      <c r="I913">
+      <c r="I913" s="15">
         <v>6.617979814936578E+18</v>
       </c>
       <c r="J913" t="s">
@@ -33233,7 +33374,7 @@
       <c r="H914" t="s">
         <v>12</v>
       </c>
-      <c r="I914">
+      <c r="I914" s="15">
         <v>6.617979814936578E+18</v>
       </c>
       <c r="J914" t="s">
@@ -33266,7 +33407,7 @@
       <c r="H915" t="s">
         <v>10</v>
       </c>
-      <c r="I915">
+      <c r="I915" s="15">
         <v>6.6179798192315453E+18</v>
       </c>
       <c r="J915" t="s">
@@ -33299,7 +33440,7 @@
       <c r="H916" t="s">
         <v>12</v>
       </c>
-      <c r="I916">
+      <c r="I916" s="15">
         <v>6.6179798450013491E+18</v>
       </c>
       <c r="J916" t="s">
@@ -33332,7 +33473,7 @@
       <c r="H917" t="s">
         <v>12</v>
       </c>
-      <c r="I917">
+      <c r="I917" s="15">
         <v>6.6179798450013491E+18</v>
       </c>
       <c r="J917" t="s">
@@ -33365,7 +33506,7 @@
       <c r="H918" t="s">
         <v>10</v>
       </c>
-      <c r="I918">
+      <c r="I918" s="15">
         <v>6.6179798492963164E+18</v>
       </c>
       <c r="J918" t="s">
@@ -33398,7 +33539,7 @@
       <c r="H919" t="s">
         <v>12</v>
       </c>
-      <c r="I919">
+      <c r="I919" s="15">
         <v>6.6179798664761856E+18</v>
       </c>
       <c r="J919" t="s">
@@ -33431,7 +33572,7 @@
       <c r="H920" t="s">
         <v>12</v>
       </c>
-      <c r="I920">
+      <c r="I920" s="15">
         <v>6.6179798664761856E+18</v>
       </c>
       <c r="J920" t="s">
@@ -33464,7 +33605,7 @@
       <c r="H921" t="s">
         <v>12</v>
       </c>
-      <c r="I921">
+      <c r="I921" s="15">
         <v>6.617979973850368E+18</v>
       </c>
       <c r="J921" t="s">
@@ -33497,7 +33638,7 @@
       <c r="H922" t="s">
         <v>18</v>
       </c>
-      <c r="I922">
+      <c r="I922" s="15">
         <v>6.6179799781453353E+18</v>
       </c>
       <c r="J922" t="s">
@@ -33530,7 +33671,7 @@
       <c r="H923" t="s">
         <v>12</v>
       </c>
-      <c r="I923">
+      <c r="I923" s="15">
         <v>6.6179799867352699E+18</v>
       </c>
       <c r="J923" t="s">
@@ -33563,7 +33704,7 @@
       <c r="H924" t="s">
         <v>12</v>
       </c>
-      <c r="I924">
+      <c r="I924" s="15">
         <v>6.6179799996201718E+18</v>
       </c>
       <c r="J924" t="s">
@@ -33596,7 +33737,7 @@
       <c r="H925" t="s">
         <v>12</v>
       </c>
-      <c r="I925">
+      <c r="I925" s="15">
         <v>6.6179802014836347E+18</v>
       </c>
       <c r="J925" t="s">
@@ -33629,7 +33770,7 @@
       <c r="H926" t="s">
         <v>12</v>
       </c>
-      <c r="I926">
+      <c r="I926" s="15">
         <v>6.617980205778602E+18</v>
       </c>
       <c r="J926" t="s">
@@ -33662,7 +33803,7 @@
       <c r="H927" t="s">
         <v>12</v>
       </c>
-      <c r="I927">
+      <c r="I927" s="15">
         <v>6.6179802143685366E+18</v>
       </c>
       <c r="J927" t="s">
@@ -33695,7 +33836,7 @@
       <c r="H928" t="s">
         <v>12</v>
       </c>
-      <c r="I928">
+      <c r="I928" s="15">
         <v>6.6179802186635039E+18</v>
       </c>
       <c r="J928" t="s">
@@ -33728,7 +33869,7 @@
       <c r="H929" t="s">
         <v>12</v>
       </c>
-      <c r="I929">
+      <c r="I929" s="15">
         <v>6.6179802573182095E+18</v>
       </c>
       <c r="J929" t="s">
@@ -33761,7 +33902,7 @@
       <c r="H930" t="s">
         <v>12</v>
       </c>
-      <c r="I930">
+      <c r="I930" s="15">
         <v>6.6179803002678825E+18</v>
       </c>
       <c r="J930" t="s">
@@ -33794,7 +33935,7 @@
       <c r="H931" t="s">
         <v>12</v>
       </c>
-      <c r="I931">
+      <c r="I931" s="15">
         <v>6.617980321742719E+18</v>
       </c>
       <c r="J931" t="s">
@@ -33827,7 +33968,7 @@
       <c r="H932" t="s">
         <v>12</v>
       </c>
-      <c r="I932">
+      <c r="I932" s="15">
         <v>6.6179803475125228E+18</v>
       </c>
       <c r="J932" t="s">
@@ -33860,7 +34001,7 @@
       <c r="H933" t="s">
         <v>12</v>
       </c>
-      <c r="I933">
+      <c r="I933" s="15">
         <v>6.6179803775772938E+18</v>
       </c>
       <c r="J933" t="s">
@@ -33893,7 +34034,7 @@
       <c r="H934" t="s">
         <v>10</v>
       </c>
-      <c r="I934">
+      <c r="I934" s="15">
         <v>6.6179803861672284E+18</v>
       </c>
       <c r="J934" t="s">
@@ -33926,7 +34067,7 @@
       <c r="H935" t="s">
         <v>12</v>
       </c>
-      <c r="I935">
+      <c r="I935" s="15">
         <v>6.6179804205269668E+18</v>
       </c>
       <c r="J935" t="s">
@@ -33959,7 +34100,7 @@
       <c r="H936" t="s">
         <v>12</v>
       </c>
-      <c r="I936">
+      <c r="I936" s="15">
         <v>6.6179804849514762E+18</v>
       </c>
       <c r="J936" t="s">
@@ -33992,7 +34133,7 @@
       <c r="H937" t="s">
         <v>12</v>
       </c>
-      <c r="I937">
+      <c r="I937" s="15">
         <v>6.6179804849514762E+18</v>
       </c>
       <c r="J937" t="s">
@@ -34025,7 +34166,7 @@
       <c r="H938" t="s">
         <v>10</v>
       </c>
-      <c r="I938">
+      <c r="I938" s="15">
         <v>6.6179805193112146E+18</v>
       </c>
       <c r="J938" t="s">
@@ -34058,7 +34199,7 @@
       <c r="H939" t="s">
         <v>10</v>
       </c>
-      <c r="I939">
+      <c r="I939" s="15">
         <v>6.6179805364910838E+18</v>
       </c>
       <c r="J939" t="s">
@@ -34091,7 +34232,7 @@
       <c r="H940" t="s">
         <v>12</v>
       </c>
-      <c r="I940">
+      <c r="I940" s="15">
         <v>6.6179806610451354E+18</v>
       </c>
       <c r="J940" t="s">
@@ -34124,7 +34265,7 @@
       <c r="H941" t="s">
         <v>10</v>
       </c>
-      <c r="I941">
+      <c r="I941" s="15">
         <v>6.6179809445129769E+18</v>
       </c>
       <c r="J941" t="s">
@@ -34157,7 +34298,7 @@
       <c r="H942" t="s">
         <v>10</v>
       </c>
-      <c r="I942">
+      <c r="I942" s="15">
         <v>6.617981047592192E+18</v>
       </c>
       <c r="J942" t="s">
@@ -34190,7 +34331,7 @@
       <c r="H943" t="s">
         <v>10</v>
       </c>
-      <c r="I943">
+      <c r="I943" s="15">
         <v>6.617981120606636E+18</v>
       </c>
       <c r="J943" t="s">
@@ -34223,7 +34364,7 @@
       <c r="H944" t="s">
         <v>10</v>
       </c>
-      <c r="I944">
+      <c r="I944" s="15">
         <v>6.6179811463764398E+18</v>
       </c>
       <c r="J944" t="s">
@@ -34256,7 +34397,7 @@
       <c r="H945" t="s">
         <v>18</v>
       </c>
-      <c r="I945">
+      <c r="I945" s="15">
         <v>6.6179811549663744E+18</v>
       </c>
       <c r="J945" t="s">
@@ -34289,7 +34430,7 @@
       <c r="H946" t="s">
         <v>10</v>
       </c>
-      <c r="I946">
+      <c r="I946" s="15">
         <v>6.6179811549663744E+18</v>
       </c>
       <c r="J946" t="s">
@@ -34322,7 +34463,7 @@
       <c r="H947" t="s">
         <v>10</v>
       </c>
-      <c r="I947">
+      <c r="I947" s="15">
         <v>6.6179811678512763E+18</v>
       </c>
       <c r="J947" t="s">
@@ -34355,7 +34496,7 @@
       <c r="H948" t="s">
         <v>10</v>
       </c>
-      <c r="I948">
+      <c r="I948" s="15">
         <v>6.6179811850311455E+18</v>
       </c>
       <c r="J948" t="s">
@@ -34388,7 +34529,7 @@
       <c r="H949" t="s">
         <v>12</v>
       </c>
-      <c r="I949">
+      <c r="I949" s="15">
         <v>6.6179811936210801E+18</v>
       </c>
       <c r="J949" t="s">
@@ -34421,7 +34562,7 @@
       <c r="H950" t="s">
         <v>12</v>
       </c>
-      <c r="I950">
+      <c r="I950" s="15">
         <v>6.6179812193908838E+18</v>
       </c>
       <c r="J950" t="s">
@@ -34454,7 +34595,7 @@
       <c r="H951" t="s">
         <v>10</v>
       </c>
-      <c r="I951">
+      <c r="I951" s="15">
         <v>6.6179812279808184E+18</v>
       </c>
       <c r="J951" t="s">
@@ -34487,7 +34628,7 @@
       <c r="H952" t="s">
         <v>10</v>
       </c>
-      <c r="I952">
+      <c r="I952" s="15">
         <v>6.6179813868946084E+18</v>
       </c>
       <c r="J952" t="s">
@@ -34520,7 +34661,7 @@
       <c r="H953" t="s">
         <v>12</v>
       </c>
-      <c r="I953">
+      <c r="I953" s="15">
         <v>6.6179814556140851E+18</v>
       </c>
       <c r="J953" t="s">
@@ -34553,7 +34694,7 @@
       <c r="H954" t="s">
         <v>10</v>
       </c>
-      <c r="I954">
+      <c r="I954" s="15">
         <v>6.6179814556140851E+18</v>
       </c>
       <c r="J954" t="s">
@@ -34586,7 +34727,7 @@
       <c r="H955" t="s">
         <v>10</v>
       </c>
-      <c r="I955">
+      <c r="I955" s="15">
         <v>6.6179815329234964E+18</v>
       </c>
       <c r="J955" t="s">
@@ -34619,7 +34760,7 @@
       <c r="H956" t="s">
         <v>10</v>
       </c>
-      <c r="I956">
+      <c r="I956" s="15">
         <v>6.617981541513431E+18</v>
       </c>
       <c r="J956" t="s">
@@ -34652,7 +34793,7 @@
       <c r="H957" t="s">
         <v>10</v>
       </c>
-      <c r="I957">
+      <c r="I957" s="15">
         <v>6.6179815501033656E+18</v>
       </c>
       <c r="J957" t="s">
@@ -34685,7 +34826,7 @@
       <c r="H958" t="s">
         <v>10</v>
       </c>
-      <c r="I958">
+      <c r="I958" s="15">
         <v>6.6179815629882675E+18</v>
       </c>
       <c r="J958" t="s">
@@ -34718,7 +34859,7 @@
       <c r="H959" t="s">
         <v>10</v>
       </c>
-      <c r="I959">
+      <c r="I959" s="15">
         <v>6.6179815672832348E+18</v>
       </c>
       <c r="J959" t="s">
@@ -34751,7 +34892,7 @@
       <c r="H960" t="s">
         <v>18</v>
       </c>
-      <c r="I960">
+      <c r="I960" s="15">
         <v>6.6179815758731694E+18</v>
       </c>
       <c r="J960" t="s">
@@ -34784,7 +34925,7 @@
       <c r="H961" t="s">
         <v>10</v>
       </c>
-      <c r="I961">
+      <c r="I961" s="15">
         <v>6.6179815758731694E+18</v>
       </c>
       <c r="J961" t="s">
@@ -34817,7 +34958,7 @@
       <c r="H962" t="s">
         <v>10</v>
       </c>
-      <c r="I962">
+      <c r="I962" s="15">
         <v>6.6179815801681367E+18</v>
       </c>
       <c r="J962" t="s">
@@ -34850,7 +34991,7 @@
       <c r="H963" t="s">
         <v>12</v>
       </c>
-      <c r="I963">
+      <c r="I963" s="15">
         <v>6.617981584463104E+18</v>
       </c>
       <c r="J963" t="s">
@@ -34883,7 +35024,7 @@
       <c r="H964" t="s">
         <v>10</v>
       </c>
-      <c r="I964">
+      <c r="I964" s="15">
         <v>6.6179816145278751E+18</v>
       </c>
       <c r="J964" t="s">
@@ -34916,7 +35057,7 @@
       <c r="H965" t="s">
         <v>18</v>
       </c>
-      <c r="I965">
+      <c r="I965" s="15">
         <v>6.6179816918372864E+18</v>
       </c>
       <c r="J965" t="s">
@@ -34949,7 +35090,7 @@
       <c r="H966" t="s">
         <v>18</v>
       </c>
-      <c r="I966">
+      <c r="I966" s="15">
         <v>6.617981773441665E+18</v>
       </c>
       <c r="J966" t="s">
@@ -34982,7 +35123,7 @@
       <c r="H967" t="s">
         <v>12</v>
       </c>
-      <c r="I967">
+      <c r="I967" s="15">
         <v>6.6179821299239506E+18</v>
       </c>
       <c r="J967" t="s">
@@ -35015,7 +35156,7 @@
       <c r="H968" t="s">
         <v>18</v>
       </c>
-      <c r="I968">
+      <c r="I968" s="15">
         <v>6.6179821814635581E+18</v>
       </c>
       <c r="J968" t="s">
@@ -35048,7 +35189,7 @@
       <c r="H969" t="s">
         <v>12</v>
       </c>
-      <c r="I969">
+      <c r="I969" s="15">
         <v>6.6179821814635581E+18</v>
       </c>
       <c r="J969" t="s">
@@ -35081,7 +35222,7 @@
       <c r="H970" t="s">
         <v>12</v>
       </c>
-      <c r="I970">
+      <c r="I970" s="15">
         <v>6.6179821857585254E+18</v>
       </c>
       <c r="J970" t="s">
@@ -35114,7 +35255,7 @@
       <c r="H971" t="s">
         <v>10</v>
       </c>
-      <c r="I971">
+      <c r="I971" s="15">
         <v>6.6179822029383946E+18</v>
       </c>
       <c r="J971" t="s">
@@ -35147,7 +35288,7 @@
       <c r="H972" t="s">
         <v>12</v>
       </c>
-      <c r="I972">
+      <c r="I972" s="15">
         <v>6.6179822716578714E+18</v>
       </c>
       <c r="J972" t="s">
@@ -35180,7 +35321,7 @@
       <c r="H973" t="s">
         <v>12</v>
       </c>
-      <c r="I973">
+      <c r="I973" s="15">
         <v>6.6179825680106148E+18</v>
       </c>
       <c r="J973" t="s">
@@ -35213,7 +35354,7 @@
       <c r="H974" t="s">
         <v>12</v>
       </c>
-      <c r="I974">
+      <c r="I974" s="15">
         <v>6.6179826882696991E+18</v>
       </c>
       <c r="J974" t="s">
@@ -35246,7 +35387,7 @@
       <c r="H975" t="s">
         <v>12</v>
       </c>
-      <c r="I975">
+      <c r="I975" s="15">
         <v>6.617982701154601E+18</v>
       </c>
       <c r="J975" t="s">
@@ -35279,7 +35420,7 @@
       <c r="H976" t="s">
         <v>12</v>
       </c>
-      <c r="I976">
+      <c r="I976" s="15">
         <v>6.6179827097445356E+18</v>
       </c>
       <c r="J976" t="s">
@@ -35312,7 +35453,7 @@
       <c r="H977" t="s">
         <v>12</v>
       </c>
-      <c r="I977">
+      <c r="I977" s="15">
         <v>6.6179827398093066E+18</v>
       </c>
       <c r="J977" t="s">
@@ -35345,7 +35486,7 @@
       <c r="H978" t="s">
         <v>12</v>
       </c>
-      <c r="I978">
+      <c r="I978" s="15">
         <v>6.6179827526942085E+18</v>
       </c>
       <c r="J978" t="s">
@@ -35378,7 +35519,7 @@
       <c r="H979" t="s">
         <v>12</v>
       </c>
-      <c r="I979">
+      <c r="I979" s="15">
         <v>6.6179827569891758E+18</v>
       </c>
       <c r="J979" t="s">
@@ -35411,7 +35552,7 @@
       <c r="H980" t="s">
         <v>10</v>
       </c>
-      <c r="I980">
+      <c r="I980" s="15">
         <v>6.6179827569891758E+18</v>
       </c>
       <c r="J980" t="s">
@@ -35444,7 +35585,7 @@
       <c r="H981" t="s">
         <v>10</v>
       </c>
-      <c r="I981">
+      <c r="I981" s="15">
         <v>6.6179827569891758E+18</v>
       </c>
       <c r="J981" t="s">
@@ -35477,7 +35618,7 @@
       <c r="H982" t="s">
         <v>12</v>
       </c>
-      <c r="I982">
+      <c r="I982" s="15">
         <v>6.6179828600683909E+18</v>
       </c>
       <c r="J982" t="s">
@@ -35510,7 +35651,7 @@
       <c r="H983" t="s">
         <v>12</v>
       </c>
-      <c r="I983">
+      <c r="I983" s="15">
         <v>6.6179829545576714E+18</v>
       </c>
       <c r="J983" t="s">
@@ -35543,7 +35684,7 @@
       <c r="H984" t="s">
         <v>12</v>
       </c>
-      <c r="I984">
+      <c r="I984" s="15">
         <v>6.6179830834066903E+18</v>
       </c>
       <c r="J984" t="s">
@@ -35576,7 +35717,7 @@
       <c r="H985" t="s">
         <v>12</v>
       </c>
-      <c r="I985">
+      <c r="I985" s="15">
         <v>6.6179831650110689E+18</v>
       </c>
       <c r="J985" t="s">
@@ -35609,7 +35750,7 @@
       <c r="H986" t="s">
         <v>12</v>
       </c>
-      <c r="I986">
+      <c r="I986" s="15">
         <v>6.6179832595003494E+18</v>
       </c>
       <c r="J986" t="s">
@@ -35642,7 +35783,7 @@
       <c r="H987" t="s">
         <v>12</v>
       </c>
-      <c r="I987">
+      <c r="I987" s="15">
         <v>6.6179832723852513E+18</v>
       </c>
       <c r="J987" t="s">
@@ -35675,7 +35816,7 @@
       <c r="H988" t="s">
         <v>12</v>
       </c>
-      <c r="I988">
+      <c r="I988" s="15">
         <v>6.61798335398963E+18</v>
       </c>
       <c r="J988" t="s">
@@ -35708,7 +35849,7 @@
       <c r="H989" t="s">
         <v>12</v>
       </c>
-      <c r="I989">
+      <c r="I989" s="15">
         <v>6.6179834398889759E+18</v>
       </c>
       <c r="J989" t="s">
@@ -35741,7 +35882,7 @@
       <c r="H990" t="s">
         <v>12</v>
       </c>
-      <c r="I990">
+      <c r="I990" s="15">
         <v>6.6179835129034199E+18</v>
       </c>
       <c r="J990" t="s">
@@ -35774,7 +35915,7 @@
       <c r="H991" t="s">
         <v>18</v>
       </c>
-      <c r="I991">
+      <c r="I991" s="15">
         <v>6.6179835515581256E+18</v>
       </c>
       <c r="J991" t="s">
@@ -35807,7 +35948,7 @@
       <c r="H992" t="s">
         <v>12</v>
       </c>
-      <c r="I992">
+      <c r="I992" s="15">
         <v>6.6179835902128312E+18</v>
       </c>
       <c r="J992" t="s">
@@ -35840,7 +35981,7 @@
       <c r="H993" t="s">
         <v>12</v>
       </c>
-      <c r="I993">
+      <c r="I993" s="15">
         <v>6.6179836975870136E+18</v>
       </c>
       <c r="J993" t="s">
@@ -35873,7 +36014,7 @@
       <c r="H994" t="s">
         <v>12</v>
       </c>
-      <c r="I994">
+      <c r="I994" s="15">
         <v>6.6179837405366866E+18</v>
       </c>
       <c r="J994" t="s">
@@ -35906,7 +36047,7 @@
       <c r="H995" t="s">
         <v>12</v>
       </c>
-      <c r="I995">
+      <c r="I995" s="15">
         <v>6.6179837706014577E+18</v>
       </c>
       <c r="J995" t="s">
@@ -35939,7 +36080,7 @@
       <c r="H996" t="s">
         <v>12</v>
       </c>
-      <c r="I996">
+      <c r="I996" s="15">
         <v>6.6179848701130854E+18</v>
       </c>
       <c r="J996" t="s">
@@ -35972,7 +36113,7 @@
       <c r="H997" t="s">
         <v>12</v>
       </c>
-      <c r="I997">
+      <c r="I997" s="15">
         <v>6.6179849130627584E+18</v>
       </c>
       <c r="J997" t="s">
@@ -36005,7 +36146,7 @@
       <c r="H998" t="s">
         <v>12</v>
       </c>
-      <c r="I998">
+      <c r="I998" s="15">
         <v>6.6179851192211886E+18</v>
       </c>
       <c r="J998" t="s">
@@ -36038,7 +36179,7 @@
       <c r="H999" t="s">
         <v>12</v>
       </c>
-      <c r="I999">
+      <c r="I999" s="15">
         <v>6.6179852609551094E+18</v>
       </c>
       <c r="J999" t="s">
@@ -36071,7 +36212,7 @@
       <c r="H1000" t="s">
         <v>12</v>
       </c>
-      <c r="I1000">
+      <c r="I1000" s="15">
         <v>6.6179853039047823E+18</v>
       </c>
       <c r="J1000" t="s">
@@ -36104,7 +36245,7 @@
       <c r="H1001" t="s">
         <v>12</v>
       </c>
-      <c r="I1001">
+      <c r="I1001" s="15">
         <v>6.617985647502166E+18</v>
       </c>
       <c r="J1001" t="s">
